--- a/data/IBC_Static_Data.xlsx
+++ b/data/IBC_Static_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/drock_byui_edu/Documents/Documents/Data Science Society/ibc-business-tracker/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62114977-9B67-4508-8D1E-4BFA930BEC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{62114977-9B67-4508-8D1E-4BFA930BEC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70F8D832-6927-4BF6-986C-78614890E0AD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="8" r:id="rId1"/>
@@ -1170,7 +1170,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -1256,7 +1256,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -1342,7 +1342,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -1412,7 +1412,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -1493,6 +1493,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2146,8 +2150,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T710"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A608" workbookViewId="0">
+      <selection activeCell="C630" sqref="C630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2203,11 +2207,11 @@
       </c>
       <c r="E2" s="20">
         <f ca="1">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>19.147805759011813</v>
+        <v>26.504942377406636</v>
       </c>
       <c r="F2" s="20">
         <f ca="1">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>7.0280931048220205</v>
+        <v>3.0030284188790586</v>
       </c>
       <c r="G2" s="19">
         <v>50</v>
@@ -2231,11 +2235,11 @@
       </c>
       <c r="E3" s="20">
         <f t="shared" ref="E3:E66" ca="1" si="0">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>19.718509409807204</v>
+        <v>30.008670447395914</v>
       </c>
       <c r="F3" s="20">
         <f t="shared" ref="F3:F66" ca="1" si="1">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>7.2470791708346081</v>
+        <v>7.021445672798146</v>
       </c>
       <c r="G3" s="19">
         <v>148</v>
@@ -2259,11 +2263,11 @@
       </c>
       <c r="E4" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>18.677774598268861</v>
+        <v>22.54273990626093</v>
       </c>
       <c r="F4" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0639637461062321</v>
+        <v>5.0053516439740937</v>
       </c>
       <c r="G4" s="19">
         <v>150</v>
@@ -2287,11 +2291,11 @@
       </c>
       <c r="E5" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>17.820182284205462</v>
+        <v>25.076225321437516</v>
       </c>
       <c r="F5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.189451598070101</v>
+        <v>3.5889079284934029</v>
       </c>
       <c r="G5" s="19">
         <v>100</v>
@@ -2315,11 +2319,11 @@
       </c>
       <c r="E6" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>30.386621906948495</v>
+        <v>22.892001015072669</v>
       </c>
       <c r="F6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3513933173609178</v>
+        <v>6.9068275985380652</v>
       </c>
       <c r="G6" s="19">
         <v>50</v>
@@ -2343,11 +2347,11 @@
       </c>
       <c r="E7" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>23.505257540532828</v>
+        <v>26.277783543269603</v>
       </c>
       <c r="F7" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1255713638700651</v>
+        <v>7.3116853325065678</v>
       </c>
       <c r="G7" s="19">
         <v>120</v>
@@ -2371,11 +2375,11 @@
       </c>
       <c r="E8" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>22.006585421038402</v>
+        <v>30.585874705179435</v>
       </c>
       <c r="F8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.416688215516146</v>
+        <v>7.3370215480297993</v>
       </c>
       <c r="G8" s="19">
         <v>200</v>
@@ -2399,11 +2403,11 @@
       </c>
       <c r="E9" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>26.848085593219306</v>
+        <v>36</v>
       </c>
       <c r="F9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8980183899520799</v>
+        <v>5.6167012748214526</v>
       </c>
       <c r="G9" s="19">
         <v>80</v>
@@ -2427,11 +2431,11 @@
       </c>
       <c r="E10" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>21.641548051101331</v>
+        <v>26.869436049925522</v>
       </c>
       <c r="F10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4910545893661649</v>
+        <v>5.6627407661826128</v>
       </c>
       <c r="G10" s="19">
         <v>40</v>
@@ -2455,11 +2459,11 @@
       </c>
       <c r="E11" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>20.959063565263879</v>
+        <v>17.897056621135178</v>
       </c>
       <c r="F11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6977268913394887</v>
+        <v>5.1593727610903981</v>
       </c>
       <c r="G11" s="19">
         <v>110</v>
@@ -2483,11 +2487,11 @@
       </c>
       <c r="E12" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>28.800789009029806</v>
+        <v>29.688740809831586</v>
       </c>
       <c r="F12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8085498996005951</v>
+        <v>9.5456925783950552</v>
       </c>
       <c r="G12" s="19">
         <v>150</v>
@@ -2511,11 +2515,11 @@
       </c>
       <c r="E13" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>26.429605134577862</v>
+        <v>20.500537848224404</v>
       </c>
       <c r="F13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8901984703032726</v>
+        <v>4.8593080762664957</v>
       </c>
       <c r="G13" s="19">
         <v>90</v>
@@ -2539,11 +2543,11 @@
       </c>
       <c r="E14" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>22.605390788792896</v>
+        <v>17.209847189747492</v>
       </c>
       <c r="F14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3815938213660353</v>
+        <v>5.2096231449468453</v>
       </c>
       <c r="G14" s="19">
         <v>30</v>
@@ -2567,11 +2571,11 @@
       </c>
       <c r="E15" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>17.562046121755571</v>
+        <v>21.187121844371848</v>
       </c>
       <c r="F15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2143556595346512</v>
+        <v>6.4996213458225869</v>
       </c>
       <c r="G15" s="19">
         <v>20</v>
@@ -2595,11 +2599,11 @@
       </c>
       <c r="E16" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>19.32409554869831</v>
+        <v>18.186385073329109</v>
       </c>
       <c r="F16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3826746979560713</v>
+        <v>7.8346398354607842</v>
       </c>
       <c r="G16" s="19">
         <v>70</v>
@@ -2623,11 +2627,11 @@
       </c>
       <c r="E17" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>12.983350042012333</v>
+        <v>23.260276728539925</v>
       </c>
       <c r="F17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1799967614727951</v>
+        <v>5.3591924496746488</v>
       </c>
       <c r="G17" s="19">
         <v>140</v>
@@ -2651,11 +2655,11 @@
       </c>
       <c r="E18" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>26.042016490658714</v>
+        <v>28.651225141267318</v>
       </c>
       <c r="F18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2065876651393612</v>
+        <v>5.6044542380500237</v>
       </c>
       <c r="G18" s="19">
         <v>100</v>
@@ -2679,11 +2683,11 @@
       </c>
       <c r="E19" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>16.72595741964782</v>
+        <v>17.048893821395094</v>
       </c>
       <c r="F19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4.709474966519215</v>
       </c>
       <c r="G19" s="19">
         <v>50</v>
@@ -2707,11 +2711,11 @@
       </c>
       <c r="E20" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>28.407621593129669</v>
+        <v>22.250512190593259</v>
       </c>
       <c r="F20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5586011879630197</v>
+        <v>6.1257967753590217</v>
       </c>
       <c r="G20" s="19">
         <v>120</v>
@@ -2735,11 +2739,11 @@
       </c>
       <c r="E21" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>27.42719151015346</v>
+        <v>22.879572686801783</v>
       </c>
       <c r="F21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9820457090676067</v>
+        <v>4.6597543681413356</v>
       </c>
       <c r="G21" s="19">
         <v>200</v>
@@ -2763,11 +2767,11 @@
       </c>
       <c r="E22" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>22.206496989638524</v>
+        <v>24.6123047669277</v>
       </c>
       <c r="F22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2497178528023829</v>
+        <v>5.6349711504336026</v>
       </c>
       <c r="G22" s="19">
         <v>80</v>
@@ -2791,11 +2795,11 @@
       </c>
       <c r="E23" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>15.545767653528806</v>
+        <v>24.615161770649149</v>
       </c>
       <c r="F23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2116037886950362</v>
+        <v>7.1666753808068719</v>
       </c>
       <c r="G23" s="19">
         <v>40</v>
@@ -2819,11 +2823,11 @@
       </c>
       <c r="E24" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>25.106282363952822</v>
+        <v>16.35262463833795</v>
       </c>
       <c r="F24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4211507019873633</v>
+        <v>6.0081719099218818</v>
       </c>
       <c r="G24" s="19">
         <v>110</v>
@@ -2847,11 +2851,11 @@
       </c>
       <c r="E25" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>26.118971701145771</v>
+        <v>20.998887231031677</v>
       </c>
       <c r="F25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8955339634495036</v>
+        <v>2.1569727309537661</v>
       </c>
       <c r="G25" s="19">
         <v>150</v>
@@ -2875,11 +2879,11 @@
       </c>
       <c r="E26" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>18.661932340618993</v>
+        <v>16.162768433267836</v>
       </c>
       <c r="F26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9309273905261559</v>
+        <v>3.5322892342043324</v>
       </c>
       <c r="G26" s="19">
         <v>90</v>
@@ -2903,11 +2907,11 @@
       </c>
       <c r="E27" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>27.186052813467402</v>
+        <v>21.314317629730283</v>
       </c>
       <c r="F27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5708207041910414</v>
+        <v>7.3340179172843154</v>
       </c>
       <c r="G27" s="19">
         <v>30</v>
@@ -2931,11 +2935,11 @@
       </c>
       <c r="E28" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>19.324644758726429</v>
+        <v>20.495791581341205</v>
       </c>
       <c r="F28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.681987193103339</v>
+        <v>7.5185131674195365</v>
       </c>
       <c r="G28" s="19">
         <v>20</v>
@@ -2959,11 +2963,11 @@
       </c>
       <c r="E29" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>18.624238108174445</v>
+        <v>24.368008650216453</v>
       </c>
       <c r="F29" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0942184546859917</v>
+        <v>6.0952382806304506</v>
       </c>
       <c r="G29" s="19">
         <v>70</v>
@@ -2987,11 +2991,11 @@
       </c>
       <c r="E30" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>27.027961780334984</v>
+        <v>24.020100642805851</v>
       </c>
       <c r="F30" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5417160997872639</v>
+        <v>7.2845290759804149</v>
       </c>
       <c r="G30" s="19">
         <v>140</v>
@@ -3015,11 +3019,11 @@
       </c>
       <c r="E31" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>26.991544983784895</v>
+        <v>24.257043057481134</v>
       </c>
       <c r="F31" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7449811076452</v>
+        <v>7.2149262331128732</v>
       </c>
       <c r="G31" s="19">
         <v>100</v>
@@ -3043,11 +3047,11 @@
       </c>
       <c r="E32" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>20.83101223214242</v>
+        <v>25.93471533412475</v>
       </c>
       <c r="F32" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9333063564127579</v>
+        <v>3.6918017668925631</v>
       </c>
       <c r="G32" s="19">
         <v>50</v>
@@ -3071,11 +3075,11 @@
       </c>
       <c r="E33" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>26.513806358962864</v>
+        <v>26.065211074978436</v>
       </c>
       <c r="F33" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9629683670131985</v>
+        <v>8.9891999857705098</v>
       </c>
       <c r="G33" s="19">
         <v>120</v>
@@ -3099,11 +3103,11 @@
       </c>
       <c r="E34" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>25.037272932868223</v>
+        <v>28.086504016716933</v>
       </c>
       <c r="F34" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6153814178300472</v>
+        <v>8.6257712927016286</v>
       </c>
       <c r="G34" s="19">
         <v>200</v>
@@ -3127,11 +3131,11 @@
       </c>
       <c r="E35" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>20.426650808197099</v>
+        <v>20.039859734974225</v>
       </c>
       <c r="F35" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8391188375577769</v>
+        <v>3.4942334375952346</v>
       </c>
       <c r="G35" s="19">
         <v>80</v>
@@ -3155,11 +3159,11 @@
       </c>
       <c r="E36" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>25.866542279121198</v>
+        <v>20.303757488259901</v>
       </c>
       <c r="F36" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5877219229861339</v>
+        <v>7.4454296021248911</v>
       </c>
       <c r="G36" s="19">
         <v>40</v>
@@ -3183,11 +3187,11 @@
       </c>
       <c r="E37" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>21.777496735710528</v>
+        <v>18.545681183757477</v>
       </c>
       <c r="F37" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1431449974046259</v>
+        <v>9.3922585301195127</v>
       </c>
       <c r="G37" s="19">
         <v>110</v>
@@ -3211,11 +3215,11 @@
       </c>
       <c r="E38" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>23.941293362169599</v>
+        <v>18.141942494441075</v>
       </c>
       <c r="F38" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5004411867320258</v>
+        <v>6.9952715844840663</v>
       </c>
       <c r="G38" s="19">
         <v>150</v>
@@ -3239,11 +3243,11 @@
       </c>
       <c r="E39" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>23.623954637439354</v>
+        <v>19.803165264737871</v>
       </c>
       <c r="F39" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.102252251600536</v>
+        <v>2</v>
       </c>
       <c r="G39" s="19">
         <v>90</v>
@@ -3267,11 +3271,11 @@
       </c>
       <c r="E40" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>26.797600770632872</v>
+        <v>24.793796192371644</v>
       </c>
       <c r="F40" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5086558607323246</v>
+        <v>6.1617796375051288</v>
       </c>
       <c r="G40" s="19">
         <v>30</v>
@@ -3295,11 +3299,11 @@
       </c>
       <c r="E41" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>28.576574886034333</v>
+        <v>20.666089055797219</v>
       </c>
       <c r="F41" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1424740296293976</v>
+        <v>5.8783052494856634</v>
       </c>
       <c r="G41" s="19">
         <v>20</v>
@@ -3323,11 +3327,11 @@
       </c>
       <c r="E42" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>19.368132778761442</v>
+        <v>20.444242735719921</v>
       </c>
       <c r="F42" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3633655871389418</v>
+        <v>4.0098360891006735</v>
       </c>
       <c r="G42" s="19">
         <v>70</v>
@@ -3351,11 +3355,11 @@
       </c>
       <c r="E43" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>26.086802942566848</v>
+        <v>18.484666438995877</v>
       </c>
       <c r="F43" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3475009242940601</v>
+        <v>5.8364869866033491</v>
       </c>
       <c r="G43" s="19">
         <v>140</v>
@@ -3379,11 +3383,11 @@
       </c>
       <c r="E44" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>22.993301296984566</v>
+        <v>11.882881324598227</v>
       </c>
       <c r="F44" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9224565566046365</v>
+        <v>7.0333483010021762</v>
       </c>
       <c r="G44" s="19">
         <v>100</v>
@@ -3407,11 +3411,11 @@
       </c>
       <c r="E45" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>22.693782290315639</v>
+        <v>21.752132037996681</v>
       </c>
       <c r="F45" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8755800517478267</v>
+        <v>4.5092430347818224</v>
       </c>
       <c r="G45" s="19">
         <v>50</v>
@@ -3435,11 +3439,11 @@
       </c>
       <c r="E46" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>24.861597896570636</v>
+        <v>26.848423176791137</v>
       </c>
       <c r="F46" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8420099529186853</v>
+        <v>5.4694720335958564</v>
       </c>
       <c r="G46" s="19">
         <v>120</v>
@@ -3463,11 +3467,11 @@
       </c>
       <c r="E47" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>25.182713194625421</v>
+        <v>21.342295779352305</v>
       </c>
       <c r="F47" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2396043865088924</v>
+        <v>4.0994948873236048</v>
       </c>
       <c r="G47" s="19">
         <v>200</v>
@@ -3491,11 +3495,11 @@
       </c>
       <c r="E48" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>26.02663375013887</v>
+        <v>25.533655887105329</v>
       </c>
       <c r="F48" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5444572987141152</v>
+        <v>4.9788316565975395</v>
       </c>
       <c r="G48" s="19">
         <v>80</v>
@@ -3519,11 +3523,11 @@
       </c>
       <c r="E49" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>26.345351173979587</v>
+        <v>25.340476634533974</v>
       </c>
       <c r="F49" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1630867180802431</v>
+        <v>4.8038561028831639</v>
       </c>
       <c r="G49" s="19">
         <v>40</v>
@@ -3547,11 +3551,11 @@
       </c>
       <c r="E50" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>24.92222496363032</v>
+        <v>26.395538604252586</v>
       </c>
       <c r="F50" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3213615492032353</v>
+        <v>8.9149677719523179</v>
       </c>
       <c r="G50" s="19">
         <v>110</v>
@@ -3575,11 +3579,11 @@
       </c>
       <c r="E51" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>17.84825550368101</v>
+        <v>20.033876842701808</v>
       </c>
       <c r="F51" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8923709742263002</v>
+        <v>3.868324653808382</v>
       </c>
       <c r="G51" s="19">
         <v>150</v>
@@ -3603,11 +3607,11 @@
       </c>
       <c r="E52" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>26.272553176679509</v>
+        <v>27.310389562832341</v>
       </c>
       <c r="F52" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0721807270641008</v>
+        <v>5.1389140736626731</v>
       </c>
       <c r="G52" s="19">
         <v>90</v>
@@ -3631,11 +3635,11 @@
       </c>
       <c r="E53" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>16.259244110734166</v>
+        <v>22.528179623382218</v>
       </c>
       <c r="F53" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.710558466250041</v>
+        <v>5.0127267146541392</v>
       </c>
       <c r="G53" s="19">
         <v>30</v>
@@ -3659,11 +3663,11 @@
       </c>
       <c r="E54" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>26.853339421193233</v>
+        <v>17.783412622098286</v>
       </c>
       <c r="F54" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1387474822329153</v>
+        <v>7.3759676788859672</v>
       </c>
       <c r="G54" s="19">
         <v>20</v>
@@ -3687,11 +3691,11 @@
       </c>
       <c r="E55" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>24.602195339629308</v>
+        <v>24.567647610183595</v>
       </c>
       <c r="F55" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0101735039100728</v>
+        <v>6.52827504976276</v>
       </c>
       <c r="G55" s="19">
         <v>70</v>
@@ -3715,11 +3719,11 @@
       </c>
       <c r="E56" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>21.371927256501372</v>
+        <v>24.137148698265488</v>
       </c>
       <c r="F56" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1959913443432697</v>
+        <v>7.817003082613617</v>
       </c>
       <c r="G56" s="19">
         <v>140</v>
@@ -3743,11 +3747,11 @@
       </c>
       <c r="E57" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>22.59164092892917</v>
+        <v>27.620606610527027</v>
       </c>
       <c r="F57" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.398428635079576</v>
+        <v>8.1646848749948635</v>
       </c>
       <c r="G57" s="19">
         <v>100</v>
@@ -3771,11 +3775,11 @@
       </c>
       <c r="E58" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>23.501875389699688</v>
+        <v>20.834132373514631</v>
       </c>
       <c r="F58" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3331608804981006</v>
+        <v>4.2203236758412928</v>
       </c>
       <c r="G58" s="19">
         <v>50</v>
@@ -3799,11 +3803,11 @@
       </c>
       <c r="E59" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>23.557824029098843</v>
+        <v>25.255506147822242</v>
       </c>
       <c r="F59" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8769646814722245</v>
+        <v>3.0964166406924005</v>
       </c>
       <c r="G59" s="19">
         <v>120</v>
@@ -3827,11 +3831,11 @@
       </c>
       <c r="E60" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>23.114999952815097</v>
+        <v>27.943900373554641</v>
       </c>
       <c r="F60" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9337507792979003</v>
+        <v>7.5925360168307341</v>
       </c>
       <c r="G60" s="19">
         <v>200</v>
@@ -3855,11 +3859,11 @@
       </c>
       <c r="E61" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>25.794770741146799</v>
+        <v>28.894924545083107</v>
       </c>
       <c r="F61" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.937765659684664</v>
+        <v>6.0818850051401032</v>
       </c>
       <c r="G61" s="19">
         <v>80</v>
@@ -3883,11 +3887,11 @@
       </c>
       <c r="E62" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>20.886299252187396</v>
+        <v>29.731822180972458</v>
       </c>
       <c r="F62" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2873543902783302</v>
+        <v>4.3514678937577465</v>
       </c>
       <c r="G62" s="19">
         <v>40</v>
@@ -3911,11 +3915,11 @@
       </c>
       <c r="E63" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>19.049292071867647</v>
+        <v>26.3959459768508</v>
       </c>
       <c r="F63" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.307062842551213</v>
+        <v>5.9523700420251444</v>
       </c>
       <c r="G63" s="19">
         <v>110</v>
@@ -3939,11 +3943,11 @@
       </c>
       <c r="E64" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>24.717879486926428</v>
+        <v>29.018975294234078</v>
       </c>
       <c r="F64" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.994666497346512</v>
+        <v>8.1936376280963898</v>
       </c>
       <c r="G64" s="19">
         <v>150</v>
@@ -3967,11 +3971,11 @@
       </c>
       <c r="E65" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>22.944130888072284</v>
+        <v>23.2682538255062</v>
       </c>
       <c r="F65" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5791724411539318</v>
+        <v>7.1647167329048624</v>
       </c>
       <c r="G65" s="19">
         <v>90</v>
@@ -3995,11 +3999,11 @@
       </c>
       <c r="E66" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>26.348955645795431</v>
+        <v>16.918666154541686</v>
       </c>
       <c r="F66" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8995779441363885</v>
+        <v>2.9829520733897987</v>
       </c>
       <c r="G66" s="19">
         <v>30</v>
@@ -4023,11 +4027,11 @@
       </c>
       <c r="E67" s="20">
         <f t="shared" ref="E67:E130" ca="1" si="2">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>27.620321713453198</v>
+        <v>19.28733974458325</v>
       </c>
       <c r="F67" s="20">
         <f t="shared" ref="F67:F130" ca="1" si="3">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>7.0855039664944695</v>
+        <v>5.8537863843088314</v>
       </c>
       <c r="G67" s="19">
         <v>20</v>
@@ -4051,11 +4055,11 @@
       </c>
       <c r="E68" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>28.396490981954486</v>
+        <v>18.773673771428445</v>
       </c>
       <c r="F68" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>9.5261502580406372</v>
+        <v>5.6309885993975959</v>
       </c>
       <c r="G68" s="19">
         <v>70</v>
@@ -4079,11 +4083,11 @@
       </c>
       <c r="E69" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>24.741465703731947</v>
+        <v>29.985549791895032</v>
       </c>
       <c r="F69" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0868746291249058</v>
+        <v>5.8919148849438434</v>
       </c>
       <c r="G69" s="19">
         <v>140</v>
@@ -4107,11 +4111,11 @@
       </c>
       <c r="E70" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>17.130061943215434</v>
+        <v>20.536965329929927</v>
       </c>
       <c r="F70" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.6872845941024739</v>
+        <v>7.2232295343398336</v>
       </c>
       <c r="G70" s="19">
         <v>100</v>
@@ -4135,11 +4139,11 @@
       </c>
       <c r="E71" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>24.16239525290349</v>
+        <v>31.574251028174196</v>
       </c>
       <c r="F71" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8382446287223848</v>
+        <v>5.9342679852087867</v>
       </c>
       <c r="G71" s="19">
         <v>50</v>
@@ -4163,11 +4167,11 @@
       </c>
       <c r="E72" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>26.632236437582172</v>
+        <v>25.914055320040109</v>
       </c>
       <c r="F72" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>10.809315207031119</v>
+        <v>5.0775676866527304</v>
       </c>
       <c r="G72" s="19">
         <v>120</v>
@@ -4191,11 +4195,11 @@
       </c>
       <c r="E73" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>22.451907466876381</v>
+        <v>26.087010513842518</v>
       </c>
       <c r="F73" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8704312136545642</v>
+        <v>9.3866923798800652</v>
       </c>
       <c r="G73" s="19">
         <v>200</v>
@@ -4219,11 +4223,11 @@
       </c>
       <c r="E74" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>20.48318804669686</v>
+        <v>21.938266762391216</v>
       </c>
       <c r="F74" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9233437909884517</v>
+        <v>5.4256796452202449</v>
       </c>
       <c r="G74" s="19">
         <v>80</v>
@@ -4247,11 +4251,11 @@
       </c>
       <c r="E75" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>19.012272623328776</v>
+        <v>29.751331379933109</v>
       </c>
       <c r="F75" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8492089217806287</v>
+        <v>4.372557053229654</v>
       </c>
       <c r="G75" s="19">
         <v>40</v>
@@ -4275,11 +4279,11 @@
       </c>
       <c r="E76" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>16.450743008743075</v>
+        <v>24.665459375606233</v>
       </c>
       <c r="F76" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>3.2926744574427373</v>
+        <v>6.2530618652374708</v>
       </c>
       <c r="G76" s="19">
         <v>110</v>
@@ -4303,11 +4307,11 @@
       </c>
       <c r="E77" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>20.931543679851096</v>
+        <v>26.891280238632596</v>
       </c>
       <c r="F77" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>7.8500233812788558</v>
+        <v>6.1688250455940175</v>
       </c>
       <c r="G77" s="19">
         <v>150</v>
@@ -4331,11 +4335,11 @@
       </c>
       <c r="E78" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>25.390192197443994</v>
+        <v>27.921047660024644</v>
       </c>
       <c r="F78" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7801659049481007</v>
+        <v>8.7453267080935415</v>
       </c>
       <c r="G78" s="19">
         <v>90</v>
@@ -4359,11 +4363,11 @@
       </c>
       <c r="E79" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>27.031543275017686</v>
+        <v>18.237357205577446</v>
       </c>
       <c r="F79" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.1183070342462225</v>
+        <v>5.7185925202154282</v>
       </c>
       <c r="G79" s="19">
         <v>30</v>
@@ -4387,11 +4391,11 @@
       </c>
       <c r="E80" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>25.88453340066269</v>
+        <v>30.668362693835292</v>
       </c>
       <c r="F80" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.5201129878874031</v>
+        <v>7.5148926513791361</v>
       </c>
       <c r="G80" s="19">
         <v>20</v>
@@ -4415,11 +4419,11 @@
       </c>
       <c r="E81" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>22.95594593659817</v>
+        <v>22.475845451232125</v>
       </c>
       <c r="F81" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1291218776997933</v>
+        <v>7.0808821386657863</v>
       </c>
       <c r="G81" s="19">
         <v>70</v>
@@ -4443,11 +4447,11 @@
       </c>
       <c r="E82" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>23.029159672302676</v>
+        <v>26.674611199950725</v>
       </c>
       <c r="F82" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.908022301583193</v>
+        <v>6.0366037385539153</v>
       </c>
       <c r="G82" s="19">
         <v>140</v>
@@ -4471,11 +4475,11 @@
       </c>
       <c r="E83" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>22.476848301660553</v>
+        <v>28.483677068527637</v>
       </c>
       <c r="F83" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>8.072996703749272</v>
+        <v>3.1909655580303329</v>
       </c>
       <c r="G83" s="19">
         <v>100</v>
@@ -4499,11 +4503,11 @@
       </c>
       <c r="E84" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>24.253834783748442</v>
+        <v>26.140629297600569</v>
       </c>
       <c r="F84" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>8.257354436552264</v>
+        <v>4.970671020934506</v>
       </c>
       <c r="G84" s="19">
         <v>50</v>
@@ -4527,11 +4531,11 @@
       </c>
       <c r="E85" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>19.118653002630722</v>
+        <v>28.33415364926357</v>
       </c>
       <c r="F85" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3741682598264213</v>
+        <v>8.9370414154978999</v>
       </c>
       <c r="G85" s="19">
         <v>120</v>
@@ -4555,11 +4559,11 @@
       </c>
       <c r="E86" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>22.44073271363234</v>
+        <v>27.581495198289339</v>
       </c>
       <c r="F86" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>10.244393955466006</v>
+        <v>11.470033147372963</v>
       </c>
       <c r="G86" s="19">
         <v>200</v>
@@ -4583,11 +4587,11 @@
       </c>
       <c r="E87" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>22.902325954940888</v>
       </c>
       <c r="F87" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7271949287344679</v>
+        <v>7.3181363712457879</v>
       </c>
       <c r="G87" s="19">
         <v>80</v>
@@ -4611,11 +4615,11 @@
       </c>
       <c r="E88" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>21.883067803945135</v>
+        <v>19.604896691022397</v>
       </c>
       <c r="F88" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7646684591335582</v>
+        <v>5.8390220357627021</v>
       </c>
       <c r="G88" s="19">
         <v>40</v>
@@ -4639,11 +4643,11 @@
       </c>
       <c r="E89" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>20.994941188921562</v>
+        <v>17.21954610618539</v>
       </c>
       <c r="F89" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.9912253606181185</v>
+        <v>7.2912168290518373</v>
       </c>
       <c r="G89" s="19">
         <v>110</v>
@@ -4667,11 +4671,11 @@
       </c>
       <c r="E90" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>21.239058635485087</v>
+        <v>22.084273545548772</v>
       </c>
       <c r="F90" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3349118283838681</v>
+        <v>3.8962697223556599</v>
       </c>
       <c r="G90" s="19">
         <v>150</v>
@@ -4695,11 +4699,11 @@
       </c>
       <c r="E91" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>23.96458853699562</v>
+        <v>20.021820985239252</v>
       </c>
       <c r="F91" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3522638167528274</v>
+        <v>5.7086401633337083</v>
       </c>
       <c r="G91" s="19">
         <v>90</v>
@@ -4723,11 +4727,11 @@
       </c>
       <c r="E92" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>18.900873919498189</v>
+        <v>23.200273341879551</v>
       </c>
       <c r="F92" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3534890581364873</v>
+        <v>4.8490665370130337</v>
       </c>
       <c r="G92" s="19">
         <v>30</v>
@@ -4751,11 +4755,11 @@
       </c>
       <c r="E93" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>23.151180045557801</v>
+        <v>23.87335703143544</v>
       </c>
       <c r="F93" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>8.6344145760049571</v>
+        <v>6.3007388982426136</v>
       </c>
       <c r="G93" s="19">
         <v>20</v>
@@ -4779,11 +4783,11 @@
       </c>
       <c r="E94" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>26.711971002287775</v>
+        <v>22.469684013663652</v>
       </c>
       <c r="F94" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.5980098696793794</v>
+        <v>6.6867879889220188</v>
       </c>
       <c r="G94" s="19">
         <v>70</v>
@@ -4807,11 +4811,11 @@
       </c>
       <c r="E95" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>22.453943709100816</v>
+        <v>20.473392084807784</v>
       </c>
       <c r="F95" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9793330648036633</v>
+        <v>4.1947487695132306</v>
       </c>
       <c r="G95" s="19">
         <v>140</v>
@@ -4835,11 +4839,11 @@
       </c>
       <c r="E96" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>17.846303428873057</v>
+        <v>21.489982927909825</v>
       </c>
       <c r="F96" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6521239116164494</v>
+        <v>5.7028687380512864</v>
       </c>
       <c r="G96" s="19">
         <v>100</v>
@@ -4863,11 +4867,11 @@
       </c>
       <c r="E97" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>22.648686173760915</v>
+        <v>19.998477959322333</v>
       </c>
       <c r="F97" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6812002772605972</v>
+        <v>9.0011294979602354</v>
       </c>
       <c r="G97" s="19">
         <v>50</v>
@@ -4891,11 +4895,11 @@
       </c>
       <c r="E98" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>20.712308769883876</v>
+        <v>31.614407584519356</v>
       </c>
       <c r="F98" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1294350973465184</v>
+        <v>2.1117035795872767</v>
       </c>
       <c r="G98" s="19">
         <v>120</v>
@@ -4919,11 +4923,11 @@
       </c>
       <c r="E99" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>32.625979595187609</v>
+        <v>21.770757918565646</v>
       </c>
       <c r="F99" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3538089010949488</v>
+        <v>3.7830166281882991</v>
       </c>
       <c r="G99" s="19">
         <v>200</v>
@@ -4947,11 +4951,11 @@
       </c>
       <c r="E100" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>27.121026680457398</v>
+        <v>26.095105043215469</v>
       </c>
       <c r="F100" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4755735050455421</v>
+        <v>8.4963326004728437</v>
       </c>
       <c r="G100" s="19">
         <v>80</v>
@@ -4975,11 +4979,11 @@
       </c>
       <c r="E101" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>23.747186919924108</v>
+        <v>27.376757870500061</v>
       </c>
       <c r="F101" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8207196931864935</v>
+        <v>5.5465092341409967</v>
       </c>
       <c r="G101" s="19">
         <v>40</v>
@@ -5003,11 +5007,11 @@
       </c>
       <c r="E102" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>20.691867919518184</v>
+        <v>29.554582852389466</v>
       </c>
       <c r="F102" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0742499593577604</v>
+        <v>5.425539431645034</v>
       </c>
       <c r="G102" s="19">
         <v>110</v>
@@ -5031,11 +5035,11 @@
       </c>
       <c r="E103" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>20.365676299631687</v>
+        <v>30.351385862729643</v>
       </c>
       <c r="F103" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5610388637606905</v>
+        <v>9.9591740754751985</v>
       </c>
       <c r="G103" s="19">
         <v>150</v>
@@ -5059,11 +5063,11 @@
       </c>
       <c r="E104" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>20.736024494039473</v>
+        <v>23.007618740676261</v>
       </c>
       <c r="F104" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>10.413166740834352</v>
+        <v>8.4796889949596039</v>
       </c>
       <c r="G104" s="19">
         <v>90</v>
@@ -5087,11 +5091,11 @@
       </c>
       <c r="E105" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>22.002623787244715</v>
+        <v>20.381536199653173</v>
       </c>
       <c r="F105" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4490130776588845</v>
+        <v>11.782223785451755</v>
       </c>
       <c r="G105" s="19">
         <v>30</v>
@@ -5115,11 +5119,11 @@
       </c>
       <c r="E106" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>18.01400728617773</v>
+        <v>22.607164500584425</v>
       </c>
       <c r="F106" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5746598371403362</v>
+        <v>5.4915795206794265</v>
       </c>
       <c r="G106" s="19">
         <v>20</v>
@@ -5143,11 +5147,11 @@
       </c>
       <c r="E107" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>23.673358655780316</v>
+        <v>16.651302738696906</v>
       </c>
       <c r="F107" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>8.717870971548388</v>
+        <v>4.4184305551503238</v>
       </c>
       <c r="G107" s="19">
         <v>70</v>
@@ -5171,11 +5175,11 @@
       </c>
       <c r="E108" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>27.013701963899599</v>
+        <v>26.456324727178476</v>
       </c>
       <c r="F108" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3035170871889399</v>
+        <v>8.4764869496907096</v>
       </c>
       <c r="G108" s="19">
         <v>140</v>
@@ -5199,11 +5203,11 @@
       </c>
       <c r="E109" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>23.445897238148529</v>
+        <v>29.476937976295964</v>
       </c>
       <c r="F109" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2893880407268776</v>
+        <v>12.074664334181575</v>
       </c>
       <c r="G109" s="19">
         <v>100</v>
@@ -5227,11 +5231,11 @@
       </c>
       <c r="E110" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>21.410981739191765</v>
+        <v>19.119542339066541</v>
       </c>
       <c r="F110" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.044071582111938</v>
+        <v>6.9650243836885517</v>
       </c>
       <c r="G110" s="19">
         <v>50</v>
@@ -5255,11 +5259,11 @@
       </c>
       <c r="E111" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>25.314031052378752</v>
+        <v>26.407309999952254</v>
       </c>
       <c r="F111" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>9.9433713641997237</v>
+        <v>6.7602650813890177</v>
       </c>
       <c r="G111" s="19">
         <v>120</v>
@@ -5283,11 +5287,11 @@
       </c>
       <c r="E112" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>21.737098486987865</v>
+        <v>31.070146258022636</v>
       </c>
       <c r="F112" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>7.165971611603009</v>
+        <v>5.3205150034798789</v>
       </c>
       <c r="G112" s="19">
         <v>200</v>
@@ -5311,11 +5315,11 @@
       </c>
       <c r="E113" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>25.346429844056466</v>
+        <v>19.191836514245018</v>
       </c>
       <c r="F113" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4364437650125197</v>
+        <v>6.4200709959487563</v>
       </c>
       <c r="G113" s="19">
         <v>80</v>
@@ -5339,11 +5343,11 @@
       </c>
       <c r="E114" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>19.460617657478657</v>
+        <v>24.694917906283614</v>
       </c>
       <c r="F114" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4562791133966519</v>
+        <v>5.8814270772842159</v>
       </c>
       <c r="G114" s="19">
         <v>40</v>
@@ -5367,11 +5371,11 @@
       </c>
       <c r="E115" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>21.55916529863795</v>
+        <v>20.641896913993552</v>
       </c>
       <c r="F115" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.9414416374718915</v>
+        <v>4.5512065942967377</v>
       </c>
       <c r="G115" s="19">
         <v>110</v>
@@ -5395,11 +5399,11 @@
       </c>
       <c r="E116" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>17.790211222054509</v>
+        <v>23.33127755496081</v>
       </c>
       <c r="F116" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1764242056061702</v>
+        <v>5.7527474447884739</v>
       </c>
       <c r="G116" s="19">
         <v>150</v>
@@ -5423,11 +5427,11 @@
       </c>
       <c r="E117" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>23.532052937466116</v>
+        <v>22.384498211748927</v>
       </c>
       <c r="F117" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.2520398194379272</v>
+        <v>3.225773259784853</v>
       </c>
       <c r="G117" s="19">
         <v>90</v>
@@ -5451,11 +5455,11 @@
       </c>
       <c r="E118" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>21.162071783682652</v>
+        <v>19.080152475828939</v>
       </c>
       <c r="F118" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1998477338046847</v>
+        <v>10.074834153893628</v>
       </c>
       <c r="G118" s="19">
         <v>30</v>
@@ -5479,11 +5483,11 @@
       </c>
       <c r="E119" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>18.773079323355496</v>
+        <v>19.501734133842511</v>
       </c>
       <c r="F119" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8678728941150515</v>
+        <v>4.6047457353434291</v>
       </c>
       <c r="G119" s="19">
         <v>20</v>
@@ -5507,11 +5511,11 @@
       </c>
       <c r="E120" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>21.8761612426954</v>
+        <v>16.389207482810978</v>
       </c>
       <c r="F120" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>7.2851441225686493</v>
+        <v>4.7168331392566181</v>
       </c>
       <c r="G120" s="19">
         <v>70</v>
@@ -5535,11 +5539,11 @@
       </c>
       <c r="E121" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>31.924536397142447</v>
+        <v>33.883557340271096</v>
       </c>
       <c r="F121" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>9.4429360315321045</v>
+        <v>8.6950804253196861</v>
       </c>
       <c r="G121" s="19">
         <v>140</v>
@@ -5563,11 +5567,11 @@
       </c>
       <c r="E122" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>26.368718456170537</v>
+        <v>23.070002035834683</v>
       </c>
       <c r="F122" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.9398952824918867</v>
+        <v>4.860289341981491</v>
       </c>
       <c r="G122" s="19">
         <v>100</v>
@@ -5591,11 +5595,11 @@
       </c>
       <c r="E123" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>29.462728755284616</v>
+        <v>21.712850014259502</v>
       </c>
       <c r="F123" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7088943824319678</v>
+        <v>5.4770175334478077</v>
       </c>
       <c r="G123" s="19">
         <v>50</v>
@@ -5619,11 +5623,11 @@
       </c>
       <c r="E124" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>26.152669086645592</v>
+        <v>21.617642935727226</v>
       </c>
       <c r="F124" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>3.2220945566140253</v>
+        <v>6.6921152973384972</v>
       </c>
       <c r="G124" s="19">
         <v>120</v>
@@ -5647,11 +5651,11 @@
       </c>
       <c r="E125" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>23.682821793985887</v>
+        <v>23.077888563752893</v>
       </c>
       <c r="F125" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6278494309754734</v>
+        <v>4.5253991804178879</v>
       </c>
       <c r="G125" s="19">
         <v>200</v>
@@ -5675,11 +5679,11 @@
       </c>
       <c r="E126" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>24.875503978342984</v>
+        <v>31.134256639234721</v>
       </c>
       <c r="F126" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3496983334528689</v>
+        <v>5.4712755261540353</v>
       </c>
       <c r="G126" s="19">
         <v>80</v>
@@ -5703,11 +5707,11 @@
       </c>
       <c r="E127" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>26.019368862899512</v>
+        <v>24.290278807852822</v>
       </c>
       <c r="F127" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7625774468090949</v>
+        <v>4.4344859388025268</v>
       </c>
       <c r="G127" s="19">
         <v>40</v>
@@ -5731,11 +5735,11 @@
       </c>
       <c r="E128" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>27.808805255987465</v>
+        <v>24.969303373033146</v>
       </c>
       <c r="F128" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6.5049781749564666</v>
       </c>
       <c r="G128" s="19">
         <v>110</v>
@@ -5759,11 +5763,11 @@
       </c>
       <c r="E129" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>27.064253455696917</v>
+        <v>24.145524383111937</v>
       </c>
       <c r="F129" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8135540735066256</v>
+        <v>5.5839282139511939</v>
       </c>
       <c r="G129" s="19">
         <v>150</v>
@@ -5787,11 +5791,11 @@
       </c>
       <c r="E130" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>26.45050983006816</v>
+        <v>28.794595148568167</v>
       </c>
       <c r="F130" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3801187231129788</v>
+        <v>6.9989402280629962</v>
       </c>
       <c r="G130" s="19">
         <v>90</v>
@@ -5815,11 +5819,11 @@
       </c>
       <c r="E131" s="20">
         <f t="shared" ref="E131:E194" ca="1" si="4">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>22.431653711317139</v>
+        <v>26.619006122940057</v>
       </c>
       <c r="F131" s="20">
         <f t="shared" ref="F131:F194" ca="1" si="5">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>4.34699769434072</v>
+        <v>9.0462420465628508</v>
       </c>
       <c r="G131" s="19">
         <v>30</v>
@@ -5843,11 +5847,11 @@
       </c>
       <c r="E132" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>20.84458389045318</v>
+        <v>22.156825568606962</v>
       </c>
       <c r="F132" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>7.8993196196590292</v>
+        <v>3.1341471809208468</v>
       </c>
       <c r="G132" s="19">
         <v>20</v>
@@ -5871,11 +5875,11 @@
       </c>
       <c r="E133" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>19.336275416675448</v>
+        <v>24.093225404705148</v>
       </c>
       <c r="F133" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>2.9606298583270698</v>
+        <v>3.6379609373235535</v>
       </c>
       <c r="G133" s="19">
         <v>70</v>
@@ -5899,11 +5903,11 @@
       </c>
       <c r="E134" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>18.285267564903538</v>
+        <v>16.726440821390916</v>
       </c>
       <c r="F134" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.3393765894911267</v>
+        <v>5.7195084604145849</v>
       </c>
       <c r="G134" s="19">
         <v>140</v>
@@ -5927,11 +5931,11 @@
       </c>
       <c r="E135" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>26.808790757901605</v>
+        <v>26.152609343512477</v>
       </c>
       <c r="F135" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.8202331799593026</v>
+        <v>2</v>
       </c>
       <c r="G135" s="19">
         <v>100</v>
@@ -5955,11 +5959,11 @@
       </c>
       <c r="E136" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>19.265671122871808</v>
+        <v>28.460586611237702</v>
       </c>
       <c r="F136" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.4199324624143639</v>
+        <v>4.6652551016957799</v>
       </c>
       <c r="G136" s="19">
         <v>50</v>
@@ -5983,11 +5987,11 @@
       </c>
       <c r="E137" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>29.130798317010932</v>
+        <v>17.473873862909556</v>
       </c>
       <c r="F137" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>8.560359140162884</v>
+        <v>6.0033847495093706</v>
       </c>
       <c r="G137" s="19">
         <v>120</v>
@@ -6011,11 +6015,11 @@
       </c>
       <c r="E138" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>27.583998955947397</v>
+        <v>17.370471367397386</v>
       </c>
       <c r="F138" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.128851226275227</v>
+        <v>4.5191110576856381</v>
       </c>
       <c r="G138" s="19">
         <v>200</v>
@@ -6039,11 +6043,11 @@
       </c>
       <c r="E139" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>27.930549136389647</v>
+        <v>22.766432340615051</v>
       </c>
       <c r="F139" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.8060711457011278</v>
+        <v>2.5953357667929438</v>
       </c>
       <c r="G139" s="19">
         <v>80</v>
@@ -6067,11 +6071,11 @@
       </c>
       <c r="E140" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>29.182502459128361</v>
+        <v>22.919693746010804</v>
       </c>
       <c r="F140" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>4.4663145738623848</v>
+        <v>8.7989791750595501</v>
       </c>
       <c r="G140" s="19">
         <v>40</v>
@@ -6095,11 +6099,11 @@
       </c>
       <c r="E141" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>19.202998509734297</v>
+        <v>24.448803077319962</v>
       </c>
       <c r="F141" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>7.3039817101718141</v>
+        <v>7.2747776526996741</v>
       </c>
       <c r="G141" s="19">
         <v>110</v>
@@ -6123,11 +6127,11 @@
       </c>
       <c r="E142" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>27.399826769124687</v>
+        <v>23.268537962539661</v>
       </c>
       <c r="F142" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>7.0127295527488025</v>
+        <v>4.995797996358613</v>
       </c>
       <c r="G142" s="19">
         <v>150</v>
@@ -6151,11 +6155,11 @@
       </c>
       <c r="E143" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>25.900345648993621</v>
+        <v>29.012057394857269</v>
       </c>
       <c r="F143" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>3.2092775585387763</v>
+        <v>6.9735359630455749</v>
       </c>
       <c r="G143" s="19">
         <v>90</v>
@@ -6179,11 +6183,11 @@
       </c>
       <c r="E144" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>24.900500847671669</v>
+        <v>23.830300198492765</v>
       </c>
       <c r="F144" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0276158035393834</v>
+        <v>5.2444211655325637</v>
       </c>
       <c r="G144" s="19">
         <v>30</v>
@@ -6207,11 +6211,11 @@
       </c>
       <c r="E145" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>19.777863290289599</v>
+        <v>25.783742564583907</v>
       </c>
       <c r="F145" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>7.4854240961589671</v>
+        <v>6.3416948471380374</v>
       </c>
       <c r="G145" s="19">
         <v>20</v>
@@ -6235,11 +6239,11 @@
       </c>
       <c r="E146" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>24.083996668562527</v>
+        <v>27.076011300511311</v>
       </c>
       <c r="F146" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>4.2228691960205609</v>
+        <v>8.7932240256655856</v>
       </c>
       <c r="G146" s="19">
         <v>70</v>
@@ -6263,11 +6267,11 @@
       </c>
       <c r="E147" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>21.837467897843844</v>
+        <v>26.3714679680741</v>
       </c>
       <c r="F147" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>8.1210900348767385</v>
+        <v>8.8190003299008577</v>
       </c>
       <c r="G147" s="19">
         <v>140</v>
@@ -6291,11 +6295,11 @@
       </c>
       <c r="E148" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>25.041945119623747</v>
+        <v>13.495040448160527</v>
       </c>
       <c r="F148" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.3953493744365053</v>
+        <v>5.4510969757378733</v>
       </c>
       <c r="G148" s="19">
         <v>100</v>
@@ -6319,11 +6323,11 @@
       </c>
       <c r="E149" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>17.027730917285503</v>
+        <v>24.214478049871083</v>
       </c>
       <c r="F149" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.3335199322827433</v>
+        <v>7.2552459451361351</v>
       </c>
       <c r="G149" s="19">
         <v>50</v>
@@ -6347,11 +6351,11 @@
       </c>
       <c r="E150" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>22.266895553567526</v>
+        <v>18.000354654603129</v>
       </c>
       <c r="F150" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>9.3199435995730511</v>
+        <v>2</v>
       </c>
       <c r="G150" s="19">
         <v>120</v>
@@ -6375,11 +6379,11 @@
       </c>
       <c r="E151" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>21.497495915657652</v>
+        <v>24.286054928996666</v>
       </c>
       <c r="F151" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.7483080054272522</v>
+        <v>5.1739336976258787</v>
       </c>
       <c r="G151" s="19">
         <v>200</v>
@@ -6403,11 +6407,11 @@
       </c>
       <c r="E152" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>28.187230852239651</v>
+        <v>23.673994822212517</v>
       </c>
       <c r="F152" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>7.8387104793715707</v>
+        <v>7.5274096013494951</v>
       </c>
       <c r="G152" s="19">
         <v>80</v>
@@ -6431,11 +6435,11 @@
       </c>
       <c r="E153" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>24.854256660194608</v>
+        <v>21.354617259823009</v>
       </c>
       <c r="F153" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.3840609168107179</v>
+        <v>5.5516922524596328</v>
       </c>
       <c r="G153" s="19">
         <v>40</v>
@@ -6459,11 +6463,11 @@
       </c>
       <c r="E154" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>23.541104657128855</v>
+        <v>22.019619438340719</v>
       </c>
       <c r="F154" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>2.9813562135465834</v>
+        <v>5.8647024195366759</v>
       </c>
       <c r="G154" s="19">
         <v>110</v>
@@ -6487,11 +6491,11 @@
       </c>
       <c r="E155" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>17.781162502246943</v>
+        <v>24.483887110266608</v>
       </c>
       <c r="F155" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6747925299604813</v>
+        <v>9.7844295775111103</v>
       </c>
       <c r="G155" s="19">
         <v>150</v>
@@ -6515,11 +6519,11 @@
       </c>
       <c r="E156" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>31.426266661347597</v>
+        <v>21.427105393447722</v>
       </c>
       <c r="F156" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>7.5620323168627612</v>
+        <v>4.4939635638102935</v>
       </c>
       <c r="G156" s="19">
         <v>90</v>
@@ -6543,11 +6547,11 @@
       </c>
       <c r="E157" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>28.122700902241235</v>
+        <v>20.544587707443931</v>
       </c>
       <c r="F157" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.4508920967862764</v>
+        <v>7.2973702892074428</v>
       </c>
       <c r="G157" s="19">
         <v>30</v>
@@ -6571,11 +6575,11 @@
       </c>
       <c r="E158" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>22.862100353762571</v>
+        <v>25.998485400065132</v>
       </c>
       <c r="F158" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>7.065182111741894</v>
+        <v>6.6945952075895239</v>
       </c>
       <c r="G158" s="19">
         <v>20</v>
@@ -6599,11 +6603,11 @@
       </c>
       <c r="E159" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>18.420807040394983</v>
+        <v>34.607013128457602</v>
       </c>
       <c r="F159" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.9477001692574518</v>
+        <v>11.104962775995492</v>
       </c>
       <c r="G159" s="19">
         <v>70</v>
@@ -6627,11 +6631,11 @@
       </c>
       <c r="E160" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>15.316841198604564</v>
+        <v>20.187883664650077</v>
       </c>
       <c r="F160" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4.410725409728423</v>
       </c>
       <c r="G160" s="19">
         <v>140</v>
@@ -6655,11 +6659,11 @@
       </c>
       <c r="E161" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>24.740123057693314</v>
+        <v>25.025665054850233</v>
       </c>
       <c r="F161" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>7.6872452599409877</v>
+        <v>8.1192260649439447</v>
       </c>
       <c r="G161" s="19">
         <v>100</v>
@@ -6683,11 +6687,11 @@
       </c>
       <c r="E162" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>22.782359996296048</v>
+        <v>19.254607183777946</v>
       </c>
       <c r="F162" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>8.2964714286650647</v>
+        <v>5.0821107776970686</v>
       </c>
       <c r="G162" s="19">
         <v>50</v>
@@ -6711,11 +6715,11 @@
       </c>
       <c r="E163" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>20.736290969004372</v>
+        <v>20.550311419742286</v>
       </c>
       <c r="F163" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1027307771351342</v>
+        <v>8.6539525604803416</v>
       </c>
       <c r="G163" s="19">
         <v>120</v>
@@ -6739,11 +6743,11 @@
       </c>
       <c r="E164" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>20.439533357633096</v>
+        <v>26.468226019641431</v>
       </c>
       <c r="F164" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.4995657639676701</v>
+        <v>6.4283605269389472</v>
       </c>
       <c r="G164" s="19">
         <v>200</v>
@@ -6767,11 +6771,11 @@
       </c>
       <c r="E165" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>17.570540008761355</v>
+        <v>24.553592196498162</v>
       </c>
       <c r="F165" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>4.034818777229443</v>
+        <v>5.937757310394713</v>
       </c>
       <c r="G165" s="19">
         <v>80</v>
@@ -6795,11 +6799,11 @@
       </c>
       <c r="E166" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>22.993008323370063</v>
+        <v>22.499561356152586</v>
       </c>
       <c r="F166" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>4.6656944596316388</v>
+        <v>11.577108760932965</v>
       </c>
       <c r="G166" s="19">
         <v>40</v>
@@ -6823,11 +6827,11 @@
       </c>
       <c r="E167" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>25.339354078326558</v>
+        <v>26.84669320347588</v>
       </c>
       <c r="F167" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.557380702214715</v>
+        <v>4.2850063914857008</v>
       </c>
       <c r="G167" s="19">
         <v>110</v>
@@ -6851,11 +6855,11 @@
       </c>
       <c r="E168" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>21.420758868980428</v>
+        <v>25.153906118526802</v>
       </c>
       <c r="F168" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>3.797659183986823</v>
+        <v>7.3476590135410778</v>
       </c>
       <c r="G168" s="19">
         <v>150</v>
@@ -6879,11 +6883,11 @@
       </c>
       <c r="E169" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>24.478569984676749</v>
+        <v>17.021582622585086</v>
       </c>
       <c r="F169" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4250295803789932</v>
+        <v>6.8874052530630587</v>
       </c>
       <c r="G169" s="19">
         <v>90</v>
@@ -6907,11 +6911,11 @@
       </c>
       <c r="E170" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>21.593783081504622</v>
+        <v>23.644428023993935</v>
       </c>
       <c r="F170" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>4.6369861662292777</v>
+        <v>7.1798457561880022</v>
       </c>
       <c r="G170" s="19">
         <v>30</v>
@@ -6935,11 +6939,11 @@
       </c>
       <c r="E171" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>23.85403400777745</v>
+        <v>21.778046046066379</v>
       </c>
       <c r="F171" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>8.5317285489986805</v>
+        <v>8.7649138609383161</v>
       </c>
       <c r="G171" s="19">
         <v>20</v>
@@ -6963,11 +6967,11 @@
       </c>
       <c r="E172" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>26.922226040876392</v>
+        <v>26.182497732057435</v>
       </c>
       <c r="F172" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>7.4375657398084236</v>
+        <v>5.7213985785084978</v>
       </c>
       <c r="G172" s="19">
         <v>70</v>
@@ -6991,11 +6995,11 @@
       </c>
       <c r="E173" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>23.122182067211163</v>
+        <v>22.571789904445939</v>
       </c>
       <c r="F173" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>3.3734432536160321</v>
+        <v>5.0652582625718541</v>
       </c>
       <c r="G173" s="19">
         <v>140</v>
@@ -7019,11 +7023,11 @@
       </c>
       <c r="E174" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>20.911094720709393</v>
+        <v>22.179099300773814</v>
       </c>
       <c r="F174" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0262458678391084</v>
+        <v>8.5209983988946547</v>
       </c>
       <c r="G174" s="19">
         <v>100</v>
@@ -7047,11 +7051,11 @@
       </c>
       <c r="E175" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>19.462902439765166</v>
+        <v>21.527700715810781</v>
       </c>
       <c r="F175" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>3.6323928525494784</v>
+        <v>5.8240530260966903</v>
       </c>
       <c r="G175" s="19">
         <v>50</v>
@@ -7075,11 +7079,11 @@
       </c>
       <c r="E176" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>27.898309374464191</v>
+        <v>21.052041640467937</v>
       </c>
       <c r="F176" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>10.960270068152393</v>
+        <v>9.2392286564653432</v>
       </c>
       <c r="G176" s="19">
         <v>120</v>
@@ -7103,11 +7107,11 @@
       </c>
       <c r="E177" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>27.9373477199725</v>
+        <v>22.640786945027738</v>
       </c>
       <c r="F177" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>4.669401183659267</v>
+        <v>5.9410255005651953</v>
       </c>
       <c r="G177" s="19">
         <v>200</v>
@@ -7131,11 +7135,11 @@
       </c>
       <c r="E178" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>25.867989687455658</v>
+        <v>33.618535332432437</v>
       </c>
       <c r="F178" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3.4214704281983743</v>
       </c>
       <c r="G178" s="19">
         <v>80</v>
@@ -7159,11 +7163,11 @@
       </c>
       <c r="E179" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>19.564905180549346</v>
+        <v>25.54129370436743</v>
       </c>
       <c r="F179" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>4.7499210182567788</v>
+        <v>6.515674016206952</v>
       </c>
       <c r="G179" s="19">
         <v>40</v>
@@ -7187,11 +7191,11 @@
       </c>
       <c r="E180" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>20.803108481451492</v>
+        <v>19.374579745747006</v>
       </c>
       <c r="F180" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>8.5487983302784674</v>
+        <v>6.5883693772545904</v>
       </c>
       <c r="G180" s="19">
         <v>110</v>
@@ -7215,11 +7219,11 @@
       </c>
       <c r="E181" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>19.358419707624357</v>
+        <v>23.741197330285349</v>
       </c>
       <c r="F181" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>7.9833975738091514</v>
+        <v>6.0734849173802061</v>
       </c>
       <c r="G181" s="19">
         <v>150</v>
@@ -7243,11 +7247,11 @@
       </c>
       <c r="E182" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>19.694378547405478</v>
+        <v>28.281150158310055</v>
       </c>
       <c r="F182" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>4.310320797892361</v>
+        <v>9.5752004427273683</v>
       </c>
       <c r="G182" s="19">
         <v>90</v>
@@ -7271,11 +7275,11 @@
       </c>
       <c r="E183" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>17.871263012004764</v>
+        <v>21.591086100995053</v>
       </c>
       <c r="F183" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>9.4317014014963707</v>
+        <v>6.919883592928346</v>
       </c>
       <c r="G183" s="19">
         <v>30</v>
@@ -7299,11 +7303,11 @@
       </c>
       <c r="E184" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>20.821253594941844</v>
+        <v>18.786449187490906</v>
       </c>
       <c r="F184" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1758232322341771</v>
+        <v>4.4542451896052979</v>
       </c>
       <c r="G184" s="19">
         <v>20</v>
@@ -7327,11 +7331,11 @@
       </c>
       <c r="E185" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>27.947726442835364</v>
+        <v>23.36228340980535</v>
       </c>
       <c r="F185" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.8705850165643412</v>
+        <v>5.0326770552251352</v>
       </c>
       <c r="G185" s="19">
         <v>70</v>
@@ -7355,11 +7359,11 @@
       </c>
       <c r="E186" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>25.724477977473988</v>
+        <v>25.340494042063973</v>
       </c>
       <c r="F186" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>8.7412268320931084</v>
+        <v>3.967690494535248</v>
       </c>
       <c r="G186" s="19">
         <v>140</v>
@@ -7383,11 +7387,11 @@
       </c>
       <c r="E187" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>23.099113143827285</v>
+        <v>25.303688116735223</v>
       </c>
       <c r="F187" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7449288688656539</v>
+        <v>7.4908553687401227</v>
       </c>
       <c r="G187" s="19">
         <v>100</v>
@@ -7411,11 +7415,11 @@
       </c>
       <c r="E188" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>29.360946715419885</v>
+        <v>24.941327180221304</v>
       </c>
       <c r="F188" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>9.0804234233982104</v>
+        <v>10.451353996934241</v>
       </c>
       <c r="G188" s="19">
         <v>50</v>
@@ -7439,11 +7443,11 @@
       </c>
       <c r="E189" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>30.74494236030748</v>
+        <v>21.400320852181903</v>
       </c>
       <c r="F189" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>4.3863004116540862</v>
+        <v>5.2611907118850185</v>
       </c>
       <c r="G189" s="19">
         <v>120</v>
@@ -7467,11 +7471,11 @@
       </c>
       <c r="E190" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>17.27073116103417</v>
+        <v>22.125943739149342</v>
       </c>
       <c r="F190" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.977102179018428</v>
+        <v>6.0685458358542936</v>
       </c>
       <c r="G190" s="19">
         <v>200</v>
@@ -7495,11 +7499,11 @@
       </c>
       <c r="E191" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>24.725973838785308</v>
+        <v>19.328573895790267</v>
       </c>
       <c r="F191" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.3516606684236523</v>
+        <v>5.8333057258576826</v>
       </c>
       <c r="G191" s="19">
         <v>80</v>
@@ -7523,11 +7527,11 @@
       </c>
       <c r="E192" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>15.501020047725085</v>
+        <v>26.356207566111308</v>
       </c>
       <c r="F192" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.630980108470375</v>
+        <v>2.9006525626202033</v>
       </c>
       <c r="G192" s="19">
         <v>40</v>
@@ -7551,11 +7555,11 @@
       </c>
       <c r="E193" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>22.088043785875456</v>
+        <v>20.385514234261269</v>
       </c>
       <c r="F193" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0180003558347224</v>
+        <v>5.4087491390642688</v>
       </c>
       <c r="G193" s="19">
         <v>110</v>
@@ -7579,11 +7583,11 @@
       </c>
       <c r="E194" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>20.752811271604493</v>
+        <v>11.37373886264249</v>
       </c>
       <c r="F194" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>9.2265396298178288</v>
+        <v>5.8795015107740962</v>
       </c>
       <c r="G194" s="19">
         <v>150</v>
@@ -7607,11 +7611,11 @@
       </c>
       <c r="E195" s="20">
         <f t="shared" ref="E195:E258" ca="1" si="6">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>23.147774746056907</v>
+        <v>16.516116247332434</v>
       </c>
       <c r="F195" s="20">
         <f t="shared" ref="F195:F258" ca="1" si="7">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>7.6784394986674913</v>
+        <v>7.5077359534133681</v>
       </c>
       <c r="G195" s="19">
         <v>90</v>
@@ -7635,11 +7639,11 @@
       </c>
       <c r="E196" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>23.355026520253123</v>
+        <v>25.682286246405081</v>
       </c>
       <c r="F196" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3.4457014711831038</v>
+        <v>4.6449978088412092</v>
       </c>
       <c r="G196" s="19">
         <v>30</v>
@@ -7663,11 +7667,11 @@
       </c>
       <c r="E197" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>18.71856245163632</v>
+        <v>17.568487765841123</v>
       </c>
       <c r="F197" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.5282618890896753</v>
+        <v>5.8275711317487451</v>
       </c>
       <c r="G197" s="19">
         <v>20</v>
@@ -7691,11 +7695,11 @@
       </c>
       <c r="E198" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>29.598339186829961</v>
+        <v>17.227302818261936</v>
       </c>
       <c r="F198" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.8005213664990629</v>
+        <v>3.3619231833659744</v>
       </c>
       <c r="G198" s="19">
         <v>70</v>
@@ -7719,11 +7723,11 @@
       </c>
       <c r="E199" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>26.733097474471407</v>
+        <v>14.61607492842313</v>
       </c>
       <c r="F199" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>8.4039833984415573</v>
+        <v>6.7679537867692652</v>
       </c>
       <c r="G199" s="19">
         <v>140</v>
@@ -7747,11 +7751,11 @@
       </c>
       <c r="E200" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>27.286565083685534</v>
+        <v>18.274322537226013</v>
       </c>
       <c r="F200" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>8.8273109589709193</v>
+        <v>3.6529340824638208</v>
       </c>
       <c r="G200" s="19">
         <v>100</v>
@@ -7775,11 +7779,11 @@
       </c>
       <c r="E201" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>23.302798893734817</v>
+        <v>20.168164377177341</v>
       </c>
       <c r="F201" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.734687487841299</v>
+        <v>4.4759717452886516</v>
       </c>
       <c r="G201" s="19">
         <v>50</v>
@@ -7803,11 +7807,11 @@
       </c>
       <c r="E202" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>24.503482274012981</v>
+        <v>28.261988147101633</v>
       </c>
       <c r="F202" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>7.2279805092591616</v>
+        <v>5.3202854554580608</v>
       </c>
       <c r="G202" s="19">
         <v>120</v>
@@ -7831,11 +7835,11 @@
       </c>
       <c r="E203" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>23.956018032050554</v>
+        <v>24.110631142303575</v>
       </c>
       <c r="F203" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5692468021456447</v>
+        <v>2.1405063130962527</v>
       </c>
       <c r="G203" s="19">
         <v>200</v>
@@ -7859,11 +7863,11 @@
       </c>
       <c r="E204" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>26.540027500729032</v>
+        <v>19.464706753514843</v>
       </c>
       <c r="F204" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3.3682001078071129</v>
+        <v>3.150891548736495</v>
       </c>
       <c r="G204" s="19">
         <v>80</v>
@@ -7887,11 +7891,11 @@
       </c>
       <c r="E205" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>21.809523184085727</v>
+        <v>19.984901894569898</v>
       </c>
       <c r="F205" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>9.0333806144960818</v>
+        <v>2.9635243549023862</v>
       </c>
       <c r="G205" s="19">
         <v>40</v>
@@ -7915,11 +7919,11 @@
       </c>
       <c r="E206" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>24.984612237186273</v>
+        <v>17.077618160192607</v>
       </c>
       <c r="F206" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.4202500111471563</v>
+        <v>5.5074983795616488</v>
       </c>
       <c r="G206" s="19">
         <v>110</v>
@@ -7943,11 +7947,11 @@
       </c>
       <c r="E207" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>25.032811374666309</v>
+        <v>25.558508441259747</v>
       </c>
       <c r="F207" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.7799979837672577</v>
+        <v>6.1544373087551669</v>
       </c>
       <c r="G207" s="19">
         <v>150</v>
@@ -7971,11 +7975,11 @@
       </c>
       <c r="E208" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>27.038411897191121</v>
+        <v>24.837180024550818</v>
       </c>
       <c r="F208" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.7362130145183565</v>
+        <v>7.4985914205446615</v>
       </c>
       <c r="G208" s="19">
         <v>90</v>
@@ -7999,11 +8003,11 @@
       </c>
       <c r="E209" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>19.019482182066831</v>
+        <v>30.833642432357806</v>
       </c>
       <c r="F209" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.7677481027088211</v>
+        <v>8.5954155167291439</v>
       </c>
       <c r="G209" s="19">
         <v>30</v>
@@ -8027,11 +8031,11 @@
       </c>
       <c r="E210" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>19.302659982127992</v>
+        <v>19.547801579782867</v>
       </c>
       <c r="F210" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.6817056465960221</v>
+        <v>5.7632980081856484</v>
       </c>
       <c r="G210" s="19">
         <v>20</v>
@@ -8055,11 +8059,11 @@
       </c>
       <c r="E211" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>25.067469942239438</v>
+        <v>20.19632300106796</v>
       </c>
       <c r="F211" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1431372924209589</v>
+        <v>5.6141154431906326</v>
       </c>
       <c r="G211" s="19">
         <v>70</v>
@@ -8083,11 +8087,11 @@
       </c>
       <c r="E212" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>28.62978258793208</v>
+        <v>22.691464249388495</v>
       </c>
       <c r="F212" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.5488324339502864</v>
+        <v>7.7433983734294305</v>
       </c>
       <c r="G212" s="19">
         <v>140</v>
@@ -8111,11 +8115,11 @@
       </c>
       <c r="E213" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>29.118591473571804</v>
+        <v>27.847644139484984</v>
       </c>
       <c r="F213" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.365142891621268</v>
+        <v>2.4562066077745071</v>
       </c>
       <c r="G213" s="19">
         <v>100</v>
@@ -8139,11 +8143,11 @@
       </c>
       <c r="E214" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>29.247888295480259</v>
+        <v>21.209048984000066</v>
       </c>
       <c r="F214" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>8.8994504542781065</v>
+        <v>5.4782580640876146</v>
       </c>
       <c r="G214" s="19">
         <v>50</v>
@@ -8167,11 +8171,11 @@
       </c>
       <c r="E215" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>20.741997878191967</v>
+        <v>26.316940761132649</v>
       </c>
       <c r="F215" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3.3896280850648592</v>
+        <v>4.6538538521426807</v>
       </c>
       <c r="G215" s="19">
         <v>120</v>
@@ -8195,11 +8199,11 @@
       </c>
       <c r="E216" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>21.614436656563093</v>
+        <v>20.89471254570811</v>
       </c>
       <c r="F216" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.5305918419326554</v>
+        <v>8.0285550899698404</v>
       </c>
       <c r="G216" s="19">
         <v>200</v>
@@ -8223,11 +8227,11 @@
       </c>
       <c r="E217" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>15.322094538455719</v>
+        <v>31.617238521032608</v>
       </c>
       <c r="F217" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.469015287167605</v>
+        <v>5.0050061998866076</v>
       </c>
       <c r="G217" s="19">
         <v>80</v>
@@ -8251,11 +8255,11 @@
       </c>
       <c r="E218" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>25.731671469941389</v>
+        <v>19.810841706268448</v>
       </c>
       <c r="F218" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.8762968823887665</v>
+        <v>5.0426994706710966</v>
       </c>
       <c r="G218" s="19">
         <v>40</v>
@@ -8279,11 +8283,11 @@
       </c>
       <c r="E219" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>22.188472417682178</v>
+        <v>25.883880485200692</v>
       </c>
       <c r="F219" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.7289864689887509</v>
+        <v>4.7568800247671774</v>
       </c>
       <c r="G219" s="19">
         <v>110</v>
@@ -8307,11 +8311,11 @@
       </c>
       <c r="E220" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>23.67614192420907</v>
+        <v>27.751898252462649</v>
       </c>
       <c r="F220" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7897854763851977</v>
+        <v>6.2161673218333418</v>
       </c>
       <c r="G220" s="19">
         <v>150</v>
@@ -8335,11 +8339,11 @@
       </c>
       <c r="E221" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>22.166694995234135</v>
+        <v>20.053339289759069</v>
       </c>
       <c r="F221" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.2179959378070198</v>
+        <v>6.8771186831936015</v>
       </c>
       <c r="G221" s="19">
         <v>90</v>
@@ -8363,11 +8367,11 @@
       </c>
       <c r="E222" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>22.259452008956977</v>
+        <v>25.137864763141568</v>
       </c>
       <c r="F222" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.4270514197755659</v>
+        <v>4.1663322012101407</v>
       </c>
       <c r="G222" s="19">
         <v>30</v>
@@ -8391,11 +8395,11 @@
       </c>
       <c r="E223" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>29.017076387155793</v>
+        <v>26.31097710382225</v>
       </c>
       <c r="F223" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2.6768879927945046</v>
+        <v>6.7920129932400126</v>
       </c>
       <c r="G223" s="19">
         <v>20</v>
@@ -8419,11 +8423,11 @@
       </c>
       <c r="E224" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>21.919676851823194</v>
+        <v>29.531454197879011</v>
       </c>
       <c r="F224" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.7850632407147806</v>
+        <v>6.0480503461002693</v>
       </c>
       <c r="G224" s="19">
         <v>70</v>
@@ -8447,11 +8451,11 @@
       </c>
       <c r="E225" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>23.739504951920907</v>
+        <v>26.610001965087665</v>
       </c>
       <c r="F225" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.4007854059701277</v>
+        <v>6.6052302017340319</v>
       </c>
       <c r="G225" s="19">
         <v>140</v>
@@ -8475,11 +8479,11 @@
       </c>
       <c r="E226" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>23.601806377694949</v>
+        <v>32.49442549173996</v>
       </c>
       <c r="F226" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.9279843802738537</v>
+        <v>6.6016767392155398</v>
       </c>
       <c r="G226" s="19">
         <v>100</v>
@@ -8503,11 +8507,11 @@
       </c>
       <c r="E227" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>20.17927239933913</v>
+        <v>17.635710308375941</v>
       </c>
       <c r="F227" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.7702725081708666</v>
+        <v>6.7766449561348665</v>
       </c>
       <c r="G227" s="19">
         <v>50</v>
@@ -8531,11 +8535,11 @@
       </c>
       <c r="E228" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>27.719006938619373</v>
+        <v>29.675854946279394</v>
       </c>
       <c r="F228" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1518454743424158</v>
+        <v>4.4612272785300391</v>
       </c>
       <c r="G228" s="19">
         <v>120</v>
@@ -8559,11 +8563,11 @@
       </c>
       <c r="E229" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>28.506347566458629</v>
+        <v>24.407071567385334</v>
       </c>
       <c r="F229" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>8.0557177568705249</v>
+        <v>7.1723583344067148</v>
       </c>
       <c r="G229" s="19">
         <v>200</v>
@@ -8587,11 +8591,11 @@
       </c>
       <c r="E230" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>24.525618647532315</v>
+        <v>32.158948931733967</v>
       </c>
       <c r="F230" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2.792947109405961</v>
+        <v>2</v>
       </c>
       <c r="G230" s="19">
         <v>80</v>
@@ -8615,11 +8619,11 @@
       </c>
       <c r="E231" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>24.909280434205538</v>
+        <v>26.716249388524226</v>
       </c>
       <c r="F231" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.5634849698885684</v>
+        <v>3.3209737570363065</v>
       </c>
       <c r="G231" s="19">
         <v>40</v>
@@ -8643,11 +8647,11 @@
       </c>
       <c r="E232" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>21.39676302504326</v>
+        <v>20.833965798566631</v>
       </c>
       <c r="F232" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>7.100281827591985</v>
+        <v>6.9792924992432086</v>
       </c>
       <c r="G232" s="19">
         <v>110</v>
@@ -8671,11 +8675,11 @@
       </c>
       <c r="E233" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>27.400354548335251</v>
+        <v>22.73624473914586</v>
       </c>
       <c r="F233" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.9212207294717967</v>
+        <v>4.9120010472231428</v>
       </c>
       <c r="G233" s="19">
         <v>150</v>
@@ -8699,11 +8703,11 @@
       </c>
       <c r="E234" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>23.364021445009936</v>
+        <v>23.523152085049805</v>
       </c>
       <c r="F234" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.2479503868505235</v>
+        <v>4.5863503474034202</v>
       </c>
       <c r="G234" s="19">
         <v>90</v>
@@ -8727,11 +8731,11 @@
       </c>
       <c r="E235" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>20.144780738540486</v>
+        <v>21.981479661079216</v>
       </c>
       <c r="F235" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.149590618882435</v>
+        <v>3.615529229862176</v>
       </c>
       <c r="G235" s="19">
         <v>30</v>
@@ -8755,11 +8759,11 @@
       </c>
       <c r="E236" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>29.033377317453251</v>
+        <v>25.544053172009438</v>
       </c>
       <c r="F236" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.4965714564733066</v>
+        <v>4.7078639588245998</v>
       </c>
       <c r="G236" s="19">
         <v>20</v>
@@ -8783,11 +8787,11 @@
       </c>
       <c r="E237" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>23.832463792556705</v>
+        <v>24.20059806358325</v>
       </c>
       <c r="F237" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>7.7481138633265285</v>
+        <v>2.7018931611259389</v>
       </c>
       <c r="G237" s="19">
         <v>70</v>
@@ -8811,11 +8815,11 @@
       </c>
       <c r="E238" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>20.352939282830537</v>
+        <v>20.798914368512559</v>
       </c>
       <c r="F238" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.7127352028122402</v>
+        <v>4.9849477642219195</v>
       </c>
       <c r="G238" s="19">
         <v>140</v>
@@ -8839,11 +8843,11 @@
       </c>
       <c r="E239" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>21.201707447632991</v>
+        <v>20.653209513222556</v>
       </c>
       <c r="F239" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>8.3117573621259933</v>
+        <v>4.8504844701112857</v>
       </c>
       <c r="G239" s="19">
         <v>100</v>
@@ -8867,11 +8871,11 @@
       </c>
       <c r="E240" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>23.96453213307602</v>
+        <v>21.682974489141671</v>
       </c>
       <c r="F240" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.4295695172819958</v>
+        <v>4.118936724935228</v>
       </c>
       <c r="G240" s="19">
         <v>50</v>
@@ -8895,11 +8899,11 @@
       </c>
       <c r="E241" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>26.364042574668371</v>
+        <v>20.440427976479238</v>
       </c>
       <c r="F241" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>8.5171251295123795</v>
+        <v>8.0348909272387132</v>
       </c>
       <c r="G241" s="19">
         <v>120</v>
@@ -8923,11 +8927,11 @@
       </c>
       <c r="E242" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>25.357741412685048</v>
+        <v>21.484425804529359</v>
       </c>
       <c r="F242" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>8.4971949106550078</v>
+        <v>4.6809366344443486</v>
       </c>
       <c r="G242" s="19">
         <v>200</v>
@@ -8951,11 +8955,11 @@
       </c>
       <c r="E243" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>26.248424146219005</v>
+        <v>27.147546709310454</v>
       </c>
       <c r="F243" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.9561474790278455</v>
+        <v>7.275950917793967</v>
       </c>
       <c r="G243" s="19">
         <v>80</v>
@@ -8979,11 +8983,11 @@
       </c>
       <c r="E244" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>21.434860860709477</v>
+        <v>24.091183577624054</v>
       </c>
       <c r="F244" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7788038540952575</v>
+        <v>11.493315175408817</v>
       </c>
       <c r="G244" s="19">
         <v>40</v>
@@ -9007,11 +9011,11 @@
       </c>
       <c r="E245" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>26.801161653247885</v>
+        <v>13.896107587695772</v>
       </c>
       <c r="F245" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.6197126660194376</v>
+        <v>5.9280304588379256</v>
       </c>
       <c r="G245" s="19">
         <v>110</v>
@@ -9035,11 +9039,11 @@
       </c>
       <c r="E246" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>21.8943299410363</v>
+        <v>20.238644222037983</v>
       </c>
       <c r="F246" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.9246088560724086</v>
+        <v>8.9770661235408777</v>
       </c>
       <c r="G246" s="19">
         <v>150</v>
@@ -9063,11 +9067,11 @@
       </c>
       <c r="E247" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>23.806208435030751</v>
+        <v>27.787768734874842</v>
       </c>
       <c r="F247" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.5361062854433305</v>
+        <v>6.9630568848499301</v>
       </c>
       <c r="G247" s="19">
         <v>90</v>
@@ -9091,11 +9095,11 @@
       </c>
       <c r="E248" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>24.016566653612585</v>
+        <v>28.786829126839535</v>
       </c>
       <c r="F248" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1083800246028233</v>
+        <v>2.7960420056565485</v>
       </c>
       <c r="G248" s="19">
         <v>30</v>
@@ -9119,11 +9123,11 @@
       </c>
       <c r="E249" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>24.769893354751446</v>
+        <v>20.842195171168065</v>
       </c>
       <c r="F249" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.3679310764712849</v>
+        <v>5.328730654273456</v>
       </c>
       <c r="G249" s="19">
         <v>20</v>
@@ -9147,11 +9151,11 @@
       </c>
       <c r="E250" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>31.053663922332341</v>
+        <v>25.710387886475413</v>
       </c>
       <c r="F250" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2.9962081784552042</v>
+        <v>6.9584234442340893</v>
       </c>
       <c r="G250" s="19">
         <v>70</v>
@@ -9175,11 +9179,11 @@
       </c>
       <c r="E251" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>24.935646960214061</v>
+        <v>21.486175730613162</v>
       </c>
       <c r="F251" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0949712208146831</v>
+        <v>4.3313109046050027</v>
       </c>
       <c r="G251" s="19">
         <v>140</v>
@@ -9203,11 +9207,11 @@
       </c>
       <c r="E252" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>20.899656302847525</v>
+        <v>20.917615705426201</v>
       </c>
       <c r="F252" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.564392246836908</v>
+        <v>6.4992852309302593</v>
       </c>
       <c r="G252" s="19">
         <v>100</v>
@@ -9231,11 +9235,11 @@
       </c>
       <c r="E253" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>23.70159717761284</v>
+        <v>23.59790827518631</v>
       </c>
       <c r="F253" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.7594479741891078</v>
+        <v>5.6687181330291558</v>
       </c>
       <c r="G253" s="19">
         <v>50</v>
@@ -9259,11 +9263,11 @@
       </c>
       <c r="E254" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>17.985928254195365</v>
+        <v>20.644411100312489</v>
       </c>
       <c r="F254" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2650880784094811</v>
+        <v>4.1903916166417456</v>
       </c>
       <c r="G254" s="19">
         <v>120</v>
@@ -9287,11 +9291,11 @@
       </c>
       <c r="E255" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>24.819842802943363</v>
+        <v>19.814733329655112</v>
       </c>
       <c r="F255" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>8.0343668632293159</v>
+        <v>3.6599091314868839</v>
       </c>
       <c r="G255" s="19">
         <v>200</v>
@@ -9315,11 +9319,11 @@
       </c>
       <c r="E256" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>24.123975755681133</v>
+        <v>16.243720622793035</v>
       </c>
       <c r="F256" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.4987967492596566</v>
+        <v>9.8738952569741194</v>
       </c>
       <c r="G256" s="19">
         <v>80</v>
@@ -9343,11 +9347,11 @@
       </c>
       <c r="E257" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>25.181994011818816</v>
+        <v>24.667253725737702</v>
       </c>
       <c r="F257" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.9542217471759171</v>
+        <v>5.6257655284167258</v>
       </c>
       <c r="G257" s="19">
         <v>40</v>
@@ -9371,11 +9375,11 @@
       </c>
       <c r="E258" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>24.786532215361195</v>
+        <v>18.732666236248932</v>
       </c>
       <c r="F258" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.9603216328271875</v>
+        <v>7.1372191222920645</v>
       </c>
       <c r="G258" s="19">
         <v>110</v>
@@ -9399,11 +9403,11 @@
       </c>
       <c r="E259" s="20">
         <f t="shared" ref="E259:E322" ca="1" si="8">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>27.623930314067422</v>
+        <v>19.341525713391977</v>
       </c>
       <c r="F259" s="20">
         <f t="shared" ref="F259:F322" ca="1" si="9">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>4.3912161947969963</v>
+        <v>6.866222019209177</v>
       </c>
       <c r="G259" s="19">
         <v>150</v>
@@ -9427,11 +9431,11 @@
       </c>
       <c r="E260" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>22.717594833711711</v>
+        <v>24.290448634359681</v>
       </c>
       <c r="F260" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>7.5630087180418766</v>
+        <v>9.869115648202726</v>
       </c>
       <c r="G260" s="19">
         <v>90</v>
@@ -9455,11 +9459,11 @@
       </c>
       <c r="E261" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>27.635191481990969</v>
+        <v>25.913465624402072</v>
       </c>
       <c r="F261" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>8.8606688505792093</v>
+        <v>6.5634264052771965</v>
       </c>
       <c r="G261" s="19">
         <v>30</v>
@@ -9483,11 +9487,11 @@
       </c>
       <c r="E262" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>25.956001034333056</v>
+        <v>22.08448535795851</v>
       </c>
       <c r="F262" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>8.4512217582547891</v>
+        <v>6.7296203220177926</v>
       </c>
       <c r="G262" s="19">
         <v>20</v>
@@ -9511,11 +9515,11 @@
       </c>
       <c r="E263" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>24.121199950400001</v>
+        <v>21.852280054460472</v>
       </c>
       <c r="F263" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>7.1028377299309078</v>
+        <v>4.0116762500410257</v>
       </c>
       <c r="G263" s="19">
         <v>70</v>
@@ -9539,11 +9543,11 @@
       </c>
       <c r="E264" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>23.368017265498889</v>
+        <v>27.685445356906229</v>
       </c>
       <c r="F264" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>8.2705505980657765</v>
+        <v>7.8629260038360567</v>
       </c>
       <c r="G264" s="19">
         <v>140</v>
@@ -9567,11 +9571,11 @@
       </c>
       <c r="E265" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>24.02722687205511</v>
+        <v>27.779924084891402</v>
       </c>
       <c r="F265" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>8.466224136339136</v>
+        <v>7.7051152059926382</v>
       </c>
       <c r="G265" s="19">
         <v>100</v>
@@ -9595,11 +9599,11 @@
       </c>
       <c r="E266" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>21.270293703051728</v>
+        <v>19.425902999173722</v>
       </c>
       <c r="F266" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3909102920861756</v>
+        <v>6.0958727195869669</v>
       </c>
       <c r="G266" s="19">
         <v>50</v>
@@ -9623,11 +9627,11 @@
       </c>
       <c r="E267" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>22.450772795566639</v>
+        <v>25.729373011162302</v>
       </c>
       <c r="F267" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.7769061386706388</v>
+        <v>4.7658263301673376</v>
       </c>
       <c r="G267" s="19">
         <v>120</v>
@@ -9651,11 +9655,11 @@
       </c>
       <c r="E268" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>21.555421842618486</v>
+        <v>22.347537632540472</v>
       </c>
       <c r="F268" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2205373074027532</v>
+        <v>3.4372949188285267</v>
       </c>
       <c r="G268" s="19">
         <v>200</v>
@@ -9679,11 +9683,11 @@
       </c>
       <c r="E269" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>23.184107306258351</v>
+        <v>26.735766796108059</v>
       </c>
       <c r="F269" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>4.6597178662836427</v>
+        <v>6.0978432058904914</v>
       </c>
       <c r="G269" s="19">
         <v>80</v>
@@ -9707,11 +9711,11 @@
       </c>
       <c r="E270" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>21.707588024776292</v>
+        <v>27.964753980506174</v>
       </c>
       <c r="F270" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>2.2430404159824175</v>
+        <v>7.8651477651963573</v>
       </c>
       <c r="G270" s="19">
         <v>40</v>
@@ -9735,11 +9739,11 @@
       </c>
       <c r="E271" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>19.82832361831133</v>
+        <v>23.516993590506431</v>
       </c>
       <c r="F271" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>5.7920366484136183</v>
+        <v>7.5409158776933074</v>
       </c>
       <c r="G271" s="19">
         <v>110</v>
@@ -9763,11 +9767,11 @@
       </c>
       <c r="E272" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>25.422095751011966</v>
+        <v>23.25810539927835</v>
       </c>
       <c r="F272" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>7.0836261095728306</v>
+        <v>6.4309989941433301</v>
       </c>
       <c r="G272" s="19">
         <v>150</v>
@@ -9791,11 +9795,11 @@
       </c>
       <c r="E273" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>16.449564149156835</v>
+        <v>24.193926740148449</v>
       </c>
       <c r="F273" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>9.0131182919629644</v>
+        <v>4.5823836976721006</v>
       </c>
       <c r="G273" s="19">
         <v>90</v>
@@ -9819,11 +9823,11 @@
       </c>
       <c r="E274" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>21.737336867954163</v>
+        <v>26.788875791022473</v>
       </c>
       <c r="F274" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>3.1646468899789961</v>
+        <v>7.7589042476704169</v>
       </c>
       <c r="G274" s="19">
         <v>30</v>
@@ -9847,11 +9851,11 @@
       </c>
       <c r="E275" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>21.540893505577984</v>
+        <v>19.988757185655061</v>
       </c>
       <c r="F275" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>4.8107037388780789</v>
+        <v>3.026464336029794</v>
       </c>
       <c r="G275" s="19">
         <v>20</v>
@@ -9875,11 +9879,11 @@
       </c>
       <c r="E276" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>18.520080999173793</v>
+        <v>19.128218433046232</v>
       </c>
       <c r="F276" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>8.729380974305494</v>
+        <v>3.4103016670329866</v>
       </c>
       <c r="G276" s="19">
         <v>70</v>
@@ -9903,11 +9907,11 @@
       </c>
       <c r="E277" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>32.08685972003736</v>
+        <v>20.707195680263009</v>
       </c>
       <c r="F277" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0519668715974193</v>
+        <v>3.3579631987491396</v>
       </c>
       <c r="G277" s="19">
         <v>140</v>
@@ -9931,11 +9935,11 @@
       </c>
       <c r="E278" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>22.357439927591315</v>
+        <v>33.761575995833994</v>
       </c>
       <c r="F278" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>2.7289470322820319</v>
+        <v>5.3467974998249215</v>
       </c>
       <c r="G278" s="19">
         <v>100</v>
@@ -9959,11 +9963,11 @@
       </c>
       <c r="E279" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>21.347833935096208</v>
+        <v>23.150129565897632</v>
       </c>
       <c r="F279" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>7.8555006915424137</v>
+        <v>5.0638245334264598</v>
       </c>
       <c r="G279" s="19">
         <v>50</v>
@@ -9987,11 +9991,11 @@
       </c>
       <c r="E280" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>21.765092049596639</v>
+        <v>20.46139340158776</v>
       </c>
       <c r="F280" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>4.4350378006665361</v>
+        <v>4.9039667859761051</v>
       </c>
       <c r="G280" s="19">
         <v>120</v>
@@ -10015,11 +10019,11 @@
       </c>
       <c r="E281" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>27.176962038487311</v>
+        <v>25.15956565794826</v>
       </c>
       <c r="F281" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>4.7206723882886408</v>
+        <v>5.545287100091147</v>
       </c>
       <c r="G281" s="19">
         <v>200</v>
@@ -10043,11 +10047,11 @@
       </c>
       <c r="E282" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>21.658429335846897</v>
+        <v>26.069945392228082</v>
       </c>
       <c r="F282" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>5.7089592638608497</v>
+        <v>7.1041940136526076</v>
       </c>
       <c r="G282" s="19">
         <v>80</v>
@@ -10071,11 +10075,11 @@
       </c>
       <c r="E283" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>17.244765599620926</v>
+        <v>21.694813772227228</v>
       </c>
       <c r="F283" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>4.7335892379612208</v>
+        <v>5.2372645064040588</v>
       </c>
       <c r="G283" s="19">
         <v>40</v>
@@ -10099,11 +10103,11 @@
       </c>
       <c r="E284" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>27.54325005004187</v>
+        <v>26.833132825794966</v>
       </c>
       <c r="F284" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.1413095810542986</v>
+        <v>6.2575905898318105</v>
       </c>
       <c r="G284" s="19">
         <v>110</v>
@@ -10127,11 +10131,11 @@
       </c>
       <c r="E285" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>24.508879011260987</v>
+        <v>15.869975540494359</v>
       </c>
       <c r="F285" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>5.751283677194321</v>
+        <v>4.9710276587200486</v>
       </c>
       <c r="G285" s="19">
         <v>150</v>
@@ -10155,11 +10159,11 @@
       </c>
       <c r="E286" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>24.716485729335691</v>
+        <v>23.784051449475026</v>
       </c>
       <c r="F286" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9734697189778805</v>
+        <v>5.9724940908199651</v>
       </c>
       <c r="G286" s="19">
         <v>90</v>
@@ -10183,11 +10187,11 @@
       </c>
       <c r="E287" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>30.829041139262401</v>
+        <v>25.021134052111879</v>
       </c>
       <c r="F287" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>4.3557236732952935</v>
+        <v>7.6926919782903385</v>
       </c>
       <c r="G287" s="19">
         <v>30</v>
@@ -10211,11 +10215,11 @@
       </c>
       <c r="E288" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>20.817648800475339</v>
+        <v>27.546647375750027</v>
       </c>
       <c r="F288" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>2.652979935872632</v>
+        <v>6.1749710505271977</v>
       </c>
       <c r="G288" s="19">
         <v>20</v>
@@ -10239,11 +10243,11 @@
       </c>
       <c r="E289" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>25.260083003681903</v>
+        <v>25.360774760770923</v>
       </c>
       <c r="F289" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>4.4158299626051081</v>
+        <v>5.707672098508346</v>
       </c>
       <c r="G289" s="19">
         <v>70</v>
@@ -10267,11 +10271,11 @@
       </c>
       <c r="E290" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>16.264611344533716</v>
+        <v>21.517283798423772</v>
       </c>
       <c r="F290" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>8.6045761809127281</v>
+        <v>6.1572662241612326</v>
       </c>
       <c r="G290" s="19">
         <v>140</v>
@@ -10295,11 +10299,11 @@
       </c>
       <c r="E291" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>25.608949548569612</v>
+        <v>21.74950237329481</v>
       </c>
       <c r="F291" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.1752136227618362</v>
+        <v>7.2583849446031516</v>
       </c>
       <c r="G291" s="19">
         <v>100</v>
@@ -10323,11 +10327,11 @@
       </c>
       <c r="E292" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>27.601893474291987</v>
+        <v>29.830471856162536</v>
       </c>
       <c r="F292" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5055691904991182</v>
+        <v>4.2263094342285079</v>
       </c>
       <c r="G292" s="19">
         <v>50</v>
@@ -10351,11 +10355,11 @@
       </c>
       <c r="E293" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>28.397866449338785</v>
+        <v>20.702436144174627</v>
       </c>
       <c r="F293" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>5.536679166280762</v>
+        <v>2.178473245022448</v>
       </c>
       <c r="G293" s="19">
         <v>120</v>
@@ -10379,11 +10383,11 @@
       </c>
       <c r="E294" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>25.321442049917465</v>
+        <v>27.426579356569693</v>
       </c>
       <c r="F294" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>7.8683250846854627</v>
+        <v>6.0399125553990158</v>
       </c>
       <c r="G294" s="19">
         <v>200</v>
@@ -10407,11 +10411,11 @@
       </c>
       <c r="E295" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>25.296453607691326</v>
+        <v>27.045735300136833</v>
       </c>
       <c r="F295" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>5.6336421233626739</v>
+        <v>6.2056229372887994</v>
       </c>
       <c r="G295" s="19">
         <v>80</v>
@@ -10435,11 +10439,11 @@
       </c>
       <c r="E296" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>20.344761771754154</v>
+        <v>25.812236750379647</v>
       </c>
       <c r="F296" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>10.245565773773789</v>
+        <v>4.8233632096431736</v>
       </c>
       <c r="G296" s="19">
         <v>40</v>
@@ -10463,11 +10467,11 @@
       </c>
       <c r="E297" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>22.225314602789933</v>
+        <v>24.61741104121943</v>
       </c>
       <c r="F297" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>8.0285623402967694</v>
+        <v>4.6912198381575756</v>
       </c>
       <c r="G297" s="19">
         <v>110</v>
@@ -10491,11 +10495,11 @@
       </c>
       <c r="E298" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>29.263683257651763</v>
+        <v>27.047952411538279</v>
       </c>
       <c r="F298" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0683538622766697</v>
+        <v>6.4974908417715822</v>
       </c>
       <c r="G298" s="19">
         <v>150</v>
@@ -10519,11 +10523,11 @@
       </c>
       <c r="E299" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>20.631074200057579</v>
+        <v>27.502074999537321</v>
       </c>
       <c r="F299" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.1021212922568635</v>
+        <v>4.2602485119407989</v>
       </c>
       <c r="G299" s="19">
         <v>90</v>
@@ -10547,11 +10551,11 @@
       </c>
       <c r="E300" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>23.521956229072618</v>
+        <v>19.042941756731924</v>
       </c>
       <c r="F300" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>3.8791369165586405</v>
+        <v>6.4211885995801019</v>
       </c>
       <c r="G300" s="19">
         <v>30</v>
@@ -10575,11 +10579,11 @@
       </c>
       <c r="E301" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>23.404618923905723</v>
+        <v>24.822577551648454</v>
       </c>
       <c r="F301" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9464799586659165</v>
+        <v>2</v>
       </c>
       <c r="G301" s="19">
         <v>20</v>
@@ -10603,11 +10607,11 @@
       </c>
       <c r="E302" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>31.062238868734006</v>
+        <v>28.467200886712323</v>
       </c>
       <c r="F302" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>9.3870368130799093</v>
+        <v>2</v>
       </c>
       <c r="G302" s="19">
         <v>70</v>
@@ -10631,11 +10635,11 @@
       </c>
       <c r="E303" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>17.913384365765481</v>
+        <v>21.930522189143701</v>
       </c>
       <c r="F303" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>7.9240336181033983</v>
+        <v>6.9340457851998858</v>
       </c>
       <c r="G303" s="19">
         <v>140</v>
@@ -10659,11 +10663,11 @@
       </c>
       <c r="E304" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>34.918488704850873</v>
+        <v>21.506301976142232</v>
       </c>
       <c r="F304" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.015564393606784</v>
+        <v>6.0060084786430501</v>
       </c>
       <c r="G304" s="19">
         <v>100</v>
@@ -10687,11 +10691,11 @@
       </c>
       <c r="E305" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>21.649655443662223</v>
+        <v>25.061442165065934</v>
       </c>
       <c r="F305" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>10.206635460220156</v>
+        <v>6.3434251080811963</v>
       </c>
       <c r="G305" s="19">
         <v>50</v>
@@ -10715,11 +10719,11 @@
       </c>
       <c r="E306" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>21.826640435728496</v>
+        <v>23.891682446782571</v>
       </c>
       <c r="F306" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>8.0858539144147823</v>
+        <v>6.4666484348400042</v>
       </c>
       <c r="G306" s="19">
         <v>120</v>
@@ -10743,11 +10747,11 @@
       </c>
       <c r="E307" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>21.002952963539993</v>
+        <v>22.613207131430176</v>
       </c>
       <c r="F307" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>9.2884255799117277</v>
+        <v>3.5946993222957806</v>
       </c>
       <c r="G307" s="19">
         <v>200</v>
@@ -10771,11 +10775,11 @@
       </c>
       <c r="E308" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>28.014111875053821</v>
+        <v>17.976068510654006</v>
       </c>
       <c r="F308" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>7.8505744119003609</v>
+        <v>6.1423366836420694</v>
       </c>
       <c r="G308" s="19">
         <v>80</v>
@@ -10799,11 +10803,11 @@
       </c>
       <c r="E309" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>26.593084550820706</v>
+        <v>28.996332612423011</v>
       </c>
       <c r="F309" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>2.4454947714567701</v>
+        <v>7.3598144615012249</v>
       </c>
       <c r="G309" s="19">
         <v>40</v>
@@ -10827,11 +10831,11 @@
       </c>
       <c r="E310" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>26.452769632561726</v>
+        <v>19.978948901161836</v>
       </c>
       <c r="F310" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>3.9325663469559915</v>
+        <v>2.9750000039365294</v>
       </c>
       <c r="G310" s="19">
         <v>110</v>
@@ -10855,11 +10859,11 @@
       </c>
       <c r="E311" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>20.986117011315688</v>
+        <v>20.377526707324083</v>
       </c>
       <c r="F311" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>8.2983816575108893</v>
+        <v>8.4270659606886973</v>
       </c>
       <c r="G311" s="19">
         <v>150</v>
@@ -10883,11 +10887,11 @@
       </c>
       <c r="E312" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>23.683159839587859</v>
+        <v>30.032903164245102</v>
       </c>
       <c r="F312" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>5.8286714562766297</v>
+        <v>6.1956144962279183</v>
       </c>
       <c r="G312" s="19">
         <v>90</v>
@@ -10911,11 +10915,11 @@
       </c>
       <c r="E313" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>25.348129496457339</v>
+        <v>14.129369432069542</v>
       </c>
       <c r="F313" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>3.9682988585519241</v>
+        <v>4.2438504035110727</v>
       </c>
       <c r="G313" s="19">
         <v>30</v>
@@ -10939,11 +10943,11 @@
       </c>
       <c r="E314" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>25.588101474921299</v>
+        <v>27.151266989824069</v>
       </c>
       <c r="F314" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.0349420625486099</v>
+        <v>7.1946618796311572</v>
       </c>
       <c r="G314" s="19">
         <v>20</v>
@@ -10967,11 +10971,11 @@
       </c>
       <c r="E315" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>30.498964464853088</v>
+        <v>22.540527597703004</v>
       </c>
       <c r="F315" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1109393651950121</v>
+        <v>7.2451703465184387</v>
       </c>
       <c r="G315" s="19">
         <v>70</v>
@@ -10995,11 +10999,11 @@
       </c>
       <c r="E316" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>23.3617337156271</v>
+        <v>22.658763400536337</v>
       </c>
       <c r="F316" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>5.8078038823954987</v>
+        <v>10.306081079646782</v>
       </c>
       <c r="G316" s="19">
         <v>140</v>
@@ -11023,11 +11027,11 @@
       </c>
       <c r="E317" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>28.167713260274965</v>
+        <v>27.017597119234956</v>
       </c>
       <c r="F317" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.16413126447911</v>
+        <v>5.7541711298259521</v>
       </c>
       <c r="G317" s="19">
         <v>100</v>
@@ -11051,11 +11055,11 @@
       </c>
       <c r="E318" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>27.977998589023464</v>
+        <v>21.385386731664063</v>
       </c>
       <c r="F318" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>4.6550863145732215</v>
+        <v>4.6889492173551579</v>
       </c>
       <c r="G318" s="19">
         <v>50</v>
@@ -11079,11 +11083,11 @@
       </c>
       <c r="E319" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>24.644633403568989</v>
+        <v>22.2337242746705</v>
       </c>
       <c r="F319" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>3.3923461079619206</v>
+        <v>3.6038036348144034</v>
       </c>
       <c r="G319" s="19">
         <v>120</v>
@@ -11107,11 +11111,11 @@
       </c>
       <c r="E320" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>21.08794727760764</v>
+        <v>19.856154559043272</v>
       </c>
       <c r="F320" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>7.0139121233009165</v>
+        <v>7.8434353336883191</v>
       </c>
       <c r="G320" s="19">
         <v>200</v>
@@ -11135,11 +11139,11 @@
       </c>
       <c r="E321" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>28.768371139462385</v>
+        <v>17.207985858619256</v>
       </c>
       <c r="F321" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.8559091728005006</v>
+        <v>3.3727361523707122</v>
       </c>
       <c r="G321" s="19">
         <v>80</v>
@@ -11163,11 +11167,11 @@
       </c>
       <c r="E322" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>19.328115738048062</v>
+        <v>30.621104640405978</v>
       </c>
       <c r="F322" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>3.0362974778352005</v>
+        <v>3.247658927039601</v>
       </c>
       <c r="G322" s="19">
         <v>40</v>
@@ -11191,11 +11195,11 @@
       </c>
       <c r="E323" s="20">
         <f t="shared" ref="E323:E386" ca="1" si="10">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>21.730805089710088</v>
+        <v>28.733657959243594</v>
       </c>
       <c r="F323" s="20">
         <f t="shared" ref="F323:F386" ca="1" si="11">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>5.9075427362559205</v>
+        <v>6.593321812695133</v>
       </c>
       <c r="G323" s="19">
         <v>110</v>
@@ -11219,11 +11223,11 @@
       </c>
       <c r="E324" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>18.091643363953374</v>
+        <v>27.239384200374278</v>
       </c>
       <c r="F324" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.5472673964089854</v>
+        <v>6.2001833916697633</v>
       </c>
       <c r="G324" s="19">
         <v>150</v>
@@ -11247,11 +11251,11 @@
       </c>
       <c r="E325" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>21.988294878658802</v>
+        <v>26.619872425028003</v>
       </c>
       <c r="F325" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>6.70708961511788</v>
+        <v>3.0735174420817035</v>
       </c>
       <c r="G325" s="19">
         <v>90</v>
@@ -11275,11 +11279,11 @@
       </c>
       <c r="E326" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>22.728376910628313</v>
+        <v>20.074842428622151</v>
       </c>
       <c r="F326" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.4607253671762006</v>
+        <v>7.9052002294344916</v>
       </c>
       <c r="G326" s="19">
         <v>30</v>
@@ -11303,11 +11307,11 @@
       </c>
       <c r="E327" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>21.658242154180677</v>
+        <v>23.469869656607003</v>
       </c>
       <c r="F327" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.5596426025161687</v>
+        <v>6.738530983324404</v>
       </c>
       <c r="G327" s="19">
         <v>20</v>
@@ -11331,11 +11335,11 @@
       </c>
       <c r="E328" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>28.188375455161808</v>
+        <v>24.468208991648098</v>
       </c>
       <c r="F328" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>8.027643029856284</v>
+        <v>4.3744395295709211</v>
       </c>
       <c r="G328" s="19">
         <v>70</v>
@@ -11359,11 +11363,11 @@
       </c>
       <c r="E329" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>24.911488081181432</v>
+        <v>21.742908036734736</v>
       </c>
       <c r="F329" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.7842688556129946</v>
+        <v>8.7707179465473413</v>
       </c>
       <c r="G329" s="19">
         <v>140</v>
@@ -11387,11 +11391,11 @@
       </c>
       <c r="E330" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>29.55197578632206</v>
+        <v>14.522501383622014</v>
       </c>
       <c r="F330" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>3.4938889116574865</v>
+        <v>8.4099679711400341</v>
       </c>
       <c r="G330" s="19">
         <v>100</v>
@@ -11415,11 +11419,11 @@
       </c>
       <c r="E331" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>31.844719632911669</v>
+        <v>27.60952910565684</v>
       </c>
       <c r="F331" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>6.476840949568234</v>
+        <v>6.1972101903086987</v>
       </c>
       <c r="G331" s="19">
         <v>50</v>
@@ -11443,11 +11447,11 @@
       </c>
       <c r="E332" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>22.135696047590059</v>
+        <v>17.602939251597029</v>
       </c>
       <c r="F332" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.3326832461095108</v>
+        <v>7.7774786764435486</v>
       </c>
       <c r="G332" s="19">
         <v>120</v>
@@ -11471,11 +11475,11 @@
       </c>
       <c r="E333" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>29.54225126333229</v>
+        <v>22.802981048069562</v>
       </c>
       <c r="F333" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.1387191446441349</v>
+        <v>6.4522406737629572</v>
       </c>
       <c r="G333" s="19">
         <v>200</v>
@@ -11499,11 +11503,11 @@
       </c>
       <c r="E334" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>28.037756830850089</v>
+        <v>20.976054716200252</v>
       </c>
       <c r="F334" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.8764155258672632</v>
+        <v>2</v>
       </c>
       <c r="G334" s="19">
         <v>80</v>
@@ -11527,11 +11531,11 @@
       </c>
       <c r="E335" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>21.801220739439927</v>
+        <v>14.561305584480138</v>
       </c>
       <c r="F335" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>8.802041582450677</v>
+        <v>8.3881840038771873</v>
       </c>
       <c r="G335" s="19">
         <v>40</v>
@@ -11555,11 +11559,11 @@
       </c>
       <c r="E336" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>19.202460681632864</v>
+        <v>23.302190619900319</v>
       </c>
       <c r="F336" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.9498592473177956</v>
+        <v>8.3800739769595527</v>
       </c>
       <c r="G336" s="19">
         <v>110</v>
@@ -11583,11 +11587,11 @@
       </c>
       <c r="E337" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>16.672244433173034</v>
+        <v>23.146264508219556</v>
       </c>
       <c r="F337" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>9.2436410075824664</v>
+        <v>6.1432716725401963</v>
       </c>
       <c r="G337" s="19">
         <v>150</v>
@@ -11611,11 +11615,11 @@
       </c>
       <c r="E338" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>21.088931771107305</v>
+        <v>24.416246526114435</v>
       </c>
       <c r="F338" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.1462353733602217</v>
+        <v>5.5537054369876175</v>
       </c>
       <c r="G338" s="19">
         <v>90</v>
@@ -11639,11 +11643,11 @@
       </c>
       <c r="E339" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>21.899252141301542</v>
+        <v>19.38250137773613</v>
       </c>
       <c r="F339" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.3919469225647605</v>
+        <v>8.0828336755294288</v>
       </c>
       <c r="G339" s="19">
         <v>30</v>
@@ -11667,11 +11671,11 @@
       </c>
       <c r="E340" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>29.794779483821451</v>
+        <v>25.894007175823901</v>
       </c>
       <c r="F340" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>8.3991904546480942</v>
+        <v>7.3193968852031253</v>
       </c>
       <c r="G340" s="19">
         <v>20</v>
@@ -11695,11 +11699,11 @@
       </c>
       <c r="E341" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>25.886848524361074</v>
+        <v>20.435695628257623</v>
       </c>
       <c r="F341" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>3.4620673937398085</v>
+        <v>5.0102730135639355</v>
       </c>
       <c r="G341" s="19">
         <v>70</v>
@@ -11723,11 +11727,11 @@
       </c>
       <c r="E342" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>24.223895430203747</v>
+        <v>18.496305399316689</v>
       </c>
       <c r="F342" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>6.2866951547845913</v>
+        <v>2</v>
       </c>
       <c r="G342" s="19">
         <v>140</v>
@@ -11751,11 +11755,11 @@
       </c>
       <c r="E343" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>22.816124255497339</v>
+        <v>26.226209970495884</v>
       </c>
       <c r="F343" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.4561662781475349</v>
+        <v>5.7984367966957073</v>
       </c>
       <c r="G343" s="19">
         <v>100</v>
@@ -11779,11 +11783,11 @@
       </c>
       <c r="E344" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>21.154233425762555</v>
+        <v>26.70673368977447</v>
       </c>
       <c r="F344" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.9305796640747204</v>
+        <v>6.1718279533946054</v>
       </c>
       <c r="G344" s="19">
         <v>50</v>
@@ -11807,11 +11811,11 @@
       </c>
       <c r="E345" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>19.17541619262132</v>
+        <v>25.370495512055218</v>
       </c>
       <c r="F345" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>2.5593006795100517</v>
+        <v>5.9473919182247563</v>
       </c>
       <c r="G345" s="19">
         <v>120</v>
@@ -11835,11 +11839,11 @@
       </c>
       <c r="E346" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>26.695739718708982</v>
+        <v>20.270997366188446</v>
       </c>
       <c r="F346" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.8819640541825802</v>
+        <v>3.8995614251228581</v>
       </c>
       <c r="G346" s="19">
         <v>200</v>
@@ -11863,11 +11867,11 @@
       </c>
       <c r="E347" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>30.924359729626939</v>
+        <v>22.49464390939864</v>
       </c>
       <c r="F347" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>6.4979513554554469</v>
+        <v>9.5769816610122476</v>
       </c>
       <c r="G347" s="19">
         <v>80</v>
@@ -11891,11 +11895,11 @@
       </c>
       <c r="E348" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>20.615139153604428</v>
+        <v>22.300611272586643</v>
       </c>
       <c r="F348" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.1717868842037689</v>
+        <v>7.1799897090969571</v>
       </c>
       <c r="G348" s="19">
         <v>40</v>
@@ -11919,11 +11923,11 @@
       </c>
       <c r="E349" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>20.85676400939936</v>
+        <v>21.18745424543679</v>
       </c>
       <c r="F349" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>6.2557536643363809</v>
+        <v>6.199547964978227</v>
       </c>
       <c r="G349" s="19">
         <v>110</v>
@@ -11947,11 +11951,11 @@
       </c>
       <c r="E350" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>25.839062259392005</v>
+        <v>29.670511085668124</v>
       </c>
       <c r="F350" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>6.0111482860538832</v>
+        <v>8.1587142520362725</v>
       </c>
       <c r="G350" s="19">
         <v>150</v>
@@ -11975,11 +11979,11 @@
       </c>
       <c r="E351" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>29.138802354236375</v>
+        <v>20.91302696797074</v>
       </c>
       <c r="F351" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.9901269118909291</v>
+        <v>4.7471920475446217</v>
       </c>
       <c r="G351" s="19">
         <v>90</v>
@@ -12003,11 +12007,11 @@
       </c>
       <c r="E352" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>23.726317673117414</v>
+        <v>16.552273742115542</v>
       </c>
       <c r="F352" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.8125531402538666</v>
+        <v>7.5016675908129606</v>
       </c>
       <c r="G352" s="19">
         <v>30</v>
@@ -12031,11 +12035,11 @@
       </c>
       <c r="E353" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>24.63085747173723</v>
+        <v>17.354332132582073</v>
       </c>
       <c r="F353" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>3.750250741456655</v>
+        <v>7.2064897061933726</v>
       </c>
       <c r="G353" s="19">
         <v>20</v>
@@ -12059,11 +12063,11 @@
       </c>
       <c r="E354" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>23.275256137316152</v>
+        <v>19.513148880654406</v>
       </c>
       <c r="F354" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.2465593103235504</v>
+        <v>7.0597654262414178</v>
       </c>
       <c r="G354" s="19">
         <v>70</v>
@@ -12087,11 +12091,11 @@
       </c>
       <c r="E355" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>20.914911930074013</v>
+        <v>23.14648128390948</v>
       </c>
       <c r="F355" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>9.6045722504642868</v>
+        <v>4.433530594957432</v>
       </c>
       <c r="G355" s="19">
         <v>140</v>
@@ -12115,11 +12119,11 @@
       </c>
       <c r="E356" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>23.103481351755899</v>
+        <v>28.394832552072167</v>
       </c>
       <c r="F356" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>6.487239435860614</v>
+        <v>3.079678858494344</v>
       </c>
       <c r="G356" s="19">
         <v>100</v>
@@ -12143,11 +12147,11 @@
       </c>
       <c r="E357" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>27.363737514445546</v>
+        <v>25.620406372939843</v>
       </c>
       <c r="F357" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>9.4449726508936731</v>
+        <v>4.8722407202486728</v>
       </c>
       <c r="G357" s="19">
         <v>50</v>
@@ -12171,11 +12175,11 @@
       </c>
       <c r="E358" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>19.528719239536731</v>
+        <v>21.179057740826895</v>
       </c>
       <c r="F358" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.3119135424867876</v>
+        <v>8.5690082007182653</v>
       </c>
       <c r="G358" s="19">
         <v>120</v>
@@ -12199,11 +12203,11 @@
       </c>
       <c r="E359" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>24.792993729790993</v>
+        <v>20.778181406373225</v>
       </c>
       <c r="F359" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.2272637110523918</v>
+        <v>4.542409992653945</v>
       </c>
       <c r="G359" s="19">
         <v>200</v>
@@ -12227,11 +12231,11 @@
       </c>
       <c r="E360" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>21.483374915453872</v>
+        <v>21.008589135605934</v>
       </c>
       <c r="F360" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.6515996792706122</v>
+        <v>5.256648649443834</v>
       </c>
       <c r="G360" s="19">
         <v>80</v>
@@ -12255,11 +12259,11 @@
       </c>
       <c r="E361" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>22.782899168716312</v>
+        <v>27.118261422563947</v>
       </c>
       <c r="F361" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>3.6229079421170995</v>
+        <v>7.7915478269235923</v>
       </c>
       <c r="G361" s="19">
         <v>40</v>
@@ -12283,11 +12287,11 @@
       </c>
       <c r="E362" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>26.478106445310946</v>
+        <v>26.435788098520092</v>
       </c>
       <c r="F362" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.0901338745896627</v>
+        <v>6.2861496280382498</v>
       </c>
       <c r="G362" s="19">
         <v>110</v>
@@ -12311,11 +12315,11 @@
       </c>
       <c r="E363" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>23.843925184601741</v>
+        <v>18.451533677273879</v>
       </c>
       <c r="F363" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>10.751831165121683</v>
+        <v>3.4656708216948178</v>
       </c>
       <c r="G363" s="19">
         <v>150</v>
@@ -12339,11 +12343,11 @@
       </c>
       <c r="E364" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>20.16027288438907</v>
+        <v>20.91888196186504</v>
       </c>
       <c r="F364" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.1386652797745649</v>
+        <v>7.8254692974520079</v>
       </c>
       <c r="G364" s="19">
         <v>90</v>
@@ -12367,11 +12371,11 @@
       </c>
       <c r="E365" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>23.887697109340454</v>
+        <v>17.383920019275195</v>
       </c>
       <c r="F365" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>8.0206611206245988</v>
+        <v>6.6214572432599308</v>
       </c>
       <c r="G365" s="19">
         <v>30</v>
@@ -12395,11 +12399,11 @@
       </c>
       <c r="E366" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>22.765381812151364</v>
+        <v>28.882729386468391</v>
       </c>
       <c r="F366" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>3.5340833342457274</v>
+        <v>5.3380751155040889</v>
       </c>
       <c r="G366" s="19">
         <v>20</v>
@@ -12423,11 +12427,11 @@
       </c>
       <c r="E367" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>28.394861943563736</v>
+        <v>18.786926058827682</v>
       </c>
       <c r="F367" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.5985411242261485</v>
+        <v>8.655650991503574</v>
       </c>
       <c r="G367" s="19">
         <v>70</v>
@@ -12451,11 +12455,11 @@
       </c>
       <c r="E368" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>19.158736472307879</v>
+        <v>17.982055946896509</v>
       </c>
       <c r="F368" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>8.8930614291329224</v>
+        <v>4.8523205464132229</v>
       </c>
       <c r="G368" s="19">
         <v>140</v>
@@ -12479,11 +12483,11 @@
       </c>
       <c r="E369" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>25.025351792336053</v>
+        <v>24.882169239382122</v>
       </c>
       <c r="F369" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>8.9429271026208745</v>
+        <v>8.4671248512692294</v>
       </c>
       <c r="G369" s="19">
         <v>100</v>
@@ -12507,11 +12511,11 @@
       </c>
       <c r="E370" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>20.127961397717435</v>
+        <v>22.129364578863918</v>
       </c>
       <c r="F370" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.6058268394359505</v>
+        <v>3.019773629079296</v>
       </c>
       <c r="G370" s="19">
         <v>50</v>
@@ -12535,11 +12539,11 @@
       </c>
       <c r="E371" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>23.466843433473155</v>
+        <v>29.519091804550076</v>
       </c>
       <c r="F371" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.515084750097345</v>
+        <v>4.5784916234269248</v>
       </c>
       <c r="G371" s="19">
         <v>120</v>
@@ -12563,11 +12567,11 @@
       </c>
       <c r="E372" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>23.712133675451785</v>
+        <v>20.657049111263827</v>
       </c>
       <c r="F372" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>6.9188773140876867</v>
+        <v>4.9749360265919478</v>
       </c>
       <c r="G372" s="19">
         <v>200</v>
@@ -12591,11 +12595,11 @@
       </c>
       <c r="E373" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>17.513557488640295</v>
+        <v>25.386259670115074</v>
       </c>
       <c r="F373" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>3.7516866331709124</v>
+        <v>7.1241050582165126</v>
       </c>
       <c r="G373" s="19">
         <v>80</v>
@@ -12619,11 +12623,11 @@
       </c>
       <c r="E374" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>30.786456315349291</v>
+        <v>22.629459371167332</v>
       </c>
       <c r="F374" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.7254479828710103</v>
+        <v>7.8728871276510608</v>
       </c>
       <c r="G374" s="19">
         <v>40</v>
@@ -12647,11 +12651,11 @@
       </c>
       <c r="E375" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>24.430034070566261</v>
+        <v>19.334929597718421</v>
       </c>
       <c r="F375" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.2176486683359649</v>
+        <v>5.4278721831216155</v>
       </c>
       <c r="G375" s="19">
         <v>110</v>
@@ -12675,11 +12679,11 @@
       </c>
       <c r="E376" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>24.660442365160854</v>
+        <v>23.412630217258702</v>
       </c>
       <c r="F376" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.9311633619257744</v>
+        <v>5.5782546292598507</v>
       </c>
       <c r="G376" s="19">
         <v>150</v>
@@ -12703,11 +12707,11 @@
       </c>
       <c r="E377" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>23.765263949113063</v>
+        <v>27.763188787598878</v>
       </c>
       <c r="F377" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>6.3974198345105391</v>
+        <v>9.9537256128400777</v>
       </c>
       <c r="G377" s="19">
         <v>90</v>
@@ -12731,11 +12735,11 @@
       </c>
       <c r="E378" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>26.455636021708532</v>
+        <v>21.918468405508577</v>
       </c>
       <c r="F378" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.2846364902032388</v>
+        <v>8.808195411028068</v>
       </c>
       <c r="G378" s="19">
         <v>30</v>
@@ -12759,11 +12763,11 @@
       </c>
       <c r="E379" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>24.687107908464728</v>
+        <v>26.473814676231978</v>
       </c>
       <c r="F379" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.4464367903089528</v>
+        <v>6.1848778268552884</v>
       </c>
       <c r="G379" s="19">
         <v>20</v>
@@ -12787,11 +12791,11 @@
       </c>
       <c r="E380" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>22.23653046305013</v>
+        <v>21.721068564388496</v>
       </c>
       <c r="F380" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.7261728556210887</v>
+        <v>7.8169730279956289</v>
       </c>
       <c r="G380" s="19">
         <v>70</v>
@@ -12815,11 +12819,11 @@
       </c>
       <c r="E381" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>21.987011458004346</v>
+        <v>19.71039025920814</v>
       </c>
       <c r="F381" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>9.25069150453084</v>
+        <v>6.8758876777202511</v>
       </c>
       <c r="G381" s="19">
         <v>140</v>
@@ -12843,11 +12847,11 @@
       </c>
       <c r="E382" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>19.615834211147238</v>
+        <v>22.39771681309217</v>
       </c>
       <c r="F382" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.2126652709593948</v>
+        <v>5.6994249633329153</v>
       </c>
       <c r="G382" s="19">
         <v>100</v>
@@ -12871,11 +12875,11 @@
       </c>
       <c r="E383" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>20.103776067234421</v>
+        <v>18.531824822812553</v>
       </c>
       <c r="F383" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.9275084116235108</v>
+        <v>2.5446975936925815</v>
       </c>
       <c r="G383" s="19">
         <v>50</v>
@@ -12899,11 +12903,11 @@
       </c>
       <c r="E384" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>26.637600398412708</v>
+        <v>20.682526292239608</v>
       </c>
       <c r="F384" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.0031998658461463</v>
+        <v>4.1190874219740365</v>
       </c>
       <c r="G384" s="19">
         <v>120</v>
@@ -12927,11 +12931,11 @@
       </c>
       <c r="E385" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>21.278267221196828</v>
+        <v>26.196434146241785</v>
       </c>
       <c r="F385" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.5436312920757764</v>
+        <v>3.5439917719920762</v>
       </c>
       <c r="G385" s="19">
         <v>200</v>
@@ -12955,11 +12959,11 @@
       </c>
       <c r="E386" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>22.24754254511214</v>
+        <v>16.348372132299101</v>
       </c>
       <c r="F386" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.247695836383425</v>
+        <v>8.2863333917765374</v>
       </c>
       <c r="G386" s="19">
         <v>80</v>
@@ -12983,11 +12987,11 @@
       </c>
       <c r="E387" s="20">
         <f t="shared" ref="E387:E450" ca="1" si="12">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>13.564762994224033</v>
+        <v>24.446320978713423</v>
       </c>
       <c r="F387" s="20">
         <f t="shared" ref="F387:F450" ca="1" si="13">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>6.8021243996373846</v>
+        <v>4.9571408070012577</v>
       </c>
       <c r="G387" s="19">
         <v>40</v>
@@ -13011,11 +13015,11 @@
       </c>
       <c r="E388" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>30.688726107311215</v>
+        <v>26.060272066371834</v>
       </c>
       <c r="F388" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>3.3705943162360388</v>
+        <v>6.9166212283549484</v>
       </c>
       <c r="G388" s="19">
         <v>110</v>
@@ -13039,11 +13043,11 @@
       </c>
       <c r="E389" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>16.773509827839383</v>
+        <v>23.264345959396078</v>
       </c>
       <c r="F389" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>7.4661467903589163</v>
       </c>
       <c r="G389" s="19">
         <v>150</v>
@@ -13067,11 +13071,11 @@
       </c>
       <c r="E390" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>27.314607225204171</v>
+        <v>19.51162189033753</v>
       </c>
       <c r="F390" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.2721979383528108</v>
+        <v>6.0193076317544998</v>
       </c>
       <c r="G390" s="19">
         <v>90</v>
@@ -13095,11 +13099,11 @@
       </c>
       <c r="E391" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>22.614092362043326</v>
+        <v>25.68705884245302</v>
       </c>
       <c r="F391" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6.0033609996758974</v>
+        <v>5.0875298896352001</v>
       </c>
       <c r="G391" s="19">
         <v>30</v>
@@ -13123,11 +13127,11 @@
       </c>
       <c r="E392" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>30.488899729062904</v>
+        <v>25.772174468853329</v>
       </c>
       <c r="F392" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4.8691347862586252</v>
+        <v>7.9066661374389264</v>
       </c>
       <c r="G392" s="19">
         <v>20</v>
@@ -13151,11 +13155,11 @@
       </c>
       <c r="E393" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>21.088011739398361</v>
+        <v>22.007559542357029</v>
       </c>
       <c r="F393" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>11.20026431309514</v>
+        <v>7.2464777630338748</v>
       </c>
       <c r="G393" s="19">
         <v>70</v>
@@ -13179,11 +13183,11 @@
       </c>
       <c r="E394" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>25.137616486640869</v>
+        <v>22.850308075659566</v>
       </c>
       <c r="F394" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.6641241787393355</v>
+        <v>2</v>
       </c>
       <c r="G394" s="19">
         <v>140</v>
@@ -13207,11 +13211,11 @@
       </c>
       <c r="E395" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>32.577870307360222</v>
+        <v>21.477197054814383</v>
       </c>
       <c r="F395" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>9.0927668930169574</v>
+        <v>5.0017893497697976</v>
       </c>
       <c r="G395" s="19">
         <v>100</v>
@@ -13235,11 +13239,11 @@
       </c>
       <c r="E396" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>23.603024091293101</v>
+        <v>17.972358255751331</v>
       </c>
       <c r="F396" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>3.9925296765234837</v>
+        <v>7.658118453435935</v>
       </c>
       <c r="G396" s="19">
         <v>50</v>
@@ -13263,11 +13267,11 @@
       </c>
       <c r="E397" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>25.892323227869568</v>
+        <v>23.35040065142438</v>
       </c>
       <c r="F397" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>8.1335322256542657</v>
+        <v>4.8847451397719208</v>
       </c>
       <c r="G397" s="19">
         <v>120</v>
@@ -13291,11 +13295,11 @@
       </c>
       <c r="E398" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>30.250701916412133</v>
+        <v>30.203964761737609</v>
       </c>
       <c r="F398" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.4540356149414437</v>
+        <v>5.4942201913387567</v>
       </c>
       <c r="G398" s="19">
         <v>200</v>
@@ -13319,11 +13323,11 @@
       </c>
       <c r="E399" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>26.13982916776164</v>
+        <v>23.793106388667866</v>
       </c>
       <c r="F399" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.1882710440168056</v>
+        <v>7.8267883971599117</v>
       </c>
       <c r="G399" s="19">
         <v>80</v>
@@ -13347,11 +13351,11 @@
       </c>
       <c r="E400" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>27.795287436915995</v>
+        <v>21.807773787905848</v>
       </c>
       <c r="F400" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>3.9016970685753698</v>
       </c>
       <c r="G400" s="19">
         <v>40</v>
@@ -13375,11 +13379,11 @@
       </c>
       <c r="E401" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>21.946629941273635</v>
+        <v>13.482601052120984</v>
       </c>
       <c r="F401" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.5087194133947843</v>
+        <v>8.6853569995777438</v>
       </c>
       <c r="G401" s="19">
         <v>110</v>
@@ -13403,11 +13407,11 @@
       </c>
       <c r="E402" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>22.865985214508012</v>
+        <v>26.685998645034921</v>
       </c>
       <c r="F402" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>8.3916438812842014</v>
+        <v>5.7907461512699054</v>
       </c>
       <c r="G402" s="19">
         <v>150</v>
@@ -13431,11 +13435,11 @@
       </c>
       <c r="E403" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>24.960969141178271</v>
+        <v>19.07887485052272</v>
       </c>
       <c r="F403" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0175601761750528</v>
+        <v>2.9575849036985313</v>
       </c>
       <c r="G403" s="19">
         <v>90</v>
@@ -13459,11 +13463,11 @@
       </c>
       <c r="E404" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>25.303176947893132</v>
+        <v>25.47925335657305</v>
       </c>
       <c r="F404" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>10.132688007022036</v>
+        <v>5.7673475307270357</v>
       </c>
       <c r="G404" s="19">
         <v>30</v>
@@ -13487,11 +13491,11 @@
       </c>
       <c r="E405" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>25.007444884718264</v>
+        <v>24.22843931394905</v>
       </c>
       <c r="F405" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6.3807939482992486</v>
+        <v>5.3710583606353888</v>
       </c>
       <c r="G405" s="19">
         <v>20</v>
@@ -13515,11 +13519,11 @@
       </c>
       <c r="E406" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>25.408806430423564</v>
+        <v>27.545377991891744</v>
       </c>
       <c r="F406" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>10.645271847679908</v>
+        <v>7.0714281069736673</v>
       </c>
       <c r="G406" s="19">
         <v>70</v>
@@ -13543,11 +13547,11 @@
       </c>
       <c r="E407" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>21.621155511798491</v>
+        <v>24.204252595508947</v>
       </c>
       <c r="F407" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>3.6402847910308478</v>
+        <v>4.0787107146419128</v>
       </c>
       <c r="G407" s="19">
         <v>140</v>
@@ -13571,11 +13575,11 @@
       </c>
       <c r="E408" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>25.229250569773544</v>
+        <v>23.377429935326539</v>
       </c>
       <c r="F408" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>3.5518387885746288</v>
+        <v>4.0873533007800704</v>
       </c>
       <c r="G408" s="19">
         <v>100</v>
@@ -13599,11 +13603,11 @@
       </c>
       <c r="E409" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>24.663993064908478</v>
+        <v>15.740046419485623</v>
       </c>
       <c r="F409" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6.8942863527993028</v>
+        <v>4.1923715883840611</v>
       </c>
       <c r="G409" s="19">
         <v>50</v>
@@ -13627,11 +13631,11 @@
       </c>
       <c r="E410" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>22.781730434056868</v>
+        <v>23.859553354487012</v>
       </c>
       <c r="F410" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.5474035745016943</v>
+        <v>5.5756771840888266</v>
       </c>
       <c r="G410" s="19">
         <v>120</v>
@@ -13655,11 +13659,11 @@
       </c>
       <c r="E411" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>30.35696067136314</v>
+        <v>18.086809791151399</v>
       </c>
       <c r="F411" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.8019648648103628</v>
+        <v>8.1839688772378523</v>
       </c>
       <c r="G411" s="19">
         <v>200</v>
@@ -13683,11 +13687,11 @@
       </c>
       <c r="E412" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>21.889290657284981</v>
+        <v>22.484831489226927</v>
       </c>
       <c r="F412" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6.7744923209249146</v>
+        <v>6.4424693690897712</v>
       </c>
       <c r="G412" s="19">
         <v>80</v>
@@ -13711,11 +13715,11 @@
       </c>
       <c r="E413" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>23.681041356838918</v>
+        <v>29.554879195132614</v>
       </c>
       <c r="F413" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>3.8902869244933842</v>
+        <v>5.5953009529669444</v>
       </c>
       <c r="G413" s="19">
         <v>40</v>
@@ -13739,11 +13743,11 @@
       </c>
       <c r="E414" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>22.206056561044427</v>
+        <v>20.318544882088194</v>
       </c>
       <c r="F414" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>2.6779003642541204</v>
+        <v>5.8430316729686433</v>
       </c>
       <c r="G414" s="19">
         <v>110</v>
@@ -13767,11 +13771,11 @@
       </c>
       <c r="E415" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>30.747386742849262</v>
+        <v>28.531296686078814</v>
       </c>
       <c r="F415" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.2536080119273993</v>
+        <v>2.595823941124713</v>
       </c>
       <c r="G415" s="19">
         <v>150</v>
@@ -13795,11 +13799,11 @@
       </c>
       <c r="E416" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>21.005501705326139</v>
+        <v>25.026127412069041</v>
       </c>
       <c r="F416" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.102154200191876</v>
+        <v>6.239815157211547</v>
       </c>
       <c r="G416" s="19">
         <v>90</v>
@@ -13823,11 +13827,11 @@
       </c>
       <c r="E417" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>19.049580377636197</v>
+        <v>21.610459348461312</v>
       </c>
       <c r="F417" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.8720732888241631</v>
+        <v>10.208405445764845</v>
       </c>
       <c r="G417" s="19">
         <v>30</v>
@@ -13851,11 +13855,11 @@
       </c>
       <c r="E418" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>19.441305115482859</v>
+        <v>30.581411643024914</v>
       </c>
       <c r="F418" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.8462371169303857</v>
+        <v>7.8698455974789407</v>
       </c>
       <c r="G418" s="19">
         <v>20</v>
@@ -13879,11 +13883,11 @@
       </c>
       <c r="E419" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>20.744782223360833</v>
+        <v>26.058573983324312</v>
       </c>
       <c r="F419" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4.8711082124758667</v>
+        <v>3.7555799264485308</v>
       </c>
       <c r="G419" s="19">
         <v>70</v>
@@ -13907,11 +13911,11 @@
       </c>
       <c r="E420" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>20.732825954807925</v>
+        <v>26.627868824994746</v>
       </c>
       <c r="F420" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.0981165977305176</v>
+        <v>4.941192390699956</v>
       </c>
       <c r="G420" s="19">
         <v>140</v>
@@ -13935,11 +13939,11 @@
       </c>
       <c r="E421" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>31.249741648631144</v>
+        <v>21.685827563250268</v>
       </c>
       <c r="F421" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.4792381713632228</v>
+        <v>6.8903119936229231</v>
       </c>
       <c r="G421" s="19">
         <v>100</v>
@@ -13963,11 +13967,11 @@
       </c>
       <c r="E422" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>19.074452316357824</v>
+        <v>17.588378456641713</v>
       </c>
       <c r="F422" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4.2565509906578365</v>
+        <v>6.4820796511397747</v>
       </c>
       <c r="G422" s="19">
         <v>50</v>
@@ -13991,11 +13995,11 @@
       </c>
       <c r="E423" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>19.66990686510222</v>
+        <v>24.947098564138255</v>
       </c>
       <c r="F423" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6.385349368992367</v>
+        <v>9.2527042615156496</v>
       </c>
       <c r="G423" s="19">
         <v>120</v>
@@ -14019,11 +14023,11 @@
       </c>
       <c r="E424" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>21.247564210489315</v>
+        <v>26.298993471344168</v>
       </c>
       <c r="F424" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>3.7584713006977655</v>
+        <v>6.8998166704818011</v>
       </c>
       <c r="G424" s="19">
         <v>200</v>
@@ -14047,11 +14051,11 @@
       </c>
       <c r="E425" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>20.485943379215119</v>
+        <v>29.3816957291594</v>
       </c>
       <c r="F425" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4.2406356569654573</v>
+        <v>6.9809513508193364</v>
       </c>
       <c r="G425" s="19">
         <v>80</v>
@@ -14075,11 +14079,11 @@
       </c>
       <c r="E426" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>26.04913225181701</v>
+        <v>23.880956326307658</v>
       </c>
       <c r="F426" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6.5813883870060454</v>
+        <v>5.4263939606972542</v>
       </c>
       <c r="G426" s="19">
         <v>40</v>
@@ -14103,11 +14107,11 @@
       </c>
       <c r="E427" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>25.070288176765938</v>
+        <v>23.275930157627101</v>
       </c>
       <c r="F427" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.776613546246117</v>
+        <v>8.6574097611737884</v>
       </c>
       <c r="G427" s="19">
         <v>110</v>
@@ -14131,11 +14135,11 @@
       </c>
       <c r="E428" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>18.044653742785467</v>
+        <v>21.349600669155002</v>
       </c>
       <c r="F428" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4.995002895487044</v>
+        <v>7.3667635581751201</v>
       </c>
       <c r="G428" s="19">
         <v>150</v>
@@ -14159,11 +14163,11 @@
       </c>
       <c r="E429" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>25.552096769087864</v>
+        <v>29.021178181252097</v>
       </c>
       <c r="F429" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>10.461474535349874</v>
+        <v>6.2129963254719218</v>
       </c>
       <c r="G429" s="19">
         <v>90</v>
@@ -14187,11 +14191,11 @@
       </c>
       <c r="E430" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>22.587456933094618</v>
+        <v>26.231903747142315</v>
       </c>
       <c r="F430" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.4163552793491894</v>
+        <v>5.0412869581833109</v>
       </c>
       <c r="G430" s="19">
         <v>30</v>
@@ -14215,11 +14219,11 @@
       </c>
       <c r="E431" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>17.271066141890849</v>
+        <v>22.973827984590123</v>
       </c>
       <c r="F431" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6.5104787346233532</v>
+        <v>8.8284580099983856</v>
       </c>
       <c r="G431" s="19">
         <v>20</v>
@@ -14243,11 +14247,11 @@
       </c>
       <c r="E432" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>16.478403817220144</v>
+        <v>16.725263172561696</v>
       </c>
       <c r="F432" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>9.028124261475531</v>
+        <v>7.7300620483562978</v>
       </c>
       <c r="G432" s="19">
         <v>70</v>
@@ -14271,11 +14275,11 @@
       </c>
       <c r="E433" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>21.094001049999623</v>
+        <v>20.155191154866362</v>
       </c>
       <c r="F433" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>6.6858012259164479</v>
       </c>
       <c r="G433" s="19">
         <v>140</v>
@@ -14299,11 +14303,11 @@
       </c>
       <c r="E434" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>22.045954726043959</v>
+        <v>24.671013506274672</v>
       </c>
       <c r="F434" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>3.8021899077471004</v>
+        <v>8.4517941895717215</v>
       </c>
       <c r="G434" s="19">
         <v>100</v>
@@ -14327,11 +14331,11 @@
       </c>
       <c r="E435" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>22.206816392830365</v>
+        <v>21.606569388353222</v>
       </c>
       <c r="F435" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.9700425090194953</v>
+        <v>5.4554765527011471</v>
       </c>
       <c r="G435" s="19">
         <v>50</v>
@@ -14355,11 +14359,11 @@
       </c>
       <c r="E436" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>17.050916903601944</v>
+        <v>26.507838674576416</v>
       </c>
       <c r="F436" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6.5618577203410364</v>
+        <v>7.7796247063914574</v>
       </c>
       <c r="G436" s="19">
         <v>120</v>
@@ -14383,11 +14387,11 @@
       </c>
       <c r="E437" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>21.852846052082246</v>
+        <v>27.107883135358229</v>
       </c>
       <c r="F437" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>9.1762674303755052</v>
+        <v>7.3346142094893736</v>
       </c>
       <c r="G437" s="19">
         <v>200</v>
@@ -14411,11 +14415,11 @@
       </c>
       <c r="E438" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>24.801437805486245</v>
+        <v>17.077425618352038</v>
       </c>
       <c r="F438" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>2.3106366428185412</v>
+        <v>5.8600069202370086</v>
       </c>
       <c r="G438" s="19">
         <v>80</v>
@@ -14439,11 +14443,11 @@
       </c>
       <c r="E439" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>30.302189226270109</v>
+        <v>22.499815331842289</v>
       </c>
       <c r="F439" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.1955800131572163</v>
+        <v>8.0557133251532953</v>
       </c>
       <c r="G439" s="19">
         <v>40</v>
@@ -14467,11 +14471,11 @@
       </c>
       <c r="E440" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>27.807180679168361</v>
+        <v>25.540195320282482</v>
       </c>
       <c r="F440" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.3752237902832247</v>
+        <v>5.3372980310643703</v>
       </c>
       <c r="G440" s="19">
         <v>110</v>
@@ -14495,11 +14499,11 @@
       </c>
       <c r="E441" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>22.340797871303099</v>
+        <v>15.322527571652369</v>
       </c>
       <c r="F441" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.3311595745154046</v>
+        <v>5.6488939066694863</v>
       </c>
       <c r="G441" s="19">
         <v>150</v>
@@ -14523,11 +14527,11 @@
       </c>
       <c r="E442" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>28.938623942087606</v>
+        <v>21.143763295898324</v>
       </c>
       <c r="F442" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.7138771147646086</v>
+        <v>7.6608244945225419</v>
       </c>
       <c r="G442" s="19">
         <v>90</v>
@@ -14551,11 +14555,11 @@
       </c>
       <c r="E443" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>22.825423254971703</v>
+        <v>23.922187390432899</v>
       </c>
       <c r="F443" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1319093891367382</v>
+        <v>7.47321454569322</v>
       </c>
       <c r="G443" s="19">
         <v>30</v>
@@ -14579,11 +14583,11 @@
       </c>
       <c r="E444" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>27.683320405010111</v>
+        <v>22.323119057327119</v>
       </c>
       <c r="F444" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.5008667616586742</v>
+        <v>5.7773855401381953</v>
       </c>
       <c r="G444" s="19">
         <v>20</v>
@@ -14607,11 +14611,11 @@
       </c>
       <c r="E445" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>22.395046304446243</v>
+        <v>24.085077757062535</v>
       </c>
       <c r="F445" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6.8484194882058782</v>
+        <v>5.3152410735678162</v>
       </c>
       <c r="G445" s="19">
         <v>70</v>
@@ -14635,11 +14639,11 @@
       </c>
       <c r="E446" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>22.976767064341164</v>
+        <v>32.047135494117967</v>
       </c>
       <c r="F446" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6.2239009069841993</v>
+        <v>6.5764380059848717</v>
       </c>
       <c r="G446" s="19">
         <v>140</v>
@@ -14663,11 +14667,11 @@
       </c>
       <c r="E447" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>29.005440897709544</v>
+        <v>26.505360349354984</v>
       </c>
       <c r="F447" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.8449600641618122</v>
+        <v>7.2499931059485228</v>
       </c>
       <c r="G447" s="19">
         <v>100</v>
@@ -14691,11 +14695,11 @@
       </c>
       <c r="E448" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>20.626163732583631</v>
+        <v>31.227920413487851</v>
       </c>
       <c r="F448" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.1603991042591506</v>
+        <v>8.7416305179495986</v>
       </c>
       <c r="G448" s="19">
         <v>50</v>
@@ -14719,11 +14723,11 @@
       </c>
       <c r="E449" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>22.834668445634662</v>
+        <v>25.708027394756144</v>
       </c>
       <c r="F449" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.2652485155497279</v>
+        <v>5.1579464588109447</v>
       </c>
       <c r="G449" s="19">
         <v>120</v>
@@ -14747,11 +14751,11 @@
       </c>
       <c r="E450" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>20.957472926697761</v>
+        <v>21.48792240792481</v>
       </c>
       <c r="F450" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.0854410434008273</v>
+        <v>2.8456680995308106</v>
       </c>
       <c r="G450" s="19">
         <v>200</v>
@@ -14775,11 +14779,11 @@
       </c>
       <c r="E451" s="20">
         <f t="shared" ref="E451:E514" ca="1" si="14">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>23.029995355097068</v>
+        <v>29.774859001892587</v>
       </c>
       <c r="F451" s="20">
         <f t="shared" ref="F451:F514" ca="1" si="15">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>6.3558653925936675</v>
+        <v>9.3909136898950134</v>
       </c>
       <c r="G451" s="19">
         <v>80</v>
@@ -14803,11 +14807,11 @@
       </c>
       <c r="E452" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>22.778417782941311</v>
+        <v>16.486463375665409</v>
       </c>
       <c r="F452" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.1326204661851964</v>
+        <v>5.9816064943922935</v>
       </c>
       <c r="G452" s="19">
         <v>40</v>
@@ -14831,11 +14835,11 @@
       </c>
       <c r="E453" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>20.761342059512828</v>
+        <v>19.221064222825564</v>
       </c>
       <c r="F453" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>8.1753909576002872</v>
+        <v>3.2285378381210554</v>
       </c>
       <c r="G453" s="19">
         <v>110</v>
@@ -14859,11 +14863,11 @@
       </c>
       <c r="E454" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>32.735579328192038</v>
+        <v>25.222180039608762</v>
       </c>
       <c r="F454" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>6.4268870080161324</v>
+        <v>6.5976043638654529</v>
       </c>
       <c r="G454" s="19">
         <v>150</v>
@@ -14887,11 +14891,11 @@
       </c>
       <c r="E455" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>18.558240277954933</v>
+        <v>20.930753282919184</v>
       </c>
       <c r="F455" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>7.0392445192096336</v>
+        <v>4.0288463859080075</v>
       </c>
       <c r="G455" s="19">
         <v>90</v>
@@ -14915,11 +14919,11 @@
       </c>
       <c r="E456" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>23.463568741888711</v>
+        <v>24.871587166108647</v>
       </c>
       <c r="F456" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.1037632996881825</v>
+        <v>7.8601714593246017</v>
       </c>
       <c r="G456" s="19">
         <v>30</v>
@@ -14943,11 +14947,11 @@
       </c>
       <c r="E457" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>20.468107264207564</v>
+        <v>25.476402909514626</v>
       </c>
       <c r="F457" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.9038941547101054</v>
+        <v>4.8393696010555001</v>
       </c>
       <c r="G457" s="19">
         <v>20</v>
@@ -14971,11 +14975,11 @@
       </c>
       <c r="E458" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>23.522742553210001</v>
+        <v>23.324305253727722</v>
       </c>
       <c r="F458" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.0403295664496461</v>
+        <v>4.620229766885533</v>
       </c>
       <c r="G458" s="19">
         <v>70</v>
@@ -14999,11 +15003,11 @@
       </c>
       <c r="E459" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>24.514900115958863</v>
+        <v>19.253385613750392</v>
       </c>
       <c r="F459" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>4.0276744730589975</v>
+        <v>4.6582140785607553</v>
       </c>
       <c r="G459" s="19">
         <v>140</v>
@@ -15027,11 +15031,11 @@
       </c>
       <c r="E460" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>23.007045941510217</v>
+        <v>15.340141790440809</v>
       </c>
       <c r="F460" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>6.0303406640218622</v>
+        <v>8.7569862941838554</v>
       </c>
       <c r="G460" s="19">
         <v>100</v>
@@ -15055,11 +15059,11 @@
       </c>
       <c r="E461" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>26.888201944263081</v>
+        <v>20.151417609188826</v>
       </c>
       <c r="F461" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>3.7483235201588934</v>
+        <v>5.6038922665973754</v>
       </c>
       <c r="G461" s="19">
         <v>50</v>
@@ -15083,11 +15087,11 @@
       </c>
       <c r="E462" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>24.533427550803001</v>
+        <v>34.048735553527138</v>
       </c>
       <c r="F462" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>2.5924412093238187</v>
+        <v>3.289339509479063</v>
       </c>
       <c r="G462" s="19">
         <v>120</v>
@@ -15111,11 +15115,11 @@
       </c>
       <c r="E463" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>26.157369995324153</v>
+        <v>21.18795690649571</v>
       </c>
       <c r="F463" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>3.0962073773428211</v>
+        <v>9.0247039731508902</v>
       </c>
       <c r="G463" s="19">
         <v>200</v>
@@ -15139,11 +15143,11 @@
       </c>
       <c r="E464" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>20.938363853802738</v>
+        <v>22.255284363754843</v>
       </c>
       <c r="F464" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.7591864675412214</v>
+        <v>3.5470583223370968</v>
       </c>
       <c r="G464" s="19">
         <v>80</v>
@@ -15167,11 +15171,11 @@
       </c>
       <c r="E465" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>27.093153127117937</v>
+        <v>25.66473090835462</v>
       </c>
       <c r="F465" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.580418774968007</v>
+        <v>7.6291297233526603</v>
       </c>
       <c r="G465" s="19">
         <v>40</v>
@@ -15195,11 +15199,11 @@
       </c>
       <c r="E466" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>26.358945123111756</v>
+        <v>23.092508629635798</v>
       </c>
       <c r="F466" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>9.0657280700358953</v>
+        <v>4.8730891524887578</v>
       </c>
       <c r="G466" s="19">
         <v>110</v>
@@ -15223,11 +15227,11 @@
       </c>
       <c r="E467" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>22.549947722246518</v>
+        <v>24.352599128656923</v>
       </c>
       <c r="F467" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>7.517302727358917</v>
+        <v>7.4649101866254979</v>
       </c>
       <c r="G467" s="19">
         <v>150</v>
@@ -15251,11 +15255,11 @@
       </c>
       <c r="E468" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>20.564962782923462</v>
+        <v>28.743266429203469</v>
       </c>
       <c r="F468" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>7.373041203944644</v>
+        <v>7.8265965745861656</v>
       </c>
       <c r="G468" s="19">
         <v>90</v>
@@ -15279,11 +15283,11 @@
       </c>
       <c r="E469" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>20.950103528201161</v>
+        <v>17.765178855798808</v>
       </c>
       <c r="F469" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>4.5196463373282256</v>
+        <v>5.9396975821197424</v>
       </c>
       <c r="G469" s="19">
         <v>30</v>
@@ -15307,11 +15311,11 @@
       </c>
       <c r="E470" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>25.158511874023439</v>
+        <v>22.584420837858172</v>
       </c>
       <c r="F470" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>4.8146151338689789</v>
+        <v>8.1466579621703392</v>
       </c>
       <c r="G470" s="19">
         <v>20</v>
@@ -15335,11 +15339,11 @@
       </c>
       <c r="E471" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>26.946043731269278</v>
+        <v>24.139323652502657</v>
       </c>
       <c r="F471" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>3.8793961151041794</v>
+        <v>4.9495890788424557</v>
       </c>
       <c r="G471" s="19">
         <v>70</v>
@@ -15363,11 +15367,11 @@
       </c>
       <c r="E472" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>22.074951913310787</v>
+        <v>27.129152432073607</v>
       </c>
       <c r="F472" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>6.5699653044975186</v>
+        <v>3.5584173803874424</v>
       </c>
       <c r="G472" s="19">
         <v>140</v>
@@ -15391,11 +15395,11 @@
       </c>
       <c r="E473" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>21.91105422532037</v>
+        <v>27.286716464003536</v>
       </c>
       <c r="F473" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>7.3052235906407645</v>
+        <v>6.2928367896532009</v>
       </c>
       <c r="G473" s="19">
         <v>100</v>
@@ -15419,11 +15423,11 @@
       </c>
       <c r="E474" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>24.981780261321816</v>
+        <v>18.07405971233495</v>
       </c>
       <c r="F474" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.1815783478629989</v>
+        <v>6.733120201779732</v>
       </c>
       <c r="G474" s="19">
         <v>50</v>
@@ -15447,11 +15451,11 @@
       </c>
       <c r="E475" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>26.611155746436779</v>
+        <v>30.538558299818657</v>
       </c>
       <c r="F475" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>8.6204835962762214</v>
+        <v>8.1885803061176112</v>
       </c>
       <c r="G475" s="19">
         <v>120</v>
@@ -15475,11 +15479,11 @@
       </c>
       <c r="E476" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>27.98960025145567</v>
+        <v>29.508092032775338</v>
       </c>
       <c r="F476" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>2.604618671651393</v>
+        <v>3.2212669708712811</v>
       </c>
       <c r="G476" s="19">
         <v>200</v>
@@ -15503,11 +15507,11 @@
       </c>
       <c r="E477" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>24.930710146585923</v>
+        <v>21.384468414948469</v>
       </c>
       <c r="F477" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>6.1985659655083092</v>
+        <v>5.6670409993304327</v>
       </c>
       <c r="G477" s="19">
         <v>80</v>
@@ -15531,11 +15535,11 @@
       </c>
       <c r="E478" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>23.597925611978606</v>
+        <v>22.740370413493739</v>
       </c>
       <c r="F478" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>6.0435731974236147</v>
+        <v>3.5987040391542773</v>
       </c>
       <c r="G478" s="19">
         <v>40</v>
@@ -15559,11 +15563,11 @@
       </c>
       <c r="E479" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>24.41148295583962</v>
+        <v>11.527052596515651</v>
       </c>
       <c r="F479" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.8854947226354195</v>
+        <v>4.2656960526160042</v>
       </c>
       <c r="G479" s="19">
         <v>110</v>
@@ -15587,11 +15591,11 @@
       </c>
       <c r="E480" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>22.92026409149577</v>
+        <v>24.760602128081704</v>
       </c>
       <c r="F480" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>6.6285150000422943</v>
+        <v>6.8864516498486932</v>
       </c>
       <c r="G480" s="19">
         <v>150</v>
@@ -15615,11 +15619,11 @@
       </c>
       <c r="E481" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>17.972802223402514</v>
+        <v>14.863799947131312</v>
       </c>
       <c r="F481" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.0939338632202658</v>
+        <v>5.9739597080635702</v>
       </c>
       <c r="G481" s="19">
         <v>90</v>
@@ -15643,11 +15647,11 @@
       </c>
       <c r="E482" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>19.623779126147802</v>
+        <v>18.262413034972415</v>
       </c>
       <c r="F482" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.1591467967457545</v>
+        <v>5.3332891911595972</v>
       </c>
       <c r="G482" s="19">
         <v>30</v>
@@ -15671,11 +15675,11 @@
       </c>
       <c r="E483" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>23.226976615848173</v>
+        <v>28.767921777812472</v>
       </c>
       <c r="F483" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>7.3321326219579941</v>
+        <v>5.9830314153461366</v>
       </c>
       <c r="G483" s="19">
         <v>20</v>
@@ -15699,11 +15703,11 @@
       </c>
       <c r="E484" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>22.365065053103482</v>
+        <v>19.806542606550529</v>
       </c>
       <c r="F484" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.5073021591571472</v>
+        <v>3.3979322940852388</v>
       </c>
       <c r="G484" s="19">
         <v>70</v>
@@ -15727,11 +15731,11 @@
       </c>
       <c r="E485" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>21.548026996127323</v>
+        <v>24.759844173252475</v>
       </c>
       <c r="F485" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.4488890121819384</v>
+        <v>3.1226777847265335</v>
       </c>
       <c r="G485" s="19">
         <v>140</v>
@@ -15755,11 +15759,11 @@
       </c>
       <c r="E486" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>25.253436652615001</v>
+        <v>23.167165795155775</v>
       </c>
       <c r="F486" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>3.7398727525253457</v>
+        <v>6.0274474840863785</v>
       </c>
       <c r="G486" s="19">
         <v>100</v>
@@ -15783,11 +15787,11 @@
       </c>
       <c r="E487" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>17.204746098970052</v>
+        <v>26.070280422554823</v>
       </c>
       <c r="F487" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>3.5008272637482336</v>
+        <v>5.7070161086436055</v>
       </c>
       <c r="G487" s="19">
         <v>50</v>
@@ -15811,11 +15815,11 @@
       </c>
       <c r="E488" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>16.959769438714623</v>
+        <v>24.06403371730983</v>
       </c>
       <c r="F488" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.0198473090986262</v>
+        <v>5.8958623784270481</v>
       </c>
       <c r="G488" s="19">
         <v>120</v>
@@ -15839,11 +15843,11 @@
       </c>
       <c r="E489" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>19.510594784637206</v>
+        <v>19.129021802516096</v>
       </c>
       <c r="F489" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.9997163504083479</v>
+        <v>3.8850493647017266</v>
       </c>
       <c r="G489" s="19">
         <v>200</v>
@@ -15867,11 +15871,11 @@
       </c>
       <c r="E490" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>22.546669810280907</v>
+        <v>23.830100221372128</v>
       </c>
       <c r="F490" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>7.772477594433707</v>
+        <v>3.9152176016970928</v>
       </c>
       <c r="G490" s="19">
         <v>80</v>
@@ -15895,11 +15899,11 @@
       </c>
       <c r="E491" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>23.027602392851026</v>
+        <v>27.124002119409148</v>
       </c>
       <c r="F491" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>8.4529812950656797</v>
+        <v>5.3566049051926408</v>
       </c>
       <c r="G491" s="19">
         <v>40</v>
@@ -15923,11 +15927,11 @@
       </c>
       <c r="E492" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>21.065018435558272</v>
+        <v>28.296164156118138</v>
       </c>
       <c r="F492" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>4.417515164320446</v>
+        <v>7.2582824221904083</v>
       </c>
       <c r="G492" s="19">
         <v>110</v>
@@ -15951,11 +15955,11 @@
       </c>
       <c r="E493" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>23.66834249176409</v>
+        <v>22.08803756464668</v>
       </c>
       <c r="F493" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>3.8577695882422129</v>
+        <v>4.2612140624376789</v>
       </c>
       <c r="G493" s="19">
         <v>150</v>
@@ -15979,11 +15983,11 @@
       </c>
       <c r="E494" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>22.896478406173088</v>
+        <v>20.942088092834389</v>
       </c>
       <c r="F494" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>7.6950226434824582</v>
+        <v>5.9562128650158455</v>
       </c>
       <c r="G494" s="19">
         <v>90</v>
@@ -16007,11 +16011,11 @@
       </c>
       <c r="E495" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>16.226991302492078</v>
+        <v>21.104042801287338</v>
       </c>
       <c r="F495" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.1672822502940008</v>
+        <v>4.9563369345593538</v>
       </c>
       <c r="G495" s="19">
         <v>30</v>
@@ -16035,11 +16039,11 @@
       </c>
       <c r="E496" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>23.395720897313204</v>
+        <v>21.02944911337768</v>
       </c>
       <c r="F496" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>6.9648147140809353</v>
+        <v>5.0943981321896343</v>
       </c>
       <c r="G496" s="19">
         <v>20</v>
@@ -16063,11 +16067,11 @@
       </c>
       <c r="E497" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>25.100420477047905</v>
+        <v>24.461625396987426</v>
       </c>
       <c r="F497" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>8.5338880021862025</v>
+        <v>5.0825006602568505</v>
       </c>
       <c r="G497" s="19">
         <v>70</v>
@@ -16091,11 +16095,11 @@
       </c>
       <c r="E498" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>22.430068301012483</v>
+        <v>20.354038147402981</v>
       </c>
       <c r="F498" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>6.2742649424671466</v>
+        <v>2</v>
       </c>
       <c r="G498" s="19">
         <v>140</v>
@@ -16119,11 +16123,11 @@
       </c>
       <c r="E499" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>30.217648442520112</v>
+        <v>30.860119517464774</v>
       </c>
       <c r="F499" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.337193075690708</v>
+        <v>5.7753561563558433</v>
       </c>
       <c r="G499" s="19">
         <v>100</v>
@@ -16147,11 +16151,11 @@
       </c>
       <c r="E500" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>16.646125800369546</v>
+        <v>30.352944885790979</v>
       </c>
       <c r="F500" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>9.2444060744931722</v>
+        <v>3.8556875737040945</v>
       </c>
       <c r="G500" s="19">
         <v>50</v>
@@ -16175,11 +16179,11 @@
       </c>
       <c r="E501" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>27.10770862745489</v>
+        <v>33.865298907601542</v>
       </c>
       <c r="F501" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.8956157884370555</v>
+        <v>7.3728227337467001</v>
       </c>
       <c r="G501" s="19">
         <v>120</v>
@@ -16203,11 +16207,11 @@
       </c>
       <c r="E502" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>24.45402229477255</v>
+        <v>29.664031823372902</v>
       </c>
       <c r="F502" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>4.0376146698877946</v>
+        <v>6.0248111164484124</v>
       </c>
       <c r="G502" s="19">
         <v>200</v>
@@ -16231,11 +16235,11 @@
       </c>
       <c r="E503" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>29.238359975809388</v>
+        <v>27.279347365630031</v>
       </c>
       <c r="F503" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>2.9310573812813989</v>
       </c>
       <c r="G503" s="19">
         <v>80</v>
@@ -16259,11 +16263,11 @@
       </c>
       <c r="E504" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>17.553863903805144</v>
+        <v>23.112584523856569</v>
       </c>
       <c r="F504" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>4.7695625399531849</v>
+        <v>7.3471934680167914</v>
       </c>
       <c r="G504" s="19">
         <v>40</v>
@@ -16287,11 +16291,11 @@
       </c>
       <c r="E505" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>25.139580179954358</v>
+        <v>20.437360023550731</v>
       </c>
       <c r="F505" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.0231155580039779</v>
+        <v>5.2265139541836305</v>
       </c>
       <c r="G505" s="19">
         <v>110</v>
@@ -16315,11 +16319,11 @@
       </c>
       <c r="E506" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>18.119970651917136</v>
+        <v>28.780741806676538</v>
       </c>
       <c r="F506" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>6.0972929969211194</v>
+        <v>10.212929121601505</v>
       </c>
       <c r="G506" s="19">
         <v>150</v>
@@ -16343,11 +16347,11 @@
       </c>
       <c r="E507" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>24.326972266955384</v>
+        <v>32.619588710950019</v>
       </c>
       <c r="F507" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>3.3586172467267712</v>
+        <v>3.76418555456398</v>
       </c>
       <c r="G507" s="19">
         <v>90</v>
@@ -16371,11 +16375,11 @@
       </c>
       <c r="E508" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>26.221017954338585</v>
+        <v>15.471224639206334</v>
       </c>
       <c r="F508" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>6.368764394346095</v>
       </c>
       <c r="G508" s="19">
         <v>30</v>
@@ -16399,11 +16403,11 @@
       </c>
       <c r="E509" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>17.349219920340225</v>
+        <v>28.038881511858904</v>
       </c>
       <c r="F509" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>7.5078709165895239</v>
+        <v>5.1923017988547917</v>
       </c>
       <c r="G509" s="19">
         <v>20</v>
@@ -16427,11 +16431,11 @@
       </c>
       <c r="E510" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>26.09449922710132</v>
+        <v>28.051875180200657</v>
       </c>
       <c r="F510" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>3.8371764951039311</v>
+        <v>2.3078245837201328</v>
       </c>
       <c r="G510" s="19">
         <v>70</v>
@@ -16455,11 +16459,11 @@
       </c>
       <c r="E511" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>23.239217102171594</v>
+        <v>29.998369622209644</v>
       </c>
       <c r="F511" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.2838725990553481</v>
+        <v>7.2229822857212937</v>
       </c>
       <c r="G511" s="19">
         <v>140</v>
@@ -16483,11 +16487,11 @@
       </c>
       <c r="E512" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>25.220336966389528</v>
+        <v>28.894721301384898</v>
       </c>
       <c r="F512" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.4718137727548726</v>
+        <v>6.9170183056365966</v>
       </c>
       <c r="G512" s="19">
         <v>100</v>
@@ -16511,11 +16515,11 @@
       </c>
       <c r="E513" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>20.948046425260415</v>
+        <v>15.963919888355093</v>
       </c>
       <c r="F513" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>4.957545356300626</v>
+        <v>6.8799192786679537</v>
       </c>
       <c r="G513" s="19">
         <v>50</v>
@@ -16539,11 +16543,11 @@
       </c>
       <c r="E514" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>21.882863649659008</v>
+        <v>25.042907951115069</v>
       </c>
       <c r="F514" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>7.1980616280797358</v>
+        <v>6.1794244129870988</v>
       </c>
       <c r="G514" s="19">
         <v>120</v>
@@ -16567,11 +16571,11 @@
       </c>
       <c r="E515" s="20">
         <f t="shared" ref="E515:E578" ca="1" si="16">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>18.48372563722895</v>
+        <v>19.161453463401433</v>
       </c>
       <c r="F515" s="20">
         <f t="shared" ref="F515:F578" ca="1" si="17">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>5.4657194196894503</v>
+        <v>8.0358057306193231</v>
       </c>
       <c r="G515" s="19">
         <v>200</v>
@@ -16595,11 +16599,11 @@
       </c>
       <c r="E516" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>23.219091187751911</v>
+        <v>18.579593019683113</v>
       </c>
       <c r="F516" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.9738998089080111</v>
+        <v>5.7035280157865218</v>
       </c>
       <c r="G516" s="19">
         <v>80</v>
@@ -16623,11 +16627,11 @@
       </c>
       <c r="E517" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>24.44172784831245</v>
+        <v>27.982481563341587</v>
       </c>
       <c r="F517" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.9437063185497863</v>
+        <v>7.1872354274710242</v>
       </c>
       <c r="G517" s="19">
         <v>40</v>
@@ -16651,11 +16655,11 @@
       </c>
       <c r="E518" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>15.906298243247843</v>
+        <v>26.53914674118483</v>
       </c>
       <c r="F518" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.0787207515105175</v>
+        <v>7.6215501116287765</v>
       </c>
       <c r="G518" s="19">
         <v>110</v>
@@ -16679,11 +16683,11 @@
       </c>
       <c r="E519" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>24.767760591733893</v>
+        <v>20.111656377627707</v>
       </c>
       <c r="F519" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>7.5620495933088527</v>
+        <v>6.2609732718480569</v>
       </c>
       <c r="G519" s="19">
         <v>150</v>
@@ -16707,11 +16711,11 @@
       </c>
       <c r="E520" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>23.195321710209036</v>
+        <v>22.60574641056051</v>
       </c>
       <c r="F520" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.3141934787192922</v>
+        <v>3.9166279404439983</v>
       </c>
       <c r="G520" s="19">
         <v>90</v>
@@ -16735,11 +16739,11 @@
       </c>
       <c r="E521" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>29.425688146794119</v>
+        <v>21.622732419596879</v>
       </c>
       <c r="F521" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.7297793168026097</v>
+        <v>4.7823828124522514</v>
       </c>
       <c r="G521" s="19">
         <v>30</v>
@@ -16763,11 +16767,11 @@
       </c>
       <c r="E522" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>26.663640795069455</v>
+        <v>28.800231922639952</v>
       </c>
       <c r="F522" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.3111782064938904</v>
+        <v>6.6984984907387419</v>
       </c>
       <c r="G522" s="19">
         <v>20</v>
@@ -16791,11 +16795,11 @@
       </c>
       <c r="E523" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>21.984858249577151</v>
+        <v>22.988073493385045</v>
       </c>
       <c r="F523" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.1392963662484235</v>
+        <v>11.081278017219622</v>
       </c>
       <c r="G523" s="19">
         <v>70</v>
@@ -16819,11 +16823,11 @@
       </c>
       <c r="E524" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>29.908920791828212</v>
+        <v>18.778811689392665</v>
       </c>
       <c r="F524" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>9.2797529765066837</v>
+        <v>9.3105694341972267</v>
       </c>
       <c r="G524" s="19">
         <v>140</v>
@@ -16847,11 +16851,11 @@
       </c>
       <c r="E525" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>31.59751080833275</v>
+        <v>22.064041043867928</v>
       </c>
       <c r="F525" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.5205757786322405</v>
+        <v>9.4621987425047678</v>
       </c>
       <c r="G525" s="19">
         <v>100</v>
@@ -16875,11 +16879,11 @@
       </c>
       <c r="E526" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>24.665153426466865</v>
+        <v>23.19870774720582</v>
       </c>
       <c r="F526" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.8845676474801358</v>
+        <v>4.3110715363693153</v>
       </c>
       <c r="G526" s="19">
         <v>50</v>
@@ -16903,11 +16907,11 @@
       </c>
       <c r="E527" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>17.732075004071479</v>
+        <v>23.146092248689346</v>
       </c>
       <c r="F527" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>8.5417672826185296</v>
+        <v>5.9194718308762839</v>
       </c>
       <c r="G527" s="19">
         <v>120</v>
@@ -16931,11 +16935,11 @@
       </c>
       <c r="E528" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>20.837836614334183</v>
+        <v>23.662357289010437</v>
       </c>
       <c r="F528" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.5705913082359464</v>
+        <v>8.3321893462916972</v>
       </c>
       <c r="G528" s="19">
         <v>200</v>
@@ -16959,11 +16963,11 @@
       </c>
       <c r="E529" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>19.384856653334527</v>
+        <v>27.494478948165444</v>
       </c>
       <c r="F529" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.9560481879852629</v>
+        <v>5.4113624036863239</v>
       </c>
       <c r="G529" s="19">
         <v>80</v>
@@ -16987,11 +16991,11 @@
       </c>
       <c r="E530" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>20.058346271104138</v>
+        <v>24.25163538461004</v>
       </c>
       <c r="F530" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.5491928439245486</v>
+        <v>5.1586745105664669</v>
       </c>
       <c r="G530" s="19">
         <v>40</v>
@@ -17015,11 +17019,11 @@
       </c>
       <c r="E531" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>20.646895537711053</v>
+        <v>20.695071423840723</v>
       </c>
       <c r="F531" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>7.0061259802658986</v>
+        <v>6.9065515174740835</v>
       </c>
       <c r="G531" s="19">
         <v>110</v>
@@ -17043,11 +17047,11 @@
       </c>
       <c r="E532" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>23.591283129884655</v>
+        <v>28.564442229346334</v>
       </c>
       <c r="F532" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.4220714585065917</v>
+        <v>4.6421652748269349</v>
       </c>
       <c r="G532" s="19">
         <v>150</v>
@@ -17071,11 +17075,11 @@
       </c>
       <c r="E533" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>21.72587640299172</v>
+        <v>22.735106894661794</v>
       </c>
       <c r="F533" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>3.6798026930190533</v>
+        <v>5.4485191161310746</v>
       </c>
       <c r="G533" s="19">
         <v>90</v>
@@ -17099,11 +17103,11 @@
       </c>
       <c r="E534" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>27.797427370779239</v>
+        <v>29.980782279519261</v>
       </c>
       <c r="F534" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.4037934516996042</v>
+        <v>6.6178824839465049</v>
       </c>
       <c r="G534" s="19">
         <v>30</v>
@@ -17127,11 +17131,11 @@
       </c>
       <c r="E535" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>18.83316344779919</v>
+        <v>23.692142678387661</v>
       </c>
       <c r="F535" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.6839321348101839</v>
+        <v>5.7187778195989356</v>
       </c>
       <c r="G535" s="19">
         <v>20</v>
@@ -17155,11 +17159,11 @@
       </c>
       <c r="E536" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>14.285673803186683</v>
+        <v>22.449927496521234</v>
       </c>
       <c r="F536" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.1525426878776504</v>
+        <v>7.5956550131214415</v>
       </c>
       <c r="G536" s="19">
         <v>70</v>
@@ -17183,11 +17187,11 @@
       </c>
       <c r="E537" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>29.260304458070401</v>
+        <v>25.204462653200636</v>
       </c>
       <c r="F537" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>7.3629842977877802</v>
+        <v>6.8623214777490773</v>
       </c>
       <c r="G537" s="19">
         <v>140</v>
@@ -17211,11 +17215,11 @@
       </c>
       <c r="E538" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>24.910661115369876</v>
+        <v>23.033011770397607</v>
       </c>
       <c r="F538" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.8501197285627704</v>
+        <v>4.7059155453514006</v>
       </c>
       <c r="G538" s="19">
         <v>100</v>
@@ -17239,11 +17243,11 @@
       </c>
       <c r="E539" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>23.84067116404162</v>
+        <v>16.342026601136109</v>
       </c>
       <c r="F539" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.6286747114983564</v>
+        <v>5.5710340064559132</v>
       </c>
       <c r="G539" s="19">
         <v>50</v>
@@ -17267,11 +17271,11 @@
       </c>
       <c r="E540" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>20.461964090033234</v>
+        <v>28.232168729553173</v>
       </c>
       <c r="F540" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
+        <v>6.8195146923596202</v>
       </c>
       <c r="G540" s="19">
         <v>120</v>
@@ -17295,11 +17299,11 @@
       </c>
       <c r="E541" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>23.264245895694295</v>
+        <v>24.740306053865044</v>
       </c>
       <c r="F541" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.8267250780093871</v>
+        <v>4.8727989795134592</v>
       </c>
       <c r="G541" s="19">
         <v>200</v>
@@ -17323,11 +17327,11 @@
       </c>
       <c r="E542" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>18.818654568167808</v>
+        <v>23.317564651145108</v>
       </c>
       <c r="F542" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>3.851081523375913</v>
+        <v>7.8141007400085298</v>
       </c>
       <c r="G542" s="19">
         <v>80</v>
@@ -17351,11 +17355,11 @@
       </c>
       <c r="E543" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>21.380117567021664</v>
+        <v>26.484608726643092</v>
       </c>
       <c r="F543" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>8.6822655124214894</v>
+        <v>7.1284749857528267</v>
       </c>
       <c r="G543" s="19">
         <v>40</v>
@@ -17379,11 +17383,11 @@
       </c>
       <c r="E544" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>24.842794372168321</v>
+        <v>26.675779668281081</v>
       </c>
       <c r="F544" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.2778009375836366</v>
+        <v>4.5681649151563954</v>
       </c>
       <c r="G544" s="19">
         <v>110</v>
@@ -17407,11 +17411,11 @@
       </c>
       <c r="E545" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>33.869898188341843</v>
+        <v>29.905233476555097</v>
       </c>
       <c r="F545" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>3.2267931501198235</v>
+        <v>6.0760944313495004</v>
       </c>
       <c r="G545" s="19">
         <v>150</v>
@@ -17435,11 +17439,11 @@
       </c>
       <c r="E546" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>25.03916776912595</v>
+        <v>30.29850008049641</v>
       </c>
       <c r="F546" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.6484666570431949</v>
+        <v>5.7872310109156198</v>
       </c>
       <c r="G546" s="19">
         <v>90</v>
@@ -17463,11 +17467,11 @@
       </c>
       <c r="E547" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>24.635782278467527</v>
+        <v>19.340207091088892</v>
       </c>
       <c r="F547" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>8.3504728966708921</v>
+        <v>5.2372191204508844</v>
       </c>
       <c r="G547" s="19">
         <v>30</v>
@@ -17491,11 +17495,11 @@
       </c>
       <c r="E548" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>32.004047404462767</v>
+        <v>25.084182073956587</v>
       </c>
       <c r="F548" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.0738042661457516</v>
+        <v>3.4001246641004612</v>
       </c>
       <c r="G548" s="19">
         <v>20</v>
@@ -17519,11 +17523,11 @@
       </c>
       <c r="E549" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>19.517088877428446</v>
+        <v>22.398009840038448</v>
       </c>
       <c r="F549" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.8227569805520032</v>
+        <v>7.1237879406101685</v>
       </c>
       <c r="G549" s="19">
         <v>70</v>
@@ -17547,11 +17551,11 @@
       </c>
       <c r="E550" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>26.336181505212565</v>
+        <v>24.270781913403681</v>
       </c>
       <c r="F550" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>7.2751793739682942</v>
+        <v>4.6093155514816742</v>
       </c>
       <c r="G550" s="19">
         <v>140</v>
@@ -17575,11 +17579,11 @@
       </c>
       <c r="E551" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>19.734833764438374</v>
+        <v>17.515771239324444</v>
       </c>
       <c r="F551" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.1583065228740246</v>
+        <v>3.1643591468978731</v>
       </c>
       <c r="G551" s="19">
         <v>100</v>
@@ -17603,11 +17607,11 @@
       </c>
       <c r="E552" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>21.226429168477814</v>
+        <v>14.868629171918226</v>
       </c>
       <c r="F552" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.4148109121606911</v>
+        <v>3.9015502417648942</v>
       </c>
       <c r="G552" s="19">
         <v>50</v>
@@ -17631,11 +17635,11 @@
       </c>
       <c r="E553" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>25.715101964552076</v>
+        <v>26.207288337899396</v>
       </c>
       <c r="F553" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>3.7042887208260011</v>
+        <v>10.881855120720999</v>
       </c>
       <c r="G553" s="19">
         <v>120</v>
@@ -17659,11 +17663,11 @@
       </c>
       <c r="E554" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>18.915039705597266</v>
+        <v>22.166995944010043</v>
       </c>
       <c r="F554" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.2012059182972195</v>
+        <v>4.4954072159294265</v>
       </c>
       <c r="G554" s="19">
         <v>200</v>
@@ -17687,11 +17691,11 @@
       </c>
       <c r="E555" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>28.824214110932374</v>
+        <v>14.31973049643768</v>
       </c>
       <c r="F555" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>2.7725807580752431</v>
+        <v>2.6675686435318497</v>
       </c>
       <c r="G555" s="19">
         <v>80</v>
@@ -17715,11 +17719,11 @@
       </c>
       <c r="E556" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>22.516843139745649</v>
+        <v>19.38695026496972</v>
       </c>
       <c r="F556" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.8716309764914723</v>
+        <v>5.2637246155970034</v>
       </c>
       <c r="G556" s="19">
         <v>40</v>
@@ -17743,11 +17747,11 @@
       </c>
       <c r="E557" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>15.592353377072062</v>
+        <v>14.017916597351318</v>
       </c>
       <c r="F557" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.0917218830271489</v>
+        <v>4.8438216868228237</v>
       </c>
       <c r="G557" s="19">
         <v>110</v>
@@ -17771,11 +17775,11 @@
       </c>
       <c r="E558" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>27.082082534583819</v>
+        <v>22.952871041575786</v>
       </c>
       <c r="F558" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5057627447387336</v>
+        <v>3.2488238706151136</v>
       </c>
       <c r="G558" s="19">
         <v>150</v>
@@ -17799,11 +17803,11 @@
       </c>
       <c r="E559" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>21.00051818452307</v>
+        <v>19.517101649098972</v>
       </c>
       <c r="F559" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>8.4419302062921275</v>
+        <v>4.0964284510744111</v>
       </c>
       <c r="G559" s="19">
         <v>90</v>
@@ -17827,11 +17831,11 @@
       </c>
       <c r="E560" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>22.211370241217637</v>
+        <v>22.747999004770733</v>
       </c>
       <c r="F560" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.3345976876519803</v>
+        <v>8.4247601489226049</v>
       </c>
       <c r="G560" s="19">
         <v>30</v>
@@ -17855,11 +17859,11 @@
       </c>
       <c r="E561" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>18.415998011627128</v>
+        <v>24.218205206666124</v>
       </c>
       <c r="F561" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.6379334558210301</v>
+        <v>7.4664344906826816</v>
       </c>
       <c r="G561" s="19">
         <v>20</v>
@@ -17883,11 +17887,11 @@
       </c>
       <c r="E562" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>27.4041785123799</v>
+        <v>19.674426006942483</v>
       </c>
       <c r="F562" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>3.3215069193902549</v>
+        <v>3.0405436969333022</v>
       </c>
       <c r="G562" s="19">
         <v>70</v>
@@ -17911,11 +17915,11 @@
       </c>
       <c r="E563" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>15.612812781627994</v>
+        <v>20.136330005298298</v>
       </c>
       <c r="F563" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.2892372140012887</v>
+        <v>6.4433802021440929</v>
       </c>
       <c r="G563" s="19">
         <v>140</v>
@@ -17939,11 +17943,11 @@
       </c>
       <c r="E564" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>26.880738666531585</v>
+        <v>22.635516372731523</v>
       </c>
       <c r="F564" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.0412857221618674</v>
+        <v>3.9929847839311949</v>
       </c>
     </row>
     <row r="565" spans="1:20" x14ac:dyDescent="0.3">
@@ -17961,11 +17965,11 @@
       </c>
       <c r="E565" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>21.058890802013053</v>
+        <v>26.89663253023717</v>
       </c>
       <c r="F565" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>3.6120985677064628</v>
+        <v>3.3629575583640343</v>
       </c>
       <c r="G565" s="19">
         <v>200</v>
@@ -17989,11 +17993,11 @@
       </c>
       <c r="E566" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>22.776269224005137</v>
+        <v>27.195377660242201</v>
       </c>
       <c r="F566" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.3361454236553216</v>
+        <v>6.392658988784798</v>
       </c>
       <c r="G566" s="19">
         <v>80</v>
@@ -18017,11 +18021,11 @@
       </c>
       <c r="E567" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>20.05632965747213</v>
+        <v>22.064656556967481</v>
       </c>
       <c r="F567" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.14326824885935</v>
+        <v>5.1937840020728085</v>
       </c>
       <c r="G567" s="19">
         <v>40</v>
@@ -18045,11 +18049,11 @@
       </c>
       <c r="E568" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>21.817030747075254</v>
+        <v>28.391882406495739</v>
       </c>
       <c r="F568" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.9015433218171642</v>
+        <v>10.817515592196907</v>
       </c>
       <c r="G568" s="19">
         <v>110</v>
@@ -18073,11 +18077,11 @@
       </c>
       <c r="E569" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>31.499302677050412</v>
+        <v>25.521400521157918</v>
       </c>
       <c r="F569" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>7.2704042356202141</v>
+        <v>8.5678002530183353</v>
       </c>
       <c r="G569" s="19">
         <v>150</v>
@@ -18103,11 +18107,11 @@
       </c>
       <c r="E570" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>20.025855950774016</v>
+        <v>27.86616480274634</v>
       </c>
       <c r="F570" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.7162684381269502</v>
+        <v>6.6355618039319992</v>
       </c>
       <c r="G570" s="19">
         <v>90</v>
@@ -18133,11 +18137,11 @@
       </c>
       <c r="E571" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>25.618815540742489</v>
+        <v>22.645918381880303</v>
       </c>
       <c r="F571" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>8.0817299631479074</v>
+        <v>6.1084121448683977</v>
       </c>
       <c r="G571" s="19">
         <v>30</v>
@@ -18150,7 +18154,7 @@
     </row>
     <row r="572" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A572" s="5">
-        <v>45372</v>
+        <v>45371</v>
       </c>
       <c r="B572">
         <v>18</v>
@@ -18163,11 +18167,11 @@
       </c>
       <c r="E572" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>23.019730358271232</v>
+        <v>21.915919157863748</v>
       </c>
       <c r="F572" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.403941176701351</v>
+        <v>3.2930780205849608</v>
       </c>
       <c r="G572" s="19">
         <v>20</v>
@@ -18180,7 +18184,7 @@
     </row>
     <row r="573" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A573" s="5">
-        <v>45372</v>
+        <v>45371</v>
       </c>
       <c r="B573">
         <v>19</v>
@@ -18193,11 +18197,11 @@
       </c>
       <c r="E573" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>28.109728887053848</v>
+        <v>25.694204555881949</v>
       </c>
       <c r="F573" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.0439567847583575</v>
+        <v>5.4519336380536885</v>
       </c>
       <c r="G573" s="19">
         <v>70</v>
@@ -18212,6 +18216,9 @@
       <c r="A574" s="5">
         <v>45372</v>
       </c>
+      <c r="B574">
+        <v>7</v>
+      </c>
       <c r="C574" t="s">
         <v>69</v>
       </c>
@@ -18220,11 +18227,11 @@
       </c>
       <c r="E574" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>35.720612827350038</v>
+        <v>18.533273630077893</v>
       </c>
       <c r="F574" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.1081169446814805</v>
+        <v>11.056181099117829</v>
       </c>
       <c r="G574" s="19">
         <v>140</v>
@@ -18240,7 +18247,7 @@
         <v>45372</v>
       </c>
       <c r="B575">
-        <v>257</v>
+        <v>8</v>
       </c>
       <c r="C575" t="s">
         <v>69</v>
@@ -18250,11 +18257,11 @@
       </c>
       <c r="E575" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>20.033636028011752</v>
+        <v>27.95298610228356</v>
       </c>
       <c r="F575" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>7.9518675328688184</v>
+        <v>6.4048156938751895</v>
       </c>
       <c r="G575" s="19">
         <v>100</v>
@@ -18270,7 +18277,7 @@
         <v>45372</v>
       </c>
       <c r="B576">
-        <v>258</v>
+        <v>9</v>
       </c>
       <c r="C576" t="s">
         <v>69</v>
@@ -18280,11 +18287,11 @@
       </c>
       <c r="E576" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>27.250108213638661</v>
+        <v>29.775756276648281</v>
       </c>
       <c r="F576" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.8720567923140816</v>
+        <v>4.8649541661501896</v>
       </c>
       <c r="G576" s="19">
         <v>50</v>
@@ -18300,7 +18307,7 @@
         <v>45372</v>
       </c>
       <c r="B577">
-        <v>259</v>
+        <v>10</v>
       </c>
       <c r="C577" t="s">
         <v>69</v>
@@ -18310,11 +18317,11 @@
       </c>
       <c r="E577" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>33.955840736296977</v>
+        <v>18.838327767776871</v>
       </c>
       <c r="F577" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>9.7229727430569248</v>
+        <v>6.9244925672174729</v>
       </c>
       <c r="G577" s="19">
         <v>120</v>
@@ -18330,7 +18337,7 @@
         <v>45372</v>
       </c>
       <c r="B578">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="C578" t="s">
         <v>69</v>
@@ -18340,11 +18347,11 @@
       </c>
       <c r="E578" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>22.854535623113755</v>
+        <v>20.643854314102573</v>
       </c>
       <c r="F578" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>9.2361538479162739</v>
+        <v>7.0174086050757394</v>
       </c>
       <c r="G578" s="19">
         <v>200</v>
@@ -18360,7 +18367,7 @@
         <v>45372</v>
       </c>
       <c r="B579">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="C579" t="s">
         <v>69</v>
@@ -18370,11 +18377,11 @@
       </c>
       <c r="E579" s="20">
         <f t="shared" ref="E579:E632" ca="1" si="18">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>22.088723630206008</v>
+        <v>18.578670280462351</v>
       </c>
       <c r="F579" s="20">
         <f t="shared" ref="F579:F632" ca="1" si="19">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>6.6975059377004014</v>
+        <v>5.9021156190141619</v>
       </c>
       <c r="G579" s="19">
         <v>80</v>
@@ -18390,7 +18397,7 @@
         <v>45372</v>
       </c>
       <c r="B580">
-        <v>262</v>
+        <v>13</v>
       </c>
       <c r="C580" t="s">
         <v>69</v>
@@ -18400,11 +18407,11 @@
       </c>
       <c r="E580" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>17.562993102125684</v>
+        <v>22.510962032759252</v>
       </c>
       <c r="F580" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>4.9576919127734094</v>
+        <v>5.1924110657622187</v>
       </c>
       <c r="G580" s="19">
         <v>40</v>
@@ -18420,7 +18427,7 @@
         <v>45372</v>
       </c>
       <c r="B581">
-        <v>263</v>
+        <v>14</v>
       </c>
       <c r="C581" t="s">
         <v>69</v>
@@ -18430,11 +18437,11 @@
       </c>
       <c r="E581" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>21.997434144133134</v>
+        <v>22.91283875760314</v>
       </c>
       <c r="F581" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>4.7420249638883272</v>
+        <v>2</v>
       </c>
       <c r="G581" s="19">
         <v>110</v>
@@ -18450,7 +18457,7 @@
         <v>45372</v>
       </c>
       <c r="B582">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c r="C582" t="s">
         <v>69</v>
@@ -18460,11 +18467,11 @@
       </c>
       <c r="E582" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>26.266319343593874</v>
+        <v>26.358645042189686</v>
       </c>
       <c r="F582" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.5457656615940518</v>
+        <v>6.7950716084382439</v>
       </c>
       <c r="G582" s="19">
         <v>150</v>
@@ -18480,7 +18487,7 @@
         <v>45372</v>
       </c>
       <c r="B583">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="C583" t="s">
         <v>69</v>
@@ -18490,11 +18497,11 @@
       </c>
       <c r="E583" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>29.13813153144412</v>
+        <v>25.599178223390457</v>
       </c>
       <c r="F583" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.756477924312783</v>
+        <v>5.4612972110877323</v>
       </c>
       <c r="G583" s="19">
         <v>90</v>
@@ -18510,7 +18517,7 @@
         <v>45372</v>
       </c>
       <c r="B584">
-        <v>266</v>
+        <v>17</v>
       </c>
       <c r="C584" t="s">
         <v>69</v>
@@ -18520,11 +18527,11 @@
       </c>
       <c r="E584" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>30.16923654792215</v>
+        <v>27.236308118073666</v>
       </c>
       <c r="F584" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>7.6445190061956225</v>
+        <v>6.2188180686846959</v>
       </c>
       <c r="G584" s="19">
         <v>30</v>
@@ -18537,10 +18544,10 @@
     </row>
     <row r="585" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A585" s="5">
-        <v>45373</v>
+        <v>45372</v>
       </c>
       <c r="B585">
-        <v>267</v>
+        <v>18</v>
       </c>
       <c r="C585" t="s">
         <v>69</v>
@@ -18550,11 +18557,11 @@
       </c>
       <c r="E585" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>25.540442363518224</v>
+        <v>27.576109563572913</v>
       </c>
       <c r="F585" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.3185915417254783</v>
+        <v>2.8020452643781955</v>
       </c>
       <c r="G585" s="19">
         <v>20</v>
@@ -18567,10 +18574,10 @@
     </row>
     <row r="586" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A586" s="5">
-        <v>45373</v>
+        <v>45372</v>
       </c>
       <c r="B586">
-        <v>268</v>
+        <v>19</v>
       </c>
       <c r="C586" t="s">
         <v>69</v>
@@ -18580,11 +18587,11 @@
       </c>
       <c r="E586" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>23.465049727775099</v>
+        <v>27.781840805979897</v>
       </c>
       <c r="F586" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>4.1357905329225328</v>
+        <v>3.9319654784053242</v>
       </c>
       <c r="G586" s="19">
         <v>70</v>
@@ -18600,7 +18607,7 @@
         <v>45373</v>
       </c>
       <c r="B587">
-        <v>269</v>
+        <v>7</v>
       </c>
       <c r="C587" t="s">
         <v>69</v>
@@ -18610,11 +18617,11 @@
       </c>
       <c r="E587" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>14.316767451183004</v>
+        <v>25.128322023164287</v>
       </c>
       <c r="F587" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.8825495290925849</v>
+        <v>4.1628589795053053</v>
       </c>
       <c r="G587" s="19">
         <v>140</v>
@@ -18630,7 +18637,7 @@
         <v>45373</v>
       </c>
       <c r="B588">
-        <v>270</v>
+        <v>8</v>
       </c>
       <c r="C588" t="s">
         <v>69</v>
@@ -18640,11 +18647,11 @@
       </c>
       <c r="E588" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>32.712415557820428</v>
+        <v>20.46680354292355</v>
       </c>
       <c r="F588" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>8.7038106280057868</v>
+        <v>8.88133524185338</v>
       </c>
       <c r="G588" s="19">
         <v>100</v>
@@ -18660,7 +18667,7 @@
         <v>45373</v>
       </c>
       <c r="B589">
-        <v>271</v>
+        <v>9</v>
       </c>
       <c r="C589" t="s">
         <v>69</v>
@@ -18670,11 +18677,11 @@
       </c>
       <c r="E589" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>31.638278425590805</v>
+        <v>13.332329247795006</v>
       </c>
       <c r="F589" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.0949419817688915</v>
+        <v>4.9829993455594401</v>
       </c>
       <c r="G589" s="19">
         <v>50</v>
@@ -18690,7 +18697,7 @@
         <v>45373</v>
       </c>
       <c r="B590">
-        <v>272</v>
+        <v>10</v>
       </c>
       <c r="C590" t="s">
         <v>69</v>
@@ -18700,11 +18707,11 @@
       </c>
       <c r="E590" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>19.652474675240214</v>
+        <v>24.314908321675532</v>
       </c>
       <c r="F590" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.1464626380872796</v>
+        <v>9.8492260149047066</v>
       </c>
       <c r="G590" s="19">
         <v>120</v>
@@ -18720,7 +18727,7 @@
         <v>45373</v>
       </c>
       <c r="B591">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="C591" t="s">
         <v>69</v>
@@ -18730,11 +18737,11 @@
       </c>
       <c r="E591" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>21.983896809477503</v>
+        <v>20.755087532266494</v>
       </c>
       <c r="F591" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.6761059216277641</v>
+        <v>9.6904744481846983</v>
       </c>
       <c r="G591" s="19">
         <v>200</v>
@@ -18750,7 +18757,7 @@
         <v>45373</v>
       </c>
       <c r="B592">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="C592" t="s">
         <v>69</v>
@@ -18760,11 +18767,11 @@
       </c>
       <c r="E592" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>26.922572844226622</v>
+        <v>23.751059280383704</v>
       </c>
       <c r="F592" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>7.0361361063010452</v>
+        <v>9.9939459077561121</v>
       </c>
       <c r="G592" s="19">
         <v>80</v>
@@ -18780,7 +18787,7 @@
         <v>45373</v>
       </c>
       <c r="B593">
-        <v>275</v>
+        <v>13</v>
       </c>
       <c r="C593" t="s">
         <v>69</v>
@@ -18790,11 +18797,11 @@
       </c>
       <c r="E593" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>27.944187667636868</v>
+        <v>21.062800728340129</v>
       </c>
       <c r="F593" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.5373184233551775</v>
+        <v>3.8456825933677368</v>
       </c>
       <c r="G593" s="19">
         <v>40</v>
@@ -18810,7 +18817,7 @@
         <v>45373</v>
       </c>
       <c r="B594">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="C594" t="s">
         <v>69</v>
@@ -18820,11 +18827,11 @@
       </c>
       <c r="E594" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>24.93853035903296</v>
+        <v>25.302528695937109</v>
       </c>
       <c r="F594" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>3.1784650998610986</v>
+        <v>6.9322540470249621</v>
       </c>
       <c r="G594" s="19">
         <v>110</v>
@@ -18840,7 +18847,7 @@
         <v>45373</v>
       </c>
       <c r="B595">
-        <v>277</v>
+        <v>15</v>
       </c>
       <c r="C595" t="s">
         <v>69</v>
@@ -18850,11 +18857,11 @@
       </c>
       <c r="E595" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>19.566549778384942</v>
+        <v>23.841369219665175</v>
       </c>
       <c r="F595" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>4.7652738537310171</v>
+        <v>6.8191695964172698</v>
       </c>
       <c r="G595" s="19">
         <v>150</v>
@@ -18870,7 +18877,7 @@
         <v>45373</v>
       </c>
       <c r="B596">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="C596" t="s">
         <v>69</v>
@@ -18880,11 +18887,11 @@
       </c>
       <c r="E596" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>20.835780869235727</v>
+        <v>27.981195696997787</v>
       </c>
       <c r="F596" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.2951071352322554</v>
+        <v>7.4242572786741743</v>
       </c>
       <c r="G596" s="19">
         <v>90</v>
@@ -18900,7 +18907,7 @@
         <v>45373</v>
       </c>
       <c r="B597">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="C597" t="s">
         <v>69</v>
@@ -18910,11 +18917,11 @@
       </c>
       <c r="E597" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>24.067671344958505</v>
+        <v>24.634118023729652</v>
       </c>
       <c r="F597" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>3.8304125119963444</v>
+        <v>3.8269518470087331</v>
       </c>
       <c r="G597" s="19">
         <v>30</v>
@@ -18927,10 +18934,10 @@
     </row>
     <row r="598" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A598" s="5">
-        <v>45376</v>
+        <v>45373</v>
       </c>
       <c r="B598">
-        <v>280</v>
+        <v>18</v>
       </c>
       <c r="C598" t="s">
         <v>69</v>
@@ -18940,11 +18947,11 @@
       </c>
       <c r="E598" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>34.477776833610292</v>
+        <v>21.304328724689427</v>
       </c>
       <c r="F598" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.4531040500453614</v>
+        <v>4.7093867721916078</v>
       </c>
       <c r="G598" s="19">
         <v>20</v>
@@ -18957,10 +18964,10 @@
     </row>
     <row r="599" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A599" s="5">
-        <v>45376</v>
+        <v>45373</v>
       </c>
       <c r="B599">
-        <v>281</v>
+        <v>19</v>
       </c>
       <c r="C599" t="s">
         <v>69</v>
@@ -18970,11 +18977,11 @@
       </c>
       <c r="E599" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>27.598990923710705</v>
+        <v>22.037550453551855</v>
       </c>
       <c r="F599" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>9.4897169846814382</v>
+        <v>6.2951797029216019</v>
       </c>
       <c r="G599" s="19">
         <v>70</v>
@@ -18990,7 +18997,7 @@
         <v>45376</v>
       </c>
       <c r="B600">
-        <v>282</v>
+        <v>7</v>
       </c>
       <c r="C600" t="s">
         <v>69</v>
@@ -19000,11 +19007,11 @@
       </c>
       <c r="E600" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>24.281215641319687</v>
+        <v>31.262553118339405</v>
       </c>
       <c r="F600" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>10.894161853838582</v>
+        <v>5.0586764456836883</v>
       </c>
       <c r="G600" s="19">
         <v>140</v>
@@ -19020,7 +19027,7 @@
         <v>45376</v>
       </c>
       <c r="B601">
-        <v>283</v>
+        <v>8</v>
       </c>
       <c r="C601" t="s">
         <v>69</v>
@@ -19030,11 +19037,11 @@
       </c>
       <c r="E601" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>17.904392400229465</v>
+        <v>24.889074326303053</v>
       </c>
       <c r="F601" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>3.6371953033600728</v>
+        <v>5.6763492409816898</v>
       </c>
       <c r="G601" s="19">
         <v>100</v>
@@ -19050,7 +19057,7 @@
         <v>45376</v>
       </c>
       <c r="B602">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="C602" t="s">
         <v>69</v>
@@ -19060,11 +19067,11 @@
       </c>
       <c r="E602" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>25.07282808329898</v>
+        <v>32.127662381027832</v>
       </c>
       <c r="F602" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.9452675711081424</v>
+        <v>6.505620841914924</v>
       </c>
       <c r="G602" s="19">
         <v>50</v>
@@ -19080,7 +19087,7 @@
         <v>45376</v>
       </c>
       <c r="B603">
-        <v>285</v>
+        <v>10</v>
       </c>
       <c r="C603" t="s">
         <v>69</v>
@@ -19090,11 +19097,11 @@
       </c>
       <c r="E603" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>16.907457205645599</v>
+        <v>16.922489082873188</v>
       </c>
       <c r="F603" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.2437976925863783</v>
+        <v>5.912449625944082</v>
       </c>
       <c r="G603" s="19">
         <v>120</v>
@@ -19110,7 +19117,7 @@
         <v>45376</v>
       </c>
       <c r="B604">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="C604" t="s">
         <v>69</v>
@@ -19120,11 +19127,11 @@
       </c>
       <c r="E604" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>27.146384597607842</v>
+        <v>26.914819135396716</v>
       </c>
       <c r="F604" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.6232427585453406</v>
+        <v>6.2191072443653379</v>
       </c>
       <c r="G604" s="19">
         <v>200</v>
@@ -19140,7 +19147,7 @@
         <v>45376</v>
       </c>
       <c r="B605">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="C605" t="s">
         <v>69</v>
@@ -19150,11 +19157,11 @@
       </c>
       <c r="E605" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>17.314924683408879</v>
+        <v>17.421888511911856</v>
       </c>
       <c r="F605" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>7.2479137864565262</v>
+        <v>6.2686518233575352</v>
       </c>
       <c r="G605" s="19">
         <v>80</v>
@@ -19170,7 +19177,7 @@
         <v>45376</v>
       </c>
       <c r="B606">
-        <v>288</v>
+        <v>13</v>
       </c>
       <c r="C606" t="s">
         <v>69</v>
@@ -19180,11 +19187,11 @@
       </c>
       <c r="E606" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>22.749049269512945</v>
+        <v>28.161637593303489</v>
       </c>
       <c r="F606" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>4.1937101696780132</v>
+        <v>8.9877645338117524</v>
       </c>
       <c r="G606" s="19">
         <v>40</v>
@@ -19200,7 +19207,7 @@
         <v>45376</v>
       </c>
       <c r="B607">
-        <v>289</v>
+        <v>14</v>
       </c>
       <c r="C607" t="s">
         <v>69</v>
@@ -19210,11 +19217,11 @@
       </c>
       <c r="E607" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>23.256862868958159</v>
+        <v>23.46813263859881</v>
       </c>
       <c r="F607" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>3.6578188676801475</v>
+        <v>2.798562812767929</v>
       </c>
       <c r="G607" s="19">
         <v>110</v>
@@ -19230,7 +19237,7 @@
         <v>45376</v>
       </c>
       <c r="B608">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c r="C608" t="s">
         <v>69</v>
@@ -19240,11 +19247,11 @@
       </c>
       <c r="E608" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>24.57964870026948</v>
+        <v>24.455745889879356</v>
       </c>
       <c r="F608" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>3.1229742181655173</v>
+        <v>9.8389849590398804</v>
       </c>
       <c r="G608" s="19">
         <v>150</v>
@@ -19260,7 +19267,7 @@
         <v>45376</v>
       </c>
       <c r="B609">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="C609" t="s">
         <v>69</v>
@@ -19270,11 +19277,11 @@
       </c>
       <c r="E609" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>23.374645875683672</v>
+        <v>21.967927171660964</v>
       </c>
       <c r="F609" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>7.0696619953593096</v>
+        <v>2</v>
       </c>
       <c r="G609" s="19">
         <v>90</v>
@@ -19290,7 +19297,7 @@
         <v>45376</v>
       </c>
       <c r="B610">
-        <v>292</v>
+        <v>17</v>
       </c>
       <c r="C610" t="s">
         <v>69</v>
@@ -19300,11 +19307,11 @@
       </c>
       <c r="E610" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>22.0038059660755</v>
+        <v>21.030166680751826</v>
       </c>
       <c r="F610" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>3.8959982641548656</v>
+        <v>4.7928145127876993</v>
       </c>
       <c r="G610" s="19">
         <v>30</v>
@@ -19317,10 +19324,10 @@
     </row>
     <row r="611" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A611" s="5">
-        <v>45377</v>
+        <v>45376</v>
       </c>
       <c r="B611">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="C611" t="s">
         <v>69</v>
@@ -19330,11 +19337,11 @@
       </c>
       <c r="E611" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>20.109070116654209</v>
+        <v>22.77219251533117</v>
       </c>
       <c r="F611" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>7.3886176388856679</v>
+        <v>3.5850000965525641</v>
       </c>
       <c r="G611" s="19">
         <v>20</v>
@@ -19347,10 +19354,10 @@
     </row>
     <row r="612" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A612" s="5">
-        <v>45377</v>
+        <v>45376</v>
       </c>
       <c r="B612">
-        <v>294</v>
+        <v>19</v>
       </c>
       <c r="C612" t="s">
         <v>69</v>
@@ -19360,11 +19367,11 @@
       </c>
       <c r="E612" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>16.41739812298308</v>
+        <v>28.036022179991363</v>
       </c>
       <c r="F612" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.6845212146128263</v>
+        <v>6.7935099990991947</v>
       </c>
       <c r="G612" s="19">
         <v>70</v>
@@ -19380,7 +19387,7 @@
         <v>45377</v>
       </c>
       <c r="B613">
-        <v>295</v>
+        <v>7</v>
       </c>
       <c r="C613" t="s">
         <v>69</v>
@@ -19390,11 +19397,11 @@
       </c>
       <c r="E613" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>19.068067573845447</v>
+        <v>26.833974861766546</v>
       </c>
       <c r="F613" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.6700008748573003</v>
+        <v>9.6344145566333026</v>
       </c>
       <c r="G613" s="19">
         <v>140</v>
@@ -19410,7 +19417,7 @@
         <v>45377</v>
       </c>
       <c r="B614">
-        <v>296</v>
+        <v>8</v>
       </c>
       <c r="C614" t="s">
         <v>69</v>
@@ -19420,11 +19427,11 @@
       </c>
       <c r="E614" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>25.057947301766731</v>
+        <v>20.638207874331503</v>
       </c>
       <c r="F614" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.6111385248041881</v>
+        <v>10.796285869017893</v>
       </c>
       <c r="G614" s="19">
         <v>100</v>
@@ -19440,7 +19447,7 @@
         <v>45377</v>
       </c>
       <c r="B615">
-        <v>297</v>
+        <v>9</v>
       </c>
       <c r="C615" t="s">
         <v>69</v>
@@ -19450,11 +19457,11 @@
       </c>
       <c r="E615" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>25.079604797125175</v>
+        <v>24.365951244772543</v>
       </c>
       <c r="F615" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.0591846661981323</v>
+        <v>5.9122899669904792</v>
       </c>
       <c r="G615" s="19">
         <v>50</v>
@@ -19470,7 +19477,7 @@
         <v>45377</v>
       </c>
       <c r="B616">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="C616" t="s">
         <v>69</v>
@@ -19480,11 +19487,11 @@
       </c>
       <c r="E616" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>25.349593958668017</v>
+        <v>28.029168306384044</v>
       </c>
       <c r="F616" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.0028285742782623</v>
+        <v>5.2451818633928324</v>
       </c>
       <c r="G616" s="19">
         <v>120</v>
@@ -19500,7 +19507,7 @@
         <v>45377</v>
       </c>
       <c r="B617">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="C617" t="s">
         <v>69</v>
@@ -19510,11 +19517,11 @@
       </c>
       <c r="E617" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>25.86410441897106</v>
+        <v>26.063324864017755</v>
       </c>
       <c r="F617" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>4.043876187249964</v>
+        <v>7.9224098655629493</v>
       </c>
       <c r="G617" s="19">
         <v>200</v>
@@ -19530,7 +19537,7 @@
         <v>45377</v>
       </c>
       <c r="B618">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="C618" t="s">
         <v>69</v>
@@ -19540,11 +19547,11 @@
       </c>
       <c r="E618" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>21.561696945893001</v>
+        <v>22.025213075329678</v>
       </c>
       <c r="F618" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>7.9123941123419925</v>
+        <v>7.9092766220083695</v>
       </c>
       <c r="G618" s="19">
         <v>80</v>
@@ -19560,7 +19567,7 @@
         <v>45377</v>
       </c>
       <c r="B619">
-        <v>301</v>
+        <v>13</v>
       </c>
       <c r="C619" t="s">
         <v>69</v>
@@ -19570,11 +19577,11 @@
       </c>
       <c r="E619" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>25.344673697951318</v>
+        <v>20.531218539263335</v>
       </c>
       <c r="F619" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>8.9941966587056719</v>
+        <v>6.6772003327979954</v>
       </c>
       <c r="G619" s="19">
         <v>40</v>
@@ -19590,7 +19597,7 @@
         <v>45377</v>
       </c>
       <c r="B620">
-        <v>302</v>
+        <v>14</v>
       </c>
       <c r="C620" t="s">
         <v>69</v>
@@ -19600,11 +19607,11 @@
       </c>
       <c r="E620" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>23.329296254513451</v>
+        <v>20.913011244808189</v>
       </c>
       <c r="F620" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>7.898151413932192</v>
+        <v>5.9111550140386937</v>
       </c>
       <c r="G620" s="19">
         <v>110</v>
@@ -19620,7 +19627,7 @@
         <v>45377</v>
       </c>
       <c r="B621">
-        <v>303</v>
+        <v>15</v>
       </c>
       <c r="C621" t="s">
         <v>69</v>
@@ -19630,11 +19637,11 @@
       </c>
       <c r="E621" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>22.656563335651683</v>
+        <v>29.994308004112909</v>
       </c>
       <c r="F621" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>4.9632743585676096</v>
+        <v>9.5270154725960001</v>
       </c>
       <c r="G621" s="19">
         <v>150</v>
@@ -19650,7 +19657,7 @@
         <v>45377</v>
       </c>
       <c r="B622">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="C622" t="s">
         <v>69</v>
@@ -19660,11 +19667,11 @@
       </c>
       <c r="E622" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>24.118416504481818</v>
+        <v>19.360870600031006</v>
       </c>
       <c r="F622" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.5863257232742614</v>
+        <v>5.8383122367727989</v>
       </c>
       <c r="G622" s="19">
         <v>90</v>
@@ -19680,7 +19687,7 @@
         <v>45377</v>
       </c>
       <c r="B623">
-        <v>305</v>
+        <v>17</v>
       </c>
       <c r="C623" t="s">
         <v>69</v>
@@ -19690,11 +19697,11 @@
       </c>
       <c r="E623" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>23.14874153608794</v>
+        <v>26.612626761605203</v>
       </c>
       <c r="F623" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>10.004143294661393</v>
+        <v>4.6375880603033099</v>
       </c>
       <c r="G623" s="19">
         <v>30</v>
@@ -19707,10 +19714,10 @@
     </row>
     <row r="624" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A624" s="5">
-        <v>45378</v>
+        <v>45377</v>
       </c>
       <c r="B624">
-        <v>306</v>
+        <v>18</v>
       </c>
       <c r="C624" t="s">
         <v>69</v>
@@ -19720,11 +19727,11 @@
       </c>
       <c r="E624" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>24.122974602683414</v>
+        <v>22.741019735578348</v>
       </c>
       <c r="F624" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>8.7230838796897423</v>
+        <v>6.4411654480664637</v>
       </c>
       <c r="G624" s="19">
         <v>20</v>
@@ -19737,10 +19744,10 @@
     </row>
     <row r="625" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A625" s="5">
-        <v>45378</v>
+        <v>45377</v>
       </c>
       <c r="B625">
-        <v>307</v>
+        <v>19</v>
       </c>
       <c r="C625" t="s">
         <v>69</v>
@@ -19750,11 +19757,11 @@
       </c>
       <c r="E625" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>25.087327158392913</v>
+        <v>24.027028039251462</v>
       </c>
       <c r="F625" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>7.0711242789828201</v>
+        <v>6.398210820008142</v>
       </c>
       <c r="G625" s="19">
         <v>70</v>
@@ -19770,7 +19777,7 @@
         <v>45378</v>
       </c>
       <c r="B626">
-        <v>308</v>
+        <v>7</v>
       </c>
       <c r="C626" t="s">
         <v>69</v>
@@ -19780,11 +19787,11 @@
       </c>
       <c r="E626" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>22.786072601156373</v>
+        <v>19.161129953955538</v>
       </c>
       <c r="F626" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.5903007605769401</v>
+        <v>6.4292107054493961</v>
       </c>
       <c r="G626" s="19">
         <v>140</v>
@@ -19800,7 +19807,7 @@
         <v>45378</v>
       </c>
       <c r="B627">
-        <v>309</v>
+        <v>8</v>
       </c>
       <c r="C627" t="s">
         <v>69</v>
@@ -19810,11 +19817,11 @@
       </c>
       <c r="E627" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>20.619255738541327</v>
+        <v>18.726588605827111</v>
       </c>
       <c r="F627" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>2.7737931695201841</v>
+        <v>6.4773202662596168</v>
       </c>
       <c r="G627" s="19">
         <v>100</v>
@@ -19830,7 +19837,7 @@
         <v>45378</v>
       </c>
       <c r="B628">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="C628" t="s">
         <v>69</v>
@@ -19840,11 +19847,11 @@
       </c>
       <c r="E628" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>20.015294263141197</v>
+        <v>24.925747653572891</v>
       </c>
       <c r="F628" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.9851460853251455</v>
+        <v>4.0852788011917225</v>
       </c>
       <c r="G628" s="19">
         <v>50</v>
@@ -19860,7 +19867,7 @@
         <v>45378</v>
       </c>
       <c r="B629">
-        <v>311</v>
+        <v>10</v>
       </c>
       <c r="C629" t="s">
         <v>69</v>
@@ -19870,11 +19877,11 @@
       </c>
       <c r="E629" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>15.507065060576014</v>
+        <v>27.49305854289458</v>
       </c>
       <c r="F629" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.14910412334652</v>
+        <v>4.9665975055227314</v>
       </c>
       <c r="G629" s="19">
         <v>120</v>
@@ -19890,7 +19897,7 @@
         <v>45378</v>
       </c>
       <c r="B630">
-        <v>312</v>
+        <v>11</v>
       </c>
       <c r="C630" t="s">
         <v>69</v>
@@ -19900,11 +19907,11 @@
       </c>
       <c r="E630" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>25.779138698714679</v>
+        <v>25.888485591413502</v>
       </c>
       <c r="F630" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.0905269465719449</v>
+        <v>10.140815140209664</v>
       </c>
       <c r="G630" s="19">
         <v>200</v>
@@ -19920,7 +19927,7 @@
         <v>45378</v>
       </c>
       <c r="B631">
-        <v>313</v>
+        <v>12</v>
       </c>
       <c r="C631" t="s">
         <v>69</v>
@@ -19930,11 +19937,11 @@
       </c>
       <c r="E631" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>28.976194092111676</v>
+        <v>25.885290816159245</v>
       </c>
       <c r="F631" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.2066863909297449</v>
+        <v>5.5008666067427026</v>
       </c>
       <c r="G631" s="19">
         <v>80</v>
@@ -19950,7 +19957,7 @@
         <v>45378</v>
       </c>
       <c r="B632">
-        <v>314</v>
+        <v>13</v>
       </c>
       <c r="C632" t="s">
         <v>69</v>
@@ -19960,11 +19967,11 @@
       </c>
       <c r="E632" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>26.6175184617817</v>
+        <v>19.834453268239592</v>
       </c>
       <c r="F632" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>8.6679874665376264</v>
+        <v>8.990780713182323</v>
       </c>
       <c r="G632" s="19">
         <v>15</v>
@@ -20474,8 +20481,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20497,7 +20504,7 @@
       <c r="C1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -23183,7 +23190,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D280"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/data/IBC_Static_Data.xlsx
+++ b/data/IBC_Static_Data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="83" documentId="8_{62114977-9B67-4508-8D1E-4BFA930BEC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70F8D832-6927-4BF6-986C-78614890E0AD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="8" r:id="rId1"/>
@@ -2150,7 +2150,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T710"/>
   <sheetViews>
-    <sheetView topLeftCell="A608" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C630" sqref="C630"/>
     </sheetView>
   </sheetViews>
@@ -2207,11 +2207,11 @@
       </c>
       <c r="E2" s="20">
         <f ca="1">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>26.504942377406636</v>
+        <v>22.790626841961004</v>
       </c>
       <c r="F2" s="20">
         <f ca="1">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>3.0030284188790586</v>
+        <v>5.3985950031586594</v>
       </c>
       <c r="G2" s="19">
         <v>50</v>
@@ -2235,11 +2235,11 @@
       </c>
       <c r="E3" s="20">
         <f t="shared" ref="E3:E66" ca="1" si="0">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>30.008670447395914</v>
+        <v>22.198393024515269</v>
       </c>
       <c r="F3" s="20">
         <f t="shared" ref="F3:F66" ca="1" si="1">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>7.021445672798146</v>
+        <v>3.7324661472686911</v>
       </c>
       <c r="G3" s="19">
         <v>148</v>
@@ -2263,11 +2263,11 @@
       </c>
       <c r="E4" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>22.54273990626093</v>
+        <v>20.016245183112591</v>
       </c>
       <c r="F4" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0053516439740937</v>
+        <v>3.6728570229192981</v>
       </c>
       <c r="G4" s="19">
         <v>150</v>
@@ -2291,11 +2291,11 @@
       </c>
       <c r="E5" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>25.076225321437516</v>
+        <v>22.775985039275792</v>
       </c>
       <c r="F5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5889079284934029</v>
+        <v>5.3962412321221596</v>
       </c>
       <c r="G5" s="19">
         <v>100</v>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="E6" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>22.892001015072669</v>
+        <v>22.954478233724728</v>
       </c>
       <c r="F6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9068275985380652</v>
+        <v>7.007759250363204</v>
       </c>
       <c r="G6" s="19">
         <v>50</v>
@@ -2347,11 +2347,11 @@
       </c>
       <c r="E7" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>26.277783543269603</v>
+        <v>18.074604591198437</v>
       </c>
       <c r="F7" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3116853325065678</v>
+        <v>6.4528687926468375</v>
       </c>
       <c r="G7" s="19">
         <v>120</v>
@@ -2375,11 +2375,11 @@
       </c>
       <c r="E8" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>30.585874705179435</v>
+        <v>18.582235388426398</v>
       </c>
       <c r="F8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3370215480297993</v>
+        <v>9.0919420862977045</v>
       </c>
       <c r="G8" s="19">
         <v>200</v>
@@ -2403,11 +2403,11 @@
       </c>
       <c r="E9" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>16.923374388160155</v>
       </c>
       <c r="F9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6167012748214526</v>
+        <v>7.2015780852063145</v>
       </c>
       <c r="G9" s="19">
         <v>80</v>
@@ -2431,11 +2431,11 @@
       </c>
       <c r="E10" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>26.869436049925522</v>
+        <v>21.473248036037248</v>
       </c>
       <c r="F10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6627407661826128</v>
+        <v>10.070825925458596</v>
       </c>
       <c r="G10" s="19">
         <v>40</v>
@@ -2459,11 +2459,11 @@
       </c>
       <c r="E11" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>17.897056621135178</v>
+        <v>21.375500528060268</v>
       </c>
       <c r="F11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1593727610903981</v>
+        <v>3.5730676049746051</v>
       </c>
       <c r="G11" s="19">
         <v>110</v>
@@ -2487,11 +2487,11 @@
       </c>
       <c r="E12" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>29.688740809831586</v>
+        <v>21.474936111544395</v>
       </c>
       <c r="F12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5456925783950552</v>
+        <v>8.2717093377277529</v>
       </c>
       <c r="G12" s="19">
         <v>150</v>
@@ -2515,11 +2515,11 @@
       </c>
       <c r="E13" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>20.500537848224404</v>
+        <v>34.20516241922239</v>
       </c>
       <c r="F13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8593080762664957</v>
+        <v>6.3216656701927532</v>
       </c>
       <c r="G13" s="19">
         <v>90</v>
@@ -2543,11 +2543,11 @@
       </c>
       <c r="E14" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>17.209847189747492</v>
+        <v>26.623234840082809</v>
       </c>
       <c r="F14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2096231449468453</v>
+        <v>10.112626939076319</v>
       </c>
       <c r="G14" s="19">
         <v>30</v>
@@ -2571,11 +2571,11 @@
       </c>
       <c r="E15" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>21.187121844371848</v>
+        <v>26.253195311988549</v>
       </c>
       <c r="F15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4996213458225869</v>
+        <v>8.0892095374663864</v>
       </c>
       <c r="G15" s="19">
         <v>20</v>
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E16" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>18.186385073329109</v>
+        <v>27.670345867455314</v>
       </c>
       <c r="F16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8346398354607842</v>
+        <v>3.6991315724868761</v>
       </c>
       <c r="G16" s="19">
         <v>70</v>
@@ -2627,11 +2627,11 @@
       </c>
       <c r="E17" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>23.260276728539925</v>
+        <v>27.602436923103177</v>
       </c>
       <c r="F17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3591924496746488</v>
+        <v>4.0874458265757632</v>
       </c>
       <c r="G17" s="19">
         <v>140</v>
@@ -2655,11 +2655,11 @@
       </c>
       <c r="E18" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>28.651225141267318</v>
+        <v>22.667355017145397</v>
       </c>
       <c r="F18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6044542380500237</v>
+        <v>6.3663761934526715</v>
       </c>
       <c r="G18" s="19">
         <v>100</v>
@@ -2683,11 +2683,11 @@
       </c>
       <c r="E19" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>17.048893821395094</v>
+        <v>25.283326126143105</v>
       </c>
       <c r="F19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.709474966519215</v>
+        <v>5.2101873950404611</v>
       </c>
       <c r="G19" s="19">
         <v>50</v>
@@ -2711,11 +2711,11 @@
       </c>
       <c r="E20" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>22.250512190593259</v>
+        <v>28.173743234381604</v>
       </c>
       <c r="F20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1257967753590217</v>
+        <v>6.9530586194756463</v>
       </c>
       <c r="G20" s="19">
         <v>120</v>
@@ -2739,11 +2739,11 @@
       </c>
       <c r="E21" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>22.879572686801783</v>
+        <v>21.361617477349871</v>
       </c>
       <c r="F21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6597543681413356</v>
+        <v>6.1650786394600496</v>
       </c>
       <c r="G21" s="19">
         <v>200</v>
@@ -2767,11 +2767,11 @@
       </c>
       <c r="E22" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>24.6123047669277</v>
+        <v>16.647207399008728</v>
       </c>
       <c r="F22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6349711504336026</v>
+        <v>4.157315519399976</v>
       </c>
       <c r="G22" s="19">
         <v>80</v>
@@ -2795,11 +2795,11 @@
       </c>
       <c r="E23" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>24.615161770649149</v>
+        <v>24.864421830182248</v>
       </c>
       <c r="F23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1666753808068719</v>
+        <v>5.0327855286858965</v>
       </c>
       <c r="G23" s="19">
         <v>40</v>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="E24" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>16.35262463833795</v>
+        <v>23.07637144605723</v>
       </c>
       <c r="F24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0081719099218818</v>
+        <v>4.7421439791590583</v>
       </c>
       <c r="G24" s="19">
         <v>110</v>
@@ -2851,11 +2851,11 @@
       </c>
       <c r="E25" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>20.998887231031677</v>
+        <v>26.884860331316652</v>
       </c>
       <c r="F25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1569727309537661</v>
+        <v>3.5499825453372629</v>
       </c>
       <c r="G25" s="19">
         <v>150</v>
@@ -2879,11 +2879,11 @@
       </c>
       <c r="E26" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>16.162768433267836</v>
+        <v>28.560231002687189</v>
       </c>
       <c r="F26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5322892342043324</v>
+        <v>2</v>
       </c>
       <c r="G26" s="19">
         <v>90</v>
@@ -2907,11 +2907,11 @@
       </c>
       <c r="E27" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>21.314317629730283</v>
+        <v>24.815132389431223</v>
       </c>
       <c r="F27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3340179172843154</v>
+        <v>7.6515553434565877</v>
       </c>
       <c r="G27" s="19">
         <v>30</v>
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E28" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>20.495791581341205</v>
+        <v>20.615384462924332</v>
       </c>
       <c r="F28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5185131674195365</v>
+        <v>7.071696835988476</v>
       </c>
       <c r="G28" s="19">
         <v>20</v>
@@ -2963,11 +2963,11 @@
       </c>
       <c r="E29" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>24.368008650216453</v>
+        <v>21.820877567566356</v>
       </c>
       <c r="F29" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0952382806304506</v>
+        <v>5.0597045362516591</v>
       </c>
       <c r="G29" s="19">
         <v>70</v>
@@ -2991,11 +2991,11 @@
       </c>
       <c r="E30" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>24.020100642805851</v>
+        <v>26.186765021411517</v>
       </c>
       <c r="F30" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2845290759804149</v>
+        <v>3.8201264732778846</v>
       </c>
       <c r="G30" s="19">
         <v>140</v>
@@ -3019,11 +3019,11 @@
       </c>
       <c r="E31" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>24.257043057481134</v>
+        <v>26.034023312535929</v>
       </c>
       <c r="F31" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2149262331128732</v>
+        <v>5.1633545897749373</v>
       </c>
       <c r="G31" s="19">
         <v>100</v>
@@ -3047,11 +3047,11 @@
       </c>
       <c r="E32" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>25.93471533412475</v>
+        <v>27.144452113779312</v>
       </c>
       <c r="F32" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6918017668925631</v>
+        <v>4.4397864998031693</v>
       </c>
       <c r="G32" s="19">
         <v>50</v>
@@ -3075,11 +3075,11 @@
       </c>
       <c r="E33" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>26.065211074978436</v>
+        <v>34.176657887555848</v>
       </c>
       <c r="F33" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9891999857705098</v>
+        <v>7.5991627768033778</v>
       </c>
       <c r="G33" s="19">
         <v>120</v>
@@ -3103,11 +3103,11 @@
       </c>
       <c r="E34" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>28.086504016716933</v>
+        <v>24.951989358073639</v>
       </c>
       <c r="F34" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6257712927016286</v>
+        <v>9.2945434387768291</v>
       </c>
       <c r="G34" s="19">
         <v>200</v>
@@ -3131,11 +3131,11 @@
       </c>
       <c r="E35" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>20.039859734974225</v>
+        <v>23.147791346681135</v>
       </c>
       <c r="F35" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4942334375952346</v>
+        <v>5.0475899423696795</v>
       </c>
       <c r="G35" s="19">
         <v>80</v>
@@ -3159,11 +3159,11 @@
       </c>
       <c r="E36" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>20.303757488259901</v>
+        <v>23.918884347584125</v>
       </c>
       <c r="F36" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4454296021248911</v>
+        <v>5.6811163490777385</v>
       </c>
       <c r="G36" s="19">
         <v>40</v>
@@ -3187,11 +3187,11 @@
       </c>
       <c r="E37" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>18.545681183757477</v>
+        <v>18.858952070074523</v>
       </c>
       <c r="F37" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3922585301195127</v>
+        <v>2.5625622778776407</v>
       </c>
       <c r="G37" s="19">
         <v>110</v>
@@ -3215,11 +3215,11 @@
       </c>
       <c r="E38" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>18.141942494441075</v>
+        <v>27.82413715266777</v>
       </c>
       <c r="F38" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9952715844840663</v>
+        <v>7.4794606622963595</v>
       </c>
       <c r="G38" s="19">
         <v>150</v>
@@ -3243,11 +3243,11 @@
       </c>
       <c r="E39" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>19.803165264737871</v>
+        <v>26.531712475452476</v>
       </c>
       <c r="F39" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3.5610085695988163</v>
       </c>
       <c r="G39" s="19">
         <v>90</v>
@@ -3271,11 +3271,11 @@
       </c>
       <c r="E40" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>24.793796192371644</v>
+        <v>27.260741009044786</v>
       </c>
       <c r="F40" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1617796375051288</v>
+        <v>5.6275681224237575</v>
       </c>
       <c r="G40" s="19">
         <v>30</v>
@@ -3299,11 +3299,11 @@
       </c>
       <c r="E41" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>20.666089055797219</v>
+        <v>16.811851707378594</v>
       </c>
       <c r="F41" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8783052494856634</v>
+        <v>7.8188328236197675</v>
       </c>
       <c r="G41" s="19">
         <v>20</v>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="E42" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>20.444242735719921</v>
+        <v>23.086104341022025</v>
       </c>
       <c r="F42" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0098360891006735</v>
+        <v>8.0488219408796109</v>
       </c>
       <c r="G42" s="19">
         <v>70</v>
@@ -3355,11 +3355,11 @@
       </c>
       <c r="E43" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>18.484666438995877</v>
+        <v>27.567999888896914</v>
       </c>
       <c r="F43" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8364869866033491</v>
+        <v>8.2110171498913118</v>
       </c>
       <c r="G43" s="19">
         <v>140</v>
@@ -3383,11 +3383,11 @@
       </c>
       <c r="E44" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>11.882881324598227</v>
+        <v>20.137749777119097</v>
       </c>
       <c r="F44" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0333483010021762</v>
+        <v>7.9167885286880919</v>
       </c>
       <c r="G44" s="19">
         <v>100</v>
@@ -3411,11 +3411,11 @@
       </c>
       <c r="E45" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>21.752132037996681</v>
+        <v>25.193529749371852</v>
       </c>
       <c r="F45" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5092430347818224</v>
+        <v>5.3522568344636667</v>
       </c>
       <c r="G45" s="19">
         <v>50</v>
@@ -3439,11 +3439,11 @@
       </c>
       <c r="E46" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>26.848423176791137</v>
+        <v>24.457200174417004</v>
       </c>
       <c r="F46" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4694720335958564</v>
+        <v>8.7981365910702074</v>
       </c>
       <c r="G46" s="19">
         <v>120</v>
@@ -3467,11 +3467,11 @@
       </c>
       <c r="E47" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>21.342295779352305</v>
+        <v>20.339411332433489</v>
       </c>
       <c r="F47" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0994948873236048</v>
+        <v>3.7407037098968252</v>
       </c>
       <c r="G47" s="19">
         <v>200</v>
@@ -3495,11 +3495,11 @@
       </c>
       <c r="E48" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>25.533655887105329</v>
+        <v>22.27420240155579</v>
       </c>
       <c r="F48" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9788316565975395</v>
+        <v>5.2838670521275164</v>
       </c>
       <c r="G48" s="19">
         <v>80</v>
@@ -3523,11 +3523,11 @@
       </c>
       <c r="E49" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>25.340476634533974</v>
+        <v>22.216591725386468</v>
       </c>
       <c r="F49" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8038561028831639</v>
+        <v>3.5365368077731927</v>
       </c>
       <c r="G49" s="19">
         <v>40</v>
@@ -3551,11 +3551,11 @@
       </c>
       <c r="E50" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>26.395538604252586</v>
+        <v>28.887226882544187</v>
       </c>
       <c r="F50" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9149677719523179</v>
+        <v>6.5252164754732958</v>
       </c>
       <c r="G50" s="19">
         <v>110</v>
@@ -3579,11 +3579,11 @@
       </c>
       <c r="E51" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>20.033876842701808</v>
+        <v>24.404899089120342</v>
       </c>
       <c r="F51" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.868324653808382</v>
+        <v>5.0496523073595077</v>
       </c>
       <c r="G51" s="19">
         <v>150</v>
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E52" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>27.310389562832341</v>
+        <v>19.330254543384608</v>
       </c>
       <c r="F52" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1389140736626731</v>
+        <v>3.4345514375419484</v>
       </c>
       <c r="G52" s="19">
         <v>90</v>
@@ -3635,11 +3635,11 @@
       </c>
       <c r="E53" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>22.528179623382218</v>
+        <v>26.427473546469397</v>
       </c>
       <c r="F53" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0127267146541392</v>
+        <v>8.1993970539971723</v>
       </c>
       <c r="G53" s="19">
         <v>30</v>
@@ -3663,11 +3663,11 @@
       </c>
       <c r="E54" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>17.783412622098286</v>
+        <v>25.919107374636805</v>
       </c>
       <c r="F54" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3759676788859672</v>
+        <v>6.4952961028456233</v>
       </c>
       <c r="G54" s="19">
         <v>20</v>
@@ -3691,11 +3691,11 @@
       </c>
       <c r="E55" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>24.567647610183595</v>
+        <v>35.892079730027035</v>
       </c>
       <c r="F55" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.52827504976276</v>
+        <v>5.4799156421129522</v>
       </c>
       <c r="G55" s="19">
         <v>70</v>
@@ -3719,11 +3719,11 @@
       </c>
       <c r="E56" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>24.137148698265488</v>
+        <v>18.339270175200607</v>
       </c>
       <c r="F56" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.817003082613617</v>
+        <v>7.9750641951097814</v>
       </c>
       <c r="G56" s="19">
         <v>140</v>
@@ -3747,11 +3747,11 @@
       </c>
       <c r="E57" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>27.620606610527027</v>
+        <v>21.958471696399627</v>
       </c>
       <c r="F57" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1646848749948635</v>
+        <v>6.4092593227170793</v>
       </c>
       <c r="G57" s="19">
         <v>100</v>
@@ -3775,11 +3775,11 @@
       </c>
       <c r="E58" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>20.834132373514631</v>
+        <v>25.413843841863436</v>
       </c>
       <c r="F58" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2203236758412928</v>
+        <v>5.8465047162578561</v>
       </c>
       <c r="G58" s="19">
         <v>50</v>
@@ -3803,11 +3803,11 @@
       </c>
       <c r="E59" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>25.255506147822242</v>
+        <v>25.901895667402737</v>
       </c>
       <c r="F59" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0964166406924005</v>
+        <v>10.559050492492123</v>
       </c>
       <c r="G59" s="19">
         <v>120</v>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="E60" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>27.943900373554641</v>
+        <v>28.265381650042983</v>
       </c>
       <c r="F60" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5925360168307341</v>
+        <v>9.7549053125820926</v>
       </c>
       <c r="G60" s="19">
         <v>200</v>
@@ -3859,11 +3859,11 @@
       </c>
       <c r="E61" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>28.894924545083107</v>
+        <v>21.415058113111343</v>
       </c>
       <c r="F61" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0818850051401032</v>
+        <v>4.7413134895112004</v>
       </c>
       <c r="G61" s="19">
         <v>80</v>
@@ -3887,11 +3887,11 @@
       </c>
       <c r="E62" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>29.731822180972458</v>
+        <v>22.065739045459697</v>
       </c>
       <c r="F62" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3514678937577465</v>
+        <v>2.8781451640233588</v>
       </c>
       <c r="G62" s="19">
         <v>40</v>
@@ -3915,11 +3915,11 @@
       </c>
       <c r="E63" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>26.3959459768508</v>
+        <v>11</v>
       </c>
       <c r="F63" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9523700420251444</v>
+        <v>6.450122898631041</v>
       </c>
       <c r="G63" s="19">
         <v>110</v>
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E64" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>29.018975294234078</v>
+        <v>26.893073825100341</v>
       </c>
       <c r="F64" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1936376280963898</v>
+        <v>5.655397941324944</v>
       </c>
       <c r="G64" s="19">
         <v>150</v>
@@ -3971,11 +3971,11 @@
       </c>
       <c r="E65" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>23.2682538255062</v>
+        <v>29.210313360867996</v>
       </c>
       <c r="F65" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1647167329048624</v>
+        <v>6.0505629003545929</v>
       </c>
       <c r="G65" s="19">
         <v>90</v>
@@ -3999,11 +3999,11 @@
       </c>
       <c r="E66" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>16.918666154541686</v>
+        <v>24.223542757894879</v>
       </c>
       <c r="F66" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9829520733897987</v>
+        <v>2.6063065829487786</v>
       </c>
       <c r="G66" s="19">
         <v>30</v>
@@ -4027,11 +4027,11 @@
       </c>
       <c r="E67" s="20">
         <f t="shared" ref="E67:E130" ca="1" si="2">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>19.28733974458325</v>
+        <v>24.272268787517405</v>
       </c>
       <c r="F67" s="20">
         <f t="shared" ref="F67:F130" ca="1" si="3">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>5.8537863843088314</v>
+        <v>7.1185829852600486</v>
       </c>
       <c r="G67" s="19">
         <v>20</v>
@@ -4055,11 +4055,11 @@
       </c>
       <c r="E68" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>18.773673771428445</v>
+        <v>22.324938038659319</v>
       </c>
       <c r="F68" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.6309885993975959</v>
+        <v>6.8448305489649393</v>
       </c>
       <c r="G68" s="19">
         <v>70</v>
@@ -4083,11 +4083,11 @@
       </c>
       <c r="E69" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>29.985549791895032</v>
+        <v>28.360849851372247</v>
       </c>
       <c r="F69" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8919148849438434</v>
+        <v>5.3952722772695143</v>
       </c>
       <c r="G69" s="19">
         <v>140</v>
@@ -4111,11 +4111,11 @@
       </c>
       <c r="E70" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>20.536965329929927</v>
+        <v>25.358535141308824</v>
       </c>
       <c r="F70" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>7.2232295343398336</v>
+        <v>5.9177233425798663</v>
       </c>
       <c r="G70" s="19">
         <v>100</v>
@@ -4139,11 +4139,11 @@
       </c>
       <c r="E71" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>31.574251028174196</v>
+        <v>21.123721926043491</v>
       </c>
       <c r="F71" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.9342679852087867</v>
+        <v>4.7752226660293946</v>
       </c>
       <c r="G71" s="19">
         <v>50</v>
@@ -4167,11 +4167,11 @@
       </c>
       <c r="E72" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>25.914055320040109</v>
+        <v>21.124738853745598</v>
       </c>
       <c r="F72" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0775676866527304</v>
+        <v>5.6214399774899286</v>
       </c>
       <c r="G72" s="19">
         <v>120</v>
@@ -4195,11 +4195,11 @@
       </c>
       <c r="E73" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>26.087010513842518</v>
+        <v>19.390362994102269</v>
       </c>
       <c r="F73" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>9.3866923798800652</v>
+        <v>8.649612608766768</v>
       </c>
       <c r="G73" s="19">
         <v>200</v>
@@ -4223,11 +4223,11 @@
       </c>
       <c r="E74" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>21.938266762391216</v>
+        <v>20.840856495189531</v>
       </c>
       <c r="F74" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4256796452202449</v>
+        <v>4.6122126827960317</v>
       </c>
       <c r="G74" s="19">
         <v>80</v>
@@ -4251,11 +4251,11 @@
       </c>
       <c r="E75" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>29.751331379933109</v>
+        <v>18.397956148568419</v>
       </c>
       <c r="F75" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>4.372557053229654</v>
+        <v>6.4921272067401112</v>
       </c>
       <c r="G75" s="19">
         <v>40</v>
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E76" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>24.665459375606233</v>
+        <v>20.081315169369919</v>
       </c>
       <c r="F76" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.2530618652374708</v>
+        <v>4.5510573933970857</v>
       </c>
       <c r="G76" s="19">
         <v>110</v>
@@ -4307,11 +4307,11 @@
       </c>
       <c r="E77" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>26.891280238632596</v>
+        <v>22.1087780377777</v>
       </c>
       <c r="F77" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.1688250455940175</v>
+        <v>4.7743174192075211</v>
       </c>
       <c r="G77" s="19">
         <v>150</v>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="E78" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>27.921047660024644</v>
+        <v>24.364813461045813</v>
       </c>
       <c r="F78" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>8.7453267080935415</v>
+        <v>7.3254471594737529</v>
       </c>
       <c r="G78" s="19">
         <v>90</v>
@@ -4363,11 +4363,11 @@
       </c>
       <c r="E79" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>18.237357205577446</v>
+        <v>26.567402992324698</v>
       </c>
       <c r="F79" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7185925202154282</v>
+        <v>7.2940354018679514</v>
       </c>
       <c r="G79" s="19">
         <v>30</v>
@@ -4391,11 +4391,11 @@
       </c>
       <c r="E80" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>30.668362693835292</v>
+        <v>19.408607335510876</v>
       </c>
       <c r="F80" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>7.5148926513791361</v>
+        <v>7.1759290092401216</v>
       </c>
       <c r="G80" s="19">
         <v>20</v>
@@ -4419,11 +4419,11 @@
       </c>
       <c r="E81" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>22.475845451232125</v>
+        <v>24.461329878110188</v>
       </c>
       <c r="F81" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0808821386657863</v>
+        <v>5.2762184883653704</v>
       </c>
       <c r="G81" s="19">
         <v>70</v>
@@ -4447,11 +4447,11 @@
       </c>
       <c r="E82" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>26.674611199950725</v>
+        <v>20.196066465922513</v>
       </c>
       <c r="F82" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.0366037385539153</v>
+        <v>6.8078993142450415</v>
       </c>
       <c r="G82" s="19">
         <v>140</v>
@@ -4475,11 +4475,11 @@
       </c>
       <c r="E83" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>28.483677068527637</v>
+        <v>21.408777501953068</v>
       </c>
       <c r="F83" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1909655580303329</v>
+        <v>5.9305813185042036</v>
       </c>
       <c r="G83" s="19">
         <v>100</v>
@@ -4503,11 +4503,11 @@
       </c>
       <c r="E84" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>26.140629297600569</v>
+        <v>27.418910531861716</v>
       </c>
       <c r="F84" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>4.970671020934506</v>
+        <v>3.7753272368258832</v>
       </c>
       <c r="G84" s="19">
         <v>50</v>
@@ -4531,11 +4531,11 @@
       </c>
       <c r="E85" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>28.33415364926357</v>
+        <v>20.340645564941894</v>
       </c>
       <c r="F85" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>8.9370414154978999</v>
+        <v>8.4418968397972094</v>
       </c>
       <c r="G85" s="19">
         <v>120</v>
@@ -4559,11 +4559,11 @@
       </c>
       <c r="E86" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>27.581495198289339</v>
+        <v>27.384297477504763</v>
       </c>
       <c r="F86" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>11.470033147372963</v>
+        <v>4.7164346810796101</v>
       </c>
       <c r="G86" s="19">
         <v>200</v>
@@ -4587,11 +4587,11 @@
       </c>
       <c r="E87" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>22.902325954940888</v>
+        <v>25.75609486810162</v>
       </c>
       <c r="F87" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3181363712457879</v>
+        <v>6.3670271150230215</v>
       </c>
       <c r="G87" s="19">
         <v>80</v>
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E88" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>19.604896691022397</v>
+        <v>25.165195614420519</v>
       </c>
       <c r="F88" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8390220357627021</v>
+        <v>4.8395325231635624</v>
       </c>
       <c r="G88" s="19">
         <v>40</v>
@@ -4643,11 +4643,11 @@
       </c>
       <c r="E89" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>17.21954610618539</v>
+        <v>18.395056870943986</v>
       </c>
       <c r="F89" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>7.2912168290518373</v>
+        <v>4.7421867449542807</v>
       </c>
       <c r="G89" s="19">
         <v>110</v>
@@ -4671,11 +4671,11 @@
       </c>
       <c r="E90" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>22.084273545548772</v>
+        <v>28.401288004175647</v>
       </c>
       <c r="F90" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8962697223556599</v>
+        <v>7.6245035355237345</v>
       </c>
       <c r="G90" s="19">
         <v>150</v>
@@ -4699,11 +4699,11 @@
       </c>
       <c r="E91" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>20.021820985239252</v>
+        <v>28.104788073816856</v>
       </c>
       <c r="F91" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7086401633337083</v>
+        <v>7.0224115566303249</v>
       </c>
       <c r="G91" s="19">
         <v>90</v>
@@ -4727,11 +4727,11 @@
       </c>
       <c r="E92" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>23.200273341879551</v>
+        <v>27.663756932452728</v>
       </c>
       <c r="F92" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8490665370130337</v>
+        <v>4.7122493598107358</v>
       </c>
       <c r="G92" s="19">
         <v>30</v>
@@ -4755,11 +4755,11 @@
       </c>
       <c r="E93" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>23.87335703143544</v>
+        <v>18.019809422376255</v>
       </c>
       <c r="F93" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3007388982426136</v>
+        <v>2.0491657735125508</v>
       </c>
       <c r="G93" s="19">
         <v>20</v>
@@ -4783,11 +4783,11 @@
       </c>
       <c r="E94" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>22.469684013663652</v>
+        <v>22.556006795575097</v>
       </c>
       <c r="F94" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6867879889220188</v>
+        <v>9.905025334989876</v>
       </c>
       <c r="G94" s="19">
         <v>70</v>
@@ -4811,11 +4811,11 @@
       </c>
       <c r="E95" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>20.473392084807784</v>
+        <v>32.079930060281079</v>
       </c>
       <c r="F95" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1947487695132306</v>
+        <v>7.4106491787358291</v>
       </c>
       <c r="G95" s="19">
         <v>140</v>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="E96" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>21.489982927909825</v>
+        <v>20.719179572582707</v>
       </c>
       <c r="F96" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7028687380512864</v>
+        <v>7.609611609157084</v>
       </c>
       <c r="G96" s="19">
         <v>100</v>
@@ -4867,11 +4867,11 @@
       </c>
       <c r="E97" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>19.998477959322333</v>
+        <v>30.933000947365827</v>
       </c>
       <c r="F97" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>9.0011294979602354</v>
+        <v>8.4785661269638286</v>
       </c>
       <c r="G97" s="19">
         <v>50</v>
@@ -4895,11 +4895,11 @@
       </c>
       <c r="E98" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>31.614407584519356</v>
+        <v>32.380616711997106</v>
       </c>
       <c r="F98" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1117035795872767</v>
+        <v>6.0006526896007077</v>
       </c>
       <c r="G98" s="19">
         <v>120</v>
@@ -4923,11 +4923,11 @@
       </c>
       <c r="E99" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>21.770757918565646</v>
+        <v>25.759519595374091</v>
       </c>
       <c r="F99" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7830166281882991</v>
+        <v>7.1321429025480043</v>
       </c>
       <c r="G99" s="19">
         <v>200</v>
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E100" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>26.095105043215469</v>
+        <v>22.115784226437274</v>
       </c>
       <c r="F100" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4963326004728437</v>
+        <v>10.763807050383267</v>
       </c>
       <c r="G100" s="19">
         <v>80</v>
@@ -4979,11 +4979,11 @@
       </c>
       <c r="E101" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>27.376757870500061</v>
+        <v>23.086721036012101</v>
       </c>
       <c r="F101" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5465092341409967</v>
+        <v>6.4764852530918304</v>
       </c>
       <c r="G101" s="19">
         <v>40</v>
@@ -5007,11 +5007,11 @@
       </c>
       <c r="E102" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>29.554582852389466</v>
+        <v>21.931987889695652</v>
       </c>
       <c r="F102" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.425539431645034</v>
+        <v>5.7586780042102736</v>
       </c>
       <c r="G102" s="19">
         <v>110</v>
@@ -5035,11 +5035,11 @@
       </c>
       <c r="E103" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>30.351385862729643</v>
+        <v>21.487026607008453</v>
       </c>
       <c r="F103" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>9.9591740754751985</v>
+        <v>6.8860707543336286</v>
       </c>
       <c r="G103" s="19">
         <v>150</v>
@@ -5063,11 +5063,11 @@
       </c>
       <c r="E104" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>23.007618740676261</v>
+        <v>26.810233711409115</v>
       </c>
       <c r="F104" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4796889949596039</v>
+        <v>7.8444795415168995</v>
       </c>
       <c r="G104" s="19">
         <v>90</v>
@@ -5091,11 +5091,11 @@
       </c>
       <c r="E105" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>20.381536199653173</v>
+        <v>27.673945546608074</v>
       </c>
       <c r="F105" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>11.782223785451755</v>
+        <v>6.6977619490690907</v>
       </c>
       <c r="G105" s="19">
         <v>30</v>
@@ -5119,11 +5119,11 @@
       </c>
       <c r="E106" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>22.607164500584425</v>
+        <v>24.179322293546299</v>
       </c>
       <c r="F106" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4915795206794265</v>
+        <v>5.0335345071991036</v>
       </c>
       <c r="G106" s="19">
         <v>20</v>
@@ -5147,11 +5147,11 @@
       </c>
       <c r="E107" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>16.651302738696906</v>
+        <v>25.466743612017538</v>
       </c>
       <c r="F107" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4184305551503238</v>
+        <v>4.9728045482038326</v>
       </c>
       <c r="G107" s="19">
         <v>70</v>
@@ -5175,11 +5175,11 @@
       </c>
       <c r="E108" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>26.456324727178476</v>
+        <v>17.913433353630154</v>
       </c>
       <c r="F108" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4764869496907096</v>
+        <v>3.8961364062156529</v>
       </c>
       <c r="G108" s="19">
         <v>140</v>
@@ -5203,11 +5203,11 @@
       </c>
       <c r="E109" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>29.476937976295964</v>
+        <v>26.523405061398492</v>
       </c>
       <c r="F109" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>12.074664334181575</v>
+        <v>4.7221384549028773</v>
       </c>
       <c r="G109" s="19">
         <v>100</v>
@@ -5231,11 +5231,11 @@
       </c>
       <c r="E110" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>19.119542339066541</v>
+        <v>21.685118467137581</v>
       </c>
       <c r="F110" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.9650243836885517</v>
+        <v>2</v>
       </c>
       <c r="G110" s="19">
         <v>50</v>
@@ -5259,11 +5259,11 @@
       </c>
       <c r="E111" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>26.407309999952254</v>
+        <v>25.089124273593175</v>
       </c>
       <c r="F111" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7602650813890177</v>
+        <v>7.2602394833528034</v>
       </c>
       <c r="G111" s="19">
         <v>120</v>
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E112" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>31.070146258022636</v>
+        <v>28.571719905588985</v>
       </c>
       <c r="F112" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3205150034798789</v>
+        <v>4.1753359012388245</v>
       </c>
       <c r="G112" s="19">
         <v>200</v>
@@ -5315,11 +5315,11 @@
       </c>
       <c r="E113" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>19.191836514245018</v>
+        <v>17.106549905232189</v>
       </c>
       <c r="F113" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4200709959487563</v>
+        <v>7.1585859523052777</v>
       </c>
       <c r="G113" s="19">
         <v>80</v>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="E114" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>24.694917906283614</v>
+        <v>28.045908701511593</v>
       </c>
       <c r="F114" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8814270772842159</v>
+        <v>4.4669420825343771</v>
       </c>
       <c r="G114" s="19">
         <v>40</v>
@@ -5371,11 +5371,11 @@
       </c>
       <c r="E115" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>20.641896913993552</v>
+        <v>16.827826040565427</v>
       </c>
       <c r="F115" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5512065942967377</v>
+        <v>7.5710061439681855</v>
       </c>
       <c r="G115" s="19">
         <v>110</v>
@@ -5399,11 +5399,11 @@
       </c>
       <c r="E116" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>23.33127755496081</v>
+        <v>20.142857012800061</v>
       </c>
       <c r="F116" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7527474447884739</v>
+        <v>4.0888188758804773</v>
       </c>
       <c r="G116" s="19">
         <v>150</v>
@@ -5427,11 +5427,11 @@
       </c>
       <c r="E117" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>22.384498211748927</v>
+        <v>24.610616483522456</v>
       </c>
       <c r="F117" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>3.225773259784853</v>
+        <v>2</v>
       </c>
       <c r="G117" s="19">
         <v>90</v>
@@ -5455,11 +5455,11 @@
       </c>
       <c r="E118" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>19.080152475828939</v>
+        <v>22.968227788493273</v>
       </c>
       <c r="F118" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>10.074834153893628</v>
+        <v>2.9565160157856005</v>
       </c>
       <c r="G118" s="19">
         <v>30</v>
@@ -5483,11 +5483,11 @@
       </c>
       <c r="E119" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>19.501734133842511</v>
+        <v>17.534145580870383</v>
       </c>
       <c r="F119" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6047457353434291</v>
+        <v>7.8379246708233206</v>
       </c>
       <c r="G119" s="19">
         <v>20</v>
@@ -5511,11 +5511,11 @@
       </c>
       <c r="E120" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>16.389207482810978</v>
+        <v>22.559820008033387</v>
       </c>
       <c r="F120" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7168331392566181</v>
+        <v>4.8022013431145432</v>
       </c>
       <c r="G120" s="19">
         <v>70</v>
@@ -5539,11 +5539,11 @@
       </c>
       <c r="E121" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>33.883557340271096</v>
+        <v>22.185309457784278</v>
       </c>
       <c r="F121" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>8.6950804253196861</v>
+        <v>8.2529506347734376</v>
       </c>
       <c r="G121" s="19">
         <v>140</v>
@@ -5567,11 +5567,11 @@
       </c>
       <c r="E122" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>23.070002035834683</v>
+        <v>25.42761860062933</v>
       </c>
       <c r="F122" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>4.860289341981491</v>
+        <v>3.5077697536160919</v>
       </c>
       <c r="G122" s="19">
         <v>100</v>
@@ -5595,11 +5595,11 @@
       </c>
       <c r="E123" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>21.712850014259502</v>
+        <v>20.996252319494481</v>
       </c>
       <c r="F123" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4770175334478077</v>
+        <v>5.621948503823611</v>
       </c>
       <c r="G123" s="19">
         <v>50</v>
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E124" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>21.617642935727226</v>
+        <v>23.239702451991889</v>
       </c>
       <c r="F124" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6921152973384972</v>
+        <v>2.8338316006010791</v>
       </c>
       <c r="G124" s="19">
         <v>120</v>
@@ -5651,11 +5651,11 @@
       </c>
       <c r="E125" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>23.077888563752893</v>
+        <v>19.135598583058698</v>
       </c>
       <c r="F125" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5253991804178879</v>
+        <v>6.7265237127477402</v>
       </c>
       <c r="G125" s="19">
         <v>200</v>
@@ -5679,11 +5679,11 @@
       </c>
       <c r="E126" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>31.134256639234721</v>
+        <v>26.983910307832037</v>
       </c>
       <c r="F126" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4712755261540353</v>
+        <v>3.6222873493906071</v>
       </c>
       <c r="G126" s="19">
         <v>80</v>
@@ -5707,11 +5707,11 @@
       </c>
       <c r="E127" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>24.290278807852822</v>
+        <v>24.603002464674187</v>
       </c>
       <c r="F127" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4344859388025268</v>
+        <v>8.8311258353098658</v>
       </c>
       <c r="G127" s="19">
         <v>40</v>
@@ -5735,11 +5735,11 @@
       </c>
       <c r="E128" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>24.969303373033146</v>
+        <v>22.253752932936656</v>
       </c>
       <c r="F128" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.5049781749564666</v>
+        <v>6.7408686226795034</v>
       </c>
       <c r="G128" s="19">
         <v>110</v>
@@ -5763,11 +5763,11 @@
       </c>
       <c r="E129" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>24.145524383111937</v>
+        <v>24.829826950072309</v>
       </c>
       <c r="F129" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5839282139511939</v>
+        <v>4.1060614378247173</v>
       </c>
       <c r="G129" s="19">
         <v>150</v>
@@ -5791,11 +5791,11 @@
       </c>
       <c r="E130" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>28.794595148568167</v>
+        <v>21.654272667472963</v>
       </c>
       <c r="F130" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.9989402280629962</v>
+        <v>7.7982568820947495</v>
       </c>
       <c r="G130" s="19">
         <v>90</v>
@@ -5819,11 +5819,11 @@
       </c>
       <c r="E131" s="20">
         <f t="shared" ref="E131:E194" ca="1" si="4">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>26.619006122940057</v>
+        <v>22.238228891041867</v>
       </c>
       <c r="F131" s="20">
         <f t="shared" ref="F131:F194" ca="1" si="5">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>9.0462420465628508</v>
+        <v>4.2884742273447403</v>
       </c>
       <c r="G131" s="19">
         <v>30</v>
@@ -5847,11 +5847,11 @@
       </c>
       <c r="E132" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>22.156825568606962</v>
+        <v>25.384210096013085</v>
       </c>
       <c r="F132" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>3.1341471809208468</v>
+        <v>8.1029636943027494</v>
       </c>
       <c r="G132" s="19">
         <v>20</v>
@@ -5875,11 +5875,11 @@
       </c>
       <c r="E133" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>24.093225404705148</v>
+        <v>27.352326588748284</v>
       </c>
       <c r="F133" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>3.6379609373235535</v>
+        <v>6.390881436184368</v>
       </c>
       <c r="G133" s="19">
         <v>70</v>
@@ -5903,11 +5903,11 @@
       </c>
       <c r="E134" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>16.726440821390916</v>
+        <v>20.598137956180597</v>
       </c>
       <c r="F134" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.7195084604145849</v>
+        <v>5.4917368763141328</v>
       </c>
       <c r="G134" s="19">
         <v>140</v>
@@ -5931,11 +5931,11 @@
       </c>
       <c r="E135" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>26.152609343512477</v>
+        <v>28.504278824452634</v>
       </c>
       <c r="F135" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>7.0252301892653755</v>
       </c>
       <c r="G135" s="19">
         <v>100</v>
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E136" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>28.460586611237702</v>
+        <v>22.937445594541181</v>
       </c>
       <c r="F136" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>4.6652551016957799</v>
+        <v>4.3038048666811557</v>
       </c>
       <c r="G136" s="19">
         <v>50</v>
@@ -5987,11 +5987,11 @@
       </c>
       <c r="E137" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>17.473873862909556</v>
+        <v>23.729918375598409</v>
       </c>
       <c r="F137" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0033847495093706</v>
+        <v>5.6516026373452943</v>
       </c>
       <c r="G137" s="19">
         <v>120</v>
@@ -6015,11 +6015,11 @@
       </c>
       <c r="E138" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>17.370471367397386</v>
+        <v>20.173655288921346</v>
       </c>
       <c r="F138" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>4.5191110576856381</v>
+        <v>4.5276903237721005</v>
       </c>
       <c r="G138" s="19">
         <v>200</v>
@@ -6043,11 +6043,11 @@
       </c>
       <c r="E139" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>22.766432340615051</v>
+        <v>21.652404972444302</v>
       </c>
       <c r="F139" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5953357667929438</v>
+        <v>4.9060893793698783</v>
       </c>
       <c r="G139" s="19">
         <v>80</v>
@@ -6071,11 +6071,11 @@
       </c>
       <c r="E140" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>22.919693746010804</v>
+        <v>20.311977256969598</v>
       </c>
       <c r="F140" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>8.7989791750595501</v>
+        <v>8.0065150070445998</v>
       </c>
       <c r="G140" s="19">
         <v>40</v>
@@ -6099,11 +6099,11 @@
       </c>
       <c r="E141" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>24.448803077319962</v>
+        <v>19.866648317047012</v>
       </c>
       <c r="F141" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>7.2747776526996741</v>
+        <v>7.3685440680317207</v>
       </c>
       <c r="G141" s="19">
         <v>110</v>
@@ -6127,11 +6127,11 @@
       </c>
       <c r="E142" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>23.268537962539661</v>
+        <v>35.150166218875853</v>
       </c>
       <c r="F142" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>4.995797996358613</v>
+        <v>4.7294651437849975</v>
       </c>
       <c r="G142" s="19">
         <v>150</v>
@@ -6155,11 +6155,11 @@
       </c>
       <c r="E143" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>29.012057394857269</v>
+        <v>29.393649156216199</v>
       </c>
       <c r="F143" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.9735359630455749</v>
+        <v>5.6766661734170141</v>
       </c>
       <c r="G143" s="19">
         <v>90</v>
@@ -6183,11 +6183,11 @@
       </c>
       <c r="E144" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>23.830300198492765</v>
+        <v>22.003341687516915</v>
       </c>
       <c r="F144" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2444211655325637</v>
+        <v>2</v>
       </c>
       <c r="G144" s="19">
         <v>30</v>
@@ -6211,11 +6211,11 @@
       </c>
       <c r="E145" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>25.783742564583907</v>
+        <v>31.627960460290641</v>
       </c>
       <c r="F145" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.3416948471380374</v>
+        <v>8.6268565287006922</v>
       </c>
       <c r="G145" s="19">
         <v>20</v>
@@ -6239,11 +6239,11 @@
       </c>
       <c r="E146" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>27.076011300511311</v>
+        <v>25.094039980156253</v>
       </c>
       <c r="F146" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>8.7932240256655856</v>
+        <v>8.5607088235844859</v>
       </c>
       <c r="G146" s="19">
         <v>70</v>
@@ -6267,11 +6267,11 @@
       </c>
       <c r="E147" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>26.3714679680741</v>
+        <v>19.061375754576133</v>
       </c>
       <c r="F147" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>8.8190003299008577</v>
+        <v>8.4753941500433108</v>
       </c>
       <c r="G147" s="19">
         <v>140</v>
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E148" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>13.495040448160527</v>
+        <v>26.96727225449726</v>
       </c>
       <c r="F148" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.4510969757378733</v>
+        <v>4.244857089561739</v>
       </c>
       <c r="G148" s="19">
         <v>100</v>
@@ -6323,11 +6323,11 @@
       </c>
       <c r="E149" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>24.214478049871083</v>
+        <v>27.686263772217963</v>
       </c>
       <c r="F149" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>7.2552459451361351</v>
+        <v>11.005395262383555</v>
       </c>
       <c r="G149" s="19">
         <v>50</v>
@@ -6351,11 +6351,11 @@
       </c>
       <c r="E150" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>18.000354654603129</v>
+        <v>30.155896986825333</v>
       </c>
       <c r="F150" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>9.1133731771703683</v>
       </c>
       <c r="G150" s="19">
         <v>120</v>
@@ -6379,11 +6379,11 @@
       </c>
       <c r="E151" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>24.286054928996666</v>
+        <v>18.989409154015704</v>
       </c>
       <c r="F151" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1739336976258787</v>
+        <v>7.0230437117729458</v>
       </c>
       <c r="G151" s="19">
         <v>200</v>
@@ -6407,11 +6407,11 @@
       </c>
       <c r="E152" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>23.673994822212517</v>
+        <v>28.130151383530496</v>
       </c>
       <c r="F152" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>7.5274096013494951</v>
+        <v>3.5405063338137501</v>
       </c>
       <c r="G152" s="19">
         <v>80</v>
@@ -6435,11 +6435,11 @@
       </c>
       <c r="E153" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>21.354617259823009</v>
+        <v>18.693379602586244</v>
       </c>
       <c r="F153" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.5516922524596328</v>
+        <v>4.9979390831696255</v>
       </c>
       <c r="G153" s="19">
         <v>40</v>
@@ -6463,11 +6463,11 @@
       </c>
       <c r="E154" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>22.019619438340719</v>
+        <v>21.019687639219342</v>
       </c>
       <c r="F154" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.8647024195366759</v>
+        <v>3.6258778743549573</v>
       </c>
       <c r="G154" s="19">
         <v>110</v>
@@ -6491,11 +6491,11 @@
       </c>
       <c r="E155" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>24.483887110266608</v>
+        <v>20.480456274628839</v>
       </c>
       <c r="F155" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>9.7844295775111103</v>
+        <v>8.5370687841358812</v>
       </c>
       <c r="G155" s="19">
         <v>150</v>
@@ -6519,11 +6519,11 @@
       </c>
       <c r="E156" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>21.427105393447722</v>
+        <v>18.558994540395119</v>
       </c>
       <c r="F156" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>4.4939635638102935</v>
+        <v>5.4396034168544887</v>
       </c>
       <c r="G156" s="19">
         <v>90</v>
@@ -6547,11 +6547,11 @@
       </c>
       <c r="E157" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>20.544587707443931</v>
+        <v>15.774088086904186</v>
       </c>
       <c r="F157" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>7.2973702892074428</v>
+        <v>7.9075422237937456</v>
       </c>
       <c r="G157" s="19">
         <v>30</v>
@@ -6575,11 +6575,11 @@
       </c>
       <c r="E158" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>25.998485400065132</v>
+        <v>17.362170072741993</v>
       </c>
       <c r="F158" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.6945952075895239</v>
+        <v>8.7200903077965428</v>
       </c>
       <c r="G158" s="19">
         <v>20</v>
@@ -6603,11 +6603,11 @@
       </c>
       <c r="E159" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>34.607013128457602</v>
+        <v>22.146784180783492</v>
       </c>
       <c r="F159" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>11.104962775995492</v>
+        <v>4.9629112772554747</v>
       </c>
       <c r="G159" s="19">
         <v>70</v>
@@ -6631,11 +6631,11 @@
       </c>
       <c r="E160" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>20.187883664650077</v>
+        <v>19.347250972717198</v>
       </c>
       <c r="F160" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>4.410725409728423</v>
+        <v>5.7292355061775293</v>
       </c>
       <c r="G160" s="19">
         <v>140</v>
@@ -6659,11 +6659,11 @@
       </c>
       <c r="E161" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>25.025665054850233</v>
+        <v>19.843571330878344</v>
       </c>
       <c r="F161" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>8.1192260649439447</v>
+        <v>4.9847009199881338</v>
       </c>
       <c r="G161" s="19">
         <v>100</v>
@@ -6687,11 +6687,11 @@
       </c>
       <c r="E162" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>19.254607183777946</v>
+        <v>21.976960645578728</v>
       </c>
       <c r="F162" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0821107776970686</v>
+        <v>8.9994635498326154</v>
       </c>
       <c r="G162" s="19">
         <v>50</v>
@@ -6715,11 +6715,11 @@
       </c>
       <c r="E163" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>20.550311419742286</v>
+        <v>21.001460986439678</v>
       </c>
       <c r="F163" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>8.6539525604803416</v>
+        <v>4.0773747482773741</v>
       </c>
       <c r="G163" s="19">
         <v>120</v>
@@ -6743,11 +6743,11 @@
       </c>
       <c r="E164" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>26.468226019641431</v>
+        <v>22.190829745050785</v>
       </c>
       <c r="F164" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.4283605269389472</v>
+        <v>6.714478034208252</v>
       </c>
       <c r="G164" s="19">
         <v>200</v>
@@ -6771,11 +6771,11 @@
       </c>
       <c r="E165" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>24.553592196498162</v>
+        <v>19.431647929636075</v>
       </c>
       <c r="F165" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.937757310394713</v>
+        <v>5.6017701877136075</v>
       </c>
       <c r="G165" s="19">
         <v>80</v>
@@ -6799,11 +6799,11 @@
       </c>
       <c r="E166" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>22.499561356152586</v>
+        <v>18.440394171612333</v>
       </c>
       <c r="F166" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>11.577108760932965</v>
+        <v>5.9072945288023782</v>
       </c>
       <c r="G166" s="19">
         <v>40</v>
@@ -6827,11 +6827,11 @@
       </c>
       <c r="E167" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>26.84669320347588</v>
+        <v>20.072670782380929</v>
       </c>
       <c r="F167" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>4.2850063914857008</v>
+        <v>4.8495019651457119</v>
       </c>
       <c r="G167" s="19">
         <v>110</v>
@@ -6855,11 +6855,11 @@
       </c>
       <c r="E168" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>25.153906118526802</v>
+        <v>28.808014044631285</v>
       </c>
       <c r="F168" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>7.3476590135410778</v>
+        <v>5.353210740960483</v>
       </c>
       <c r="G168" s="19">
         <v>150</v>
@@ -6883,11 +6883,11 @@
       </c>
       <c r="E169" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>17.021582622585086</v>
+        <v>23.1097123569544</v>
       </c>
       <c r="F169" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.8874052530630587</v>
+        <v>6.5245810887756086</v>
       </c>
       <c r="G169" s="19">
         <v>90</v>
@@ -6911,11 +6911,11 @@
       </c>
       <c r="E170" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>23.644428023993935</v>
+        <v>22.205327390287003</v>
       </c>
       <c r="F170" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1798457561880022</v>
+        <v>4.1246054829834353</v>
       </c>
       <c r="G170" s="19">
         <v>30</v>
@@ -6939,11 +6939,11 @@
       </c>
       <c r="E171" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>21.778046046066379</v>
+        <v>28.464256883919337</v>
       </c>
       <c r="F171" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>8.7649138609383161</v>
+        <v>7.8885192888854094</v>
       </c>
       <c r="G171" s="19">
         <v>20</v>
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E172" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>26.182497732057435</v>
+        <v>23.90085316223227</v>
       </c>
       <c r="F172" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.7213985785084978</v>
+        <v>6.0804925411177768</v>
       </c>
       <c r="G172" s="19">
         <v>70</v>
@@ -6995,11 +6995,11 @@
       </c>
       <c r="E173" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>22.571789904445939</v>
+        <v>25.563357053687074</v>
       </c>
       <c r="F173" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0652582625718541</v>
+        <v>5.8462374967894801</v>
       </c>
       <c r="G173" s="19">
         <v>140</v>
@@ -7023,11 +7023,11 @@
       </c>
       <c r="E174" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>22.179099300773814</v>
+        <v>24.48849984709851</v>
       </c>
       <c r="F174" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>8.5209983988946547</v>
+        <v>4.4926631638086167</v>
       </c>
       <c r="G174" s="19">
         <v>100</v>
@@ -7051,11 +7051,11 @@
       </c>
       <c r="E175" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>21.527700715810781</v>
+        <v>22.268954069824449</v>
       </c>
       <c r="F175" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.8240530260966903</v>
+        <v>8.4520811063948056</v>
       </c>
       <c r="G175" s="19">
         <v>50</v>
@@ -7079,11 +7079,11 @@
       </c>
       <c r="E176" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>21.052041640467937</v>
+        <v>26.804782000054132</v>
       </c>
       <c r="F176" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>9.2392286564653432</v>
+        <v>7.2748486125806826</v>
       </c>
       <c r="G176" s="19">
         <v>120</v>
@@ -7107,11 +7107,11 @@
       </c>
       <c r="E177" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>22.640786945027738</v>
+        <v>22.325896752146193</v>
       </c>
       <c r="F177" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.9410255005651953</v>
+        <v>4.6446962577901596</v>
       </c>
       <c r="G177" s="19">
         <v>200</v>
@@ -7135,11 +7135,11 @@
       </c>
       <c r="E178" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>33.618535332432437</v>
+        <v>22.75440281746517</v>
       </c>
       <c r="F178" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>3.4214704281983743</v>
+        <v>6.8102200380759372</v>
       </c>
       <c r="G178" s="19">
         <v>80</v>
@@ -7163,11 +7163,11 @@
       </c>
       <c r="E179" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>25.54129370436743</v>
+        <v>25.655863727848299</v>
       </c>
       <c r="F179" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.515674016206952</v>
+        <v>7.5637399027602665</v>
       </c>
       <c r="G179" s="19">
         <v>40</v>
@@ -7191,11 +7191,11 @@
       </c>
       <c r="E180" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>19.374579745747006</v>
+        <v>18.987193335576205</v>
       </c>
       <c r="F180" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.5883693772545904</v>
+        <v>9.5641724976543188</v>
       </c>
       <c r="G180" s="19">
         <v>110</v>
@@ -7219,11 +7219,11 @@
       </c>
       <c r="E181" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>23.741197330285349</v>
+        <v>20.73766490613303</v>
       </c>
       <c r="F181" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0734849173802061</v>
+        <v>5.883820970219042</v>
       </c>
       <c r="G181" s="19">
         <v>150</v>
@@ -7247,11 +7247,11 @@
       </c>
       <c r="E182" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>28.281150158310055</v>
+        <v>27.819277735064148</v>
       </c>
       <c r="F182" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>9.5752004427273683</v>
+        <v>5.7393382521322813</v>
       </c>
       <c r="G182" s="19">
         <v>90</v>
@@ -7275,11 +7275,11 @@
       </c>
       <c r="E183" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>21.591086100995053</v>
+        <v>19.161802347014529</v>
       </c>
       <c r="F183" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.919883592928346</v>
+        <v>3.6785849410654219</v>
       </c>
       <c r="G183" s="19">
         <v>30</v>
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E184" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>18.786449187490906</v>
+        <v>26.060904531444631</v>
       </c>
       <c r="F184" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>4.4542451896052979</v>
+        <v>2.6930148398757789</v>
       </c>
       <c r="G184" s="19">
         <v>20</v>
@@ -7331,11 +7331,11 @@
       </c>
       <c r="E185" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>23.36228340980535</v>
+        <v>23.815517842474186</v>
       </c>
       <c r="F185" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0326770552251352</v>
+        <v>8.1675662318958615</v>
       </c>
       <c r="G185" s="19">
         <v>70</v>
@@ -7359,11 +7359,11 @@
       </c>
       <c r="E186" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>25.340494042063973</v>
+        <v>23.256599873759587</v>
       </c>
       <c r="F186" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>3.967690494535248</v>
+        <v>3.7984651897522181</v>
       </c>
       <c r="G186" s="19">
         <v>140</v>
@@ -7387,11 +7387,11 @@
       </c>
       <c r="E187" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>25.303688116735223</v>
+        <v>23.970641408925125</v>
       </c>
       <c r="F187" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>7.4908553687401227</v>
+        <v>5.9460941128607159</v>
       </c>
       <c r="G187" s="19">
         <v>100</v>
@@ -7415,11 +7415,11 @@
       </c>
       <c r="E188" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>24.941327180221304</v>
+        <v>21.839150716040095</v>
       </c>
       <c r="F188" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>10.451353996934241</v>
+        <v>7.7088472382240472</v>
       </c>
       <c r="G188" s="19">
         <v>50</v>
@@ -7443,11 +7443,11 @@
       </c>
       <c r="E189" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>21.400320852181903</v>
+        <v>23.27798856567421</v>
       </c>
       <c r="F189" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2611907118850185</v>
+        <v>5.0424796738211892</v>
       </c>
       <c r="G189" s="19">
         <v>120</v>
@@ -7471,11 +7471,11 @@
       </c>
       <c r="E190" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>22.125943739149342</v>
+        <v>19.747985586133002</v>
       </c>
       <c r="F190" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0685458358542936</v>
+        <v>5.763544738779248</v>
       </c>
       <c r="G190" s="19">
         <v>200</v>
@@ -7499,11 +7499,11 @@
       </c>
       <c r="E191" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>19.328573895790267</v>
+        <v>20.788986426922797</v>
       </c>
       <c r="F191" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.8333057258576826</v>
+        <v>7.750103825731264</v>
       </c>
       <c r="G191" s="19">
         <v>80</v>
@@ -7527,11 +7527,11 @@
       </c>
       <c r="E192" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>26.356207566111308</v>
+        <v>21.272661308232678</v>
       </c>
       <c r="F192" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>2.9006525626202033</v>
+        <v>5.0606301178646076</v>
       </c>
       <c r="G192" s="19">
         <v>40</v>
@@ -7555,11 +7555,11 @@
       </c>
       <c r="E193" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>20.385514234261269</v>
+        <v>19.193544701084409</v>
       </c>
       <c r="F193" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.4087491390642688</v>
+        <v>3.6349089537672437</v>
       </c>
       <c r="G193" s="19">
         <v>110</v>
@@ -7583,11 +7583,11 @@
       </c>
       <c r="E194" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>11.37373886264249</v>
+        <v>24.371647727270108</v>
       </c>
       <c r="F194" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.8795015107740962</v>
+        <v>5.2408072764169358</v>
       </c>
       <c r="G194" s="19">
         <v>150</v>
@@ -7611,11 +7611,11 @@
       </c>
       <c r="E195" s="20">
         <f t="shared" ref="E195:E258" ca="1" si="6">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>16.516116247332434</v>
+        <v>31.738183786713343</v>
       </c>
       <c r="F195" s="20">
         <f t="shared" ref="F195:F258" ca="1" si="7">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>7.5077359534133681</v>
+        <v>5.409811424180698</v>
       </c>
       <c r="G195" s="19">
         <v>90</v>
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E196" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>25.682286246405081</v>
+        <v>19.407458944652138</v>
       </c>
       <c r="F196" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.6449978088412092</v>
+        <v>6.0331864108532143</v>
       </c>
       <c r="G196" s="19">
         <v>30</v>
@@ -7667,11 +7667,11 @@
       </c>
       <c r="E197" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>17.568487765841123</v>
+        <v>22.59532419262349</v>
       </c>
       <c r="F197" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.8275711317487451</v>
+        <v>4.40452370393621</v>
       </c>
       <c r="G197" s="19">
         <v>20</v>
@@ -7695,11 +7695,11 @@
       </c>
       <c r="E198" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>17.227302818261936</v>
+        <v>28.915085004086379</v>
       </c>
       <c r="F198" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3.3619231833659744</v>
+        <v>8.4465321844719483</v>
       </c>
       <c r="G198" s="19">
         <v>70</v>
@@ -7723,11 +7723,11 @@
       </c>
       <c r="E199" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>14.61607492842313</v>
+        <v>18.775358796974189</v>
       </c>
       <c r="F199" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.7679537867692652</v>
+        <v>3.7213641488127767</v>
       </c>
       <c r="G199" s="19">
         <v>140</v>
@@ -7751,11 +7751,11 @@
       </c>
       <c r="E200" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>18.274322537226013</v>
+        <v>20.456926945277392</v>
       </c>
       <c r="F200" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3.6529340824638208</v>
+        <v>4.9408943334871154</v>
       </c>
       <c r="G200" s="19">
         <v>100</v>
@@ -7779,11 +7779,11 @@
       </c>
       <c r="E201" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>20.168164377177341</v>
+        <v>16.496764272623334</v>
       </c>
       <c r="F201" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.4759717452886516</v>
+        <v>3.465114627935427</v>
       </c>
       <c r="G201" s="19">
         <v>50</v>
@@ -7807,11 +7807,11 @@
       </c>
       <c r="E202" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>28.261988147101633</v>
+        <v>22.224452283677426</v>
       </c>
       <c r="F202" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3202854554580608</v>
+        <v>3.5089932886718054</v>
       </c>
       <c r="G202" s="19">
         <v>120</v>
@@ -7835,11 +7835,11 @@
       </c>
       <c r="E203" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>24.110631142303575</v>
+        <v>18.512217054788216</v>
       </c>
       <c r="F203" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2.1405063130962527</v>
+        <v>6.6367349185730466</v>
       </c>
       <c r="G203" s="19">
         <v>200</v>
@@ -7863,11 +7863,11 @@
       </c>
       <c r="E204" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>19.464706753514843</v>
+        <v>21.132518661105518</v>
       </c>
       <c r="F204" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3.150891548736495</v>
+        <v>2.1349302442589</v>
       </c>
       <c r="G204" s="19">
         <v>80</v>
@@ -7891,11 +7891,11 @@
       </c>
       <c r="E205" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>19.984901894569898</v>
+        <v>21.971313110591993</v>
       </c>
       <c r="F205" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2.9635243549023862</v>
+        <v>4.3485579431466483</v>
       </c>
       <c r="G205" s="19">
         <v>40</v>
@@ -7919,11 +7919,11 @@
       </c>
       <c r="E206" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>17.077618160192607</v>
+        <v>35.202841239738611</v>
       </c>
       <c r="F206" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.5074983795616488</v>
+        <v>5.0019686250393853</v>
       </c>
       <c r="G206" s="19">
         <v>110</v>
@@ -7947,11 +7947,11 @@
       </c>
       <c r="E207" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>25.558508441259747</v>
+        <v>31.80197877995554</v>
       </c>
       <c r="F207" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.1544373087551669</v>
+        <v>5.3865559229867053</v>
       </c>
       <c r="G207" s="19">
         <v>150</v>
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E208" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>24.837180024550818</v>
+        <v>17.359715566816661</v>
       </c>
       <c r="F208" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>7.4985914205446615</v>
+        <v>5.962954783598982</v>
       </c>
       <c r="G208" s="19">
         <v>90</v>
@@ -8003,11 +8003,11 @@
       </c>
       <c r="E209" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>30.833642432357806</v>
+        <v>16.885673800290974</v>
       </c>
       <c r="F209" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>8.5954155167291439</v>
+        <v>7.6193810004101845</v>
       </c>
       <c r="G209" s="19">
         <v>30</v>
@@ -8031,11 +8031,11 @@
       </c>
       <c r="E210" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>19.547801579782867</v>
+        <v>23.857761462159626</v>
       </c>
       <c r="F210" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.7632980081856484</v>
+        <v>6.3195509583291418</v>
       </c>
       <c r="G210" s="19">
         <v>20</v>
@@ -8059,11 +8059,11 @@
       </c>
       <c r="E211" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>20.19632300106796</v>
+        <v>22.65418035675614</v>
       </c>
       <c r="F211" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.6141154431906326</v>
+        <v>5.9676695975054681</v>
       </c>
       <c r="G211" s="19">
         <v>70</v>
@@ -8087,11 +8087,11 @@
       </c>
       <c r="E212" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>22.691464249388495</v>
+        <v>30.850568648398745</v>
       </c>
       <c r="F212" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>7.7433983734294305</v>
+        <v>6.0754521346267794</v>
       </c>
       <c r="G212" s="19">
         <v>140</v>
@@ -8115,11 +8115,11 @@
       </c>
       <c r="E213" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>27.847644139484984</v>
+        <v>13.857564671491799</v>
       </c>
       <c r="F213" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2.4562066077745071</v>
+        <v>3.9793627414713906</v>
       </c>
       <c r="G213" s="19">
         <v>100</v>
@@ -8143,11 +8143,11 @@
       </c>
       <c r="E214" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>21.209048984000066</v>
+        <v>21.73885609227289</v>
       </c>
       <c r="F214" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.4782580640876146</v>
+        <v>6.0950884994828023</v>
       </c>
       <c r="G214" s="19">
         <v>50</v>
@@ -8171,11 +8171,11 @@
       </c>
       <c r="E215" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>26.316940761132649</v>
+        <v>27.508017842899019</v>
       </c>
       <c r="F215" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.6538538521426807</v>
+        <v>5.2137662880923994</v>
       </c>
       <c r="G215" s="19">
         <v>120</v>
@@ -8199,11 +8199,11 @@
       </c>
       <c r="E216" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>20.89471254570811</v>
+        <v>23.256195566755771</v>
       </c>
       <c r="F216" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>8.0285550899698404</v>
+        <v>5.753472324632809</v>
       </c>
       <c r="G216" s="19">
         <v>200</v>
@@ -8227,11 +8227,11 @@
       </c>
       <c r="E217" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>31.617238521032608</v>
+        <v>22.569380333084261</v>
       </c>
       <c r="F217" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0050061998866076</v>
+        <v>8.5996124302573751</v>
       </c>
       <c r="G217" s="19">
         <v>80</v>
@@ -8255,11 +8255,11 @@
       </c>
       <c r="E218" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>19.810841706268448</v>
+        <v>22.048935418254523</v>
       </c>
       <c r="F218" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0426994706710966</v>
+        <v>7.4155122517630581</v>
       </c>
       <c r="G218" s="19">
         <v>40</v>
@@ -8283,11 +8283,11 @@
       </c>
       <c r="E219" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>25.883880485200692</v>
+        <v>22.425195584158867</v>
       </c>
       <c r="F219" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.7568800247671774</v>
+        <v>5.7153758990710024</v>
       </c>
       <c r="G219" s="19">
         <v>110</v>
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E220" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>27.751898252462649</v>
+        <v>30.828460539613911</v>
       </c>
       <c r="F220" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.2161673218333418</v>
+        <v>6.4087080945191168</v>
       </c>
       <c r="G220" s="19">
         <v>150</v>
@@ -8339,11 +8339,11 @@
       </c>
       <c r="E221" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>20.053339289759069</v>
+        <v>21.197467908802814</v>
       </c>
       <c r="F221" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.8771186831936015</v>
+        <v>4.7858329702698121</v>
       </c>
       <c r="G221" s="19">
         <v>90</v>
@@ -8367,11 +8367,11 @@
       </c>
       <c r="E222" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>25.137864763141568</v>
+        <v>22.833417066879715</v>
       </c>
       <c r="F222" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1663322012101407</v>
+        <v>7.2974688983145723</v>
       </c>
       <c r="G222" s="19">
         <v>30</v>
@@ -8395,11 +8395,11 @@
       </c>
       <c r="E223" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>26.31097710382225</v>
+        <v>18.146211961575005</v>
       </c>
       <c r="F223" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.7920129932400126</v>
+        <v>4.1086122554350588</v>
       </c>
       <c r="G223" s="19">
         <v>20</v>
@@ -8423,11 +8423,11 @@
       </c>
       <c r="E224" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>29.531454197879011</v>
+        <v>21.728100084278015</v>
       </c>
       <c r="F224" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.0480503461002693</v>
+        <v>5.2248886146237323</v>
       </c>
       <c r="G224" s="19">
         <v>70</v>
@@ -8451,11 +8451,11 @@
       </c>
       <c r="E225" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>26.610001965087665</v>
+        <v>26.713246892253061</v>
       </c>
       <c r="F225" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.6052302017340319</v>
+        <v>6.0331842706360508</v>
       </c>
       <c r="G225" s="19">
         <v>140</v>
@@ -8479,11 +8479,11 @@
       </c>
       <c r="E226" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>32.49442549173996</v>
+        <v>21.760361999499754</v>
       </c>
       <c r="F226" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.6016767392155398</v>
+        <v>5.6588473541580537</v>
       </c>
       <c r="G226" s="19">
         <v>100</v>
@@ -8507,11 +8507,11 @@
       </c>
       <c r="E227" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>17.635710308375941</v>
+        <v>21.577199291692594</v>
       </c>
       <c r="F227" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.7766449561348665</v>
+        <v>4.8951052712534358</v>
       </c>
       <c r="G227" s="19">
         <v>50</v>
@@ -8535,11 +8535,11 @@
       </c>
       <c r="E228" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>29.675854946279394</v>
+        <v>21.049268063683364</v>
       </c>
       <c r="F228" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.4612272785300391</v>
+        <v>6.6000790815915993</v>
       </c>
       <c r="G228" s="19">
         <v>120</v>
@@ -8563,11 +8563,11 @@
       </c>
       <c r="E229" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>24.407071567385334</v>
+        <v>28.527642459814416</v>
       </c>
       <c r="F229" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>7.1723583344067148</v>
+        <v>2</v>
       </c>
       <c r="G229" s="19">
         <v>200</v>
@@ -8591,11 +8591,11 @@
       </c>
       <c r="E230" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>32.158948931733967</v>
+        <v>28.723074200442504</v>
       </c>
       <c r="F230" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>6.6525942603747685</v>
       </c>
       <c r="G230" s="19">
         <v>80</v>
@@ -8619,11 +8619,11 @@
       </c>
       <c r="E231" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>26.716249388524226</v>
+        <v>18.741006710503566</v>
       </c>
       <c r="F231" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3.3209737570363065</v>
+        <v>4.6452516891211513</v>
       </c>
       <c r="G231" s="19">
         <v>40</v>
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E232" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>20.833965798566631</v>
+        <v>14.705471644889142</v>
       </c>
       <c r="F232" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.9792924992432086</v>
+        <v>5.6401905204015383</v>
       </c>
       <c r="G232" s="19">
         <v>110</v>
@@ -8675,11 +8675,11 @@
       </c>
       <c r="E233" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>22.73624473914586</v>
+        <v>23.437189069264516</v>
       </c>
       <c r="F233" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9120010472231428</v>
+        <v>5.3234002246877115</v>
       </c>
       <c r="G233" s="19">
         <v>150</v>
@@ -8703,11 +8703,11 @@
       </c>
       <c r="E234" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>23.523152085049805</v>
+        <v>23.936193041371858</v>
       </c>
       <c r="F234" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5863503474034202</v>
+        <v>5.4576445126702806</v>
       </c>
       <c r="G234" s="19">
         <v>90</v>
@@ -8731,11 +8731,11 @@
       </c>
       <c r="E235" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>21.981479661079216</v>
+        <v>24.199876824839205</v>
       </c>
       <c r="F235" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3.615529229862176</v>
+        <v>5.1981048583645855</v>
       </c>
       <c r="G235" s="19">
         <v>30</v>
@@ -8759,11 +8759,11 @@
       </c>
       <c r="E236" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>25.544053172009438</v>
+        <v>17.67391144152424</v>
       </c>
       <c r="F236" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.7078639588245998</v>
+        <v>5.9587960326199987</v>
       </c>
       <c r="G236" s="19">
         <v>20</v>
@@ -8787,11 +8787,11 @@
       </c>
       <c r="E237" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>24.20059806358325</v>
+        <v>20.00047851191151</v>
       </c>
       <c r="F237" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2.7018931611259389</v>
+        <v>10.22649929791228</v>
       </c>
       <c r="G237" s="19">
         <v>70</v>
@@ -8815,11 +8815,11 @@
       </c>
       <c r="E238" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>20.798914368512559</v>
+        <v>20.543542844966169</v>
       </c>
       <c r="F238" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9849477642219195</v>
+        <v>5.0997880180875317</v>
       </c>
       <c r="G238" s="19">
         <v>140</v>
@@ -8843,11 +8843,11 @@
       </c>
       <c r="E239" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>20.653209513222556</v>
+        <v>25.574266028688456</v>
       </c>
       <c r="F239" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.8504844701112857</v>
+        <v>2</v>
       </c>
       <c r="G239" s="19">
         <v>100</v>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="E240" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>21.682974489141671</v>
+        <v>24.470692036478813</v>
       </c>
       <c r="F240" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.118936724935228</v>
+        <v>9.0503575405286547</v>
       </c>
       <c r="G240" s="19">
         <v>50</v>
@@ -8899,11 +8899,11 @@
       </c>
       <c r="E241" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>20.440427976479238</v>
+        <v>26.636421163154083</v>
       </c>
       <c r="F241" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>8.0348909272387132</v>
+        <v>7.5307987610946414</v>
       </c>
       <c r="G241" s="19">
         <v>120</v>
@@ -8927,11 +8927,11 @@
       </c>
       <c r="E242" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>21.484425804529359</v>
+        <v>25.524476143068739</v>
       </c>
       <c r="F242" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.6809366344443486</v>
+        <v>5.2347760639905818</v>
       </c>
       <c r="G242" s="19">
         <v>200</v>
@@ -8955,11 +8955,11 @@
       </c>
       <c r="E243" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>27.147546709310454</v>
+        <v>23.839121327083284</v>
       </c>
       <c r="F243" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>7.275950917793967</v>
+        <v>5.1486357068165756</v>
       </c>
       <c r="G243" s="19">
         <v>80</v>
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E244" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>24.091183577624054</v>
+        <v>28.360357315915309</v>
       </c>
       <c r="F244" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>11.493315175408817</v>
+        <v>7.0653616895044999</v>
       </c>
       <c r="G244" s="19">
         <v>40</v>
@@ -9011,11 +9011,11 @@
       </c>
       <c r="E245" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>13.896107587695772</v>
+        <v>20.677652076358441</v>
       </c>
       <c r="F245" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.9280304588379256</v>
+        <v>5.1854035232857409</v>
       </c>
       <c r="G245" s="19">
         <v>110</v>
@@ -9039,11 +9039,11 @@
       </c>
       <c r="E246" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>20.238644222037983</v>
+        <v>23.787097041226303</v>
       </c>
       <c r="F246" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>8.9770661235408777</v>
+        <v>4.3141206983268896</v>
       </c>
       <c r="G246" s="19">
         <v>150</v>
@@ -9067,11 +9067,11 @@
       </c>
       <c r="E247" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>27.787768734874842</v>
+        <v>25.3351000254466</v>
       </c>
       <c r="F247" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.9630568848499301</v>
+        <v>6.9562768126227192</v>
       </c>
       <c r="G247" s="19">
         <v>90</v>
@@ -9095,11 +9095,11 @@
       </c>
       <c r="E248" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>28.786829126839535</v>
+        <v>23.73247326824908</v>
       </c>
       <c r="F248" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2.7960420056565485</v>
+        <v>8.1690250456700397</v>
       </c>
       <c r="G248" s="19">
         <v>30</v>
@@ -9123,11 +9123,11 @@
       </c>
       <c r="E249" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>20.842195171168065</v>
+        <v>26.214923761065556</v>
       </c>
       <c r="F249" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.328730654273456</v>
+        <v>2.8107791227343526</v>
       </c>
       <c r="G249" s="19">
         <v>20</v>
@@ -9151,11 +9151,11 @@
       </c>
       <c r="E250" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>25.710387886475413</v>
+        <v>24.49197079913295</v>
       </c>
       <c r="F250" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.9584234442340893</v>
+        <v>6.5507933621077692</v>
       </c>
       <c r="G250" s="19">
         <v>70</v>
@@ -9179,11 +9179,11 @@
       </c>
       <c r="E251" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>21.486175730613162</v>
+        <v>20.949435671609354</v>
       </c>
       <c r="F251" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.3313109046050027</v>
+        <v>4.164905726896694</v>
       </c>
       <c r="G251" s="19">
         <v>140</v>
@@ -9207,11 +9207,11 @@
       </c>
       <c r="E252" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>20.917615705426201</v>
+        <v>24.06432733089212</v>
       </c>
       <c r="F252" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6.4992852309302593</v>
+        <v>2.2116903160867949</v>
       </c>
       <c r="G252" s="19">
         <v>100</v>
@@ -9235,11 +9235,11 @@
       </c>
       <c r="E253" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>23.59790827518631</v>
+        <v>21.789088192732205</v>
       </c>
       <c r="F253" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.6687181330291558</v>
+        <v>2.5994283055719656</v>
       </c>
       <c r="G253" s="19">
         <v>50</v>
@@ -9263,11 +9263,11 @@
       </c>
       <c r="E254" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>20.644411100312489</v>
+        <v>30.59368735821651</v>
       </c>
       <c r="F254" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1903916166417456</v>
+        <v>4.4978550753845781</v>
       </c>
       <c r="G254" s="19">
         <v>120</v>
@@ -9291,11 +9291,11 @@
       </c>
       <c r="E255" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>19.814733329655112</v>
+        <v>26.227806706839615</v>
       </c>
       <c r="F255" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3.6599091314868839</v>
+        <v>3.6265141860261867</v>
       </c>
       <c r="G255" s="19">
         <v>200</v>
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E256" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>16.243720622793035</v>
+        <v>17.968168669325209</v>
       </c>
       <c r="F256" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>9.8738952569741194</v>
+        <v>4.2872999606879629</v>
       </c>
       <c r="G256" s="19">
         <v>80</v>
@@ -9347,11 +9347,11 @@
       </c>
       <c r="E257" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>24.667253725737702</v>
+        <v>21.261350644814904</v>
       </c>
       <c r="F257" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5.6257655284167258</v>
+        <v>6.9965411446052164</v>
       </c>
       <c r="G257" s="19">
         <v>40</v>
@@ -9375,11 +9375,11 @@
       </c>
       <c r="E258" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>18.732666236248932</v>
+        <v>33.549617469818727</v>
       </c>
       <c r="F258" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>7.1372191222920645</v>
+        <v>9.9932043235092607</v>
       </c>
       <c r="G258" s="19">
         <v>110</v>
@@ -9403,11 +9403,11 @@
       </c>
       <c r="E259" s="20">
         <f t="shared" ref="E259:E322" ca="1" si="8">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>19.341525713391977</v>
+        <v>26.168681295051556</v>
       </c>
       <c r="F259" s="20">
         <f t="shared" ref="F259:F322" ca="1" si="9">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>6.866222019209177</v>
+        <v>4.7908689920441834</v>
       </c>
       <c r="G259" s="19">
         <v>150</v>
@@ -9431,11 +9431,11 @@
       </c>
       <c r="E260" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>24.290448634359681</v>
+        <v>20.660839937993995</v>
       </c>
       <c r="F260" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>9.869115648202726</v>
+        <v>6.4063262772900877</v>
       </c>
       <c r="G260" s="19">
         <v>90</v>
@@ -9459,11 +9459,11 @@
       </c>
       <c r="E261" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>25.913465624402072</v>
+        <v>27.435166482649702</v>
       </c>
       <c r="F261" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.5634264052771965</v>
+        <v>6.1192983098980456</v>
       </c>
       <c r="G261" s="19">
         <v>30</v>
@@ -9487,11 +9487,11 @@
       </c>
       <c r="E262" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>22.08448535795851</v>
+        <v>18.379509279659239</v>
       </c>
       <c r="F262" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.7296203220177926</v>
+        <v>8.8287701726383609</v>
       </c>
       <c r="G262" s="19">
         <v>20</v>
@@ -9515,11 +9515,11 @@
       </c>
       <c r="E263" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>21.852280054460472</v>
+        <v>24.973383963369464</v>
       </c>
       <c r="F263" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>4.0116762500410257</v>
+        <v>8.489362977865234</v>
       </c>
       <c r="G263" s="19">
         <v>70</v>
@@ -9543,11 +9543,11 @@
       </c>
       <c r="E264" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>27.685445356906229</v>
+        <v>25.210700657324828</v>
       </c>
       <c r="F264" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>7.8629260038360567</v>
+        <v>4.8765554563024622</v>
       </c>
       <c r="G264" s="19">
         <v>140</v>
@@ -9571,11 +9571,11 @@
       </c>
       <c r="E265" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>27.779924084891402</v>
+        <v>20.814923346102177</v>
       </c>
       <c r="F265" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>7.7051152059926382</v>
+        <v>6.3361281129648974</v>
       </c>
       <c r="G265" s="19">
         <v>100</v>
@@ -9599,11 +9599,11 @@
       </c>
       <c r="E266" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>19.425902999173722</v>
+        <v>22.002348828505966</v>
       </c>
       <c r="F266" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.0958727195869669</v>
+        <v>4.8064664464055866</v>
       </c>
       <c r="G266" s="19">
         <v>50</v>
@@ -9627,11 +9627,11 @@
       </c>
       <c r="E267" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>25.729373011162302</v>
+        <v>18.689693781695457</v>
       </c>
       <c r="F267" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>4.7658263301673376</v>
+        <v>8.5532739928703236</v>
       </c>
       <c r="G267" s="19">
         <v>120</v>
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E268" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>22.347537632540472</v>
+        <v>27.046858044649245</v>
       </c>
       <c r="F268" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>3.4372949188285267</v>
+        <v>5.7048442977465061</v>
       </c>
       <c r="G268" s="19">
         <v>200</v>
@@ -9683,11 +9683,11 @@
       </c>
       <c r="E269" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>26.735766796108059</v>
+        <v>26.045484818625546</v>
       </c>
       <c r="F269" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.0978432058904914</v>
+        <v>5.5828450439965938</v>
       </c>
       <c r="G269" s="19">
         <v>80</v>
@@ -9711,11 +9711,11 @@
       </c>
       <c r="E270" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>27.964753980506174</v>
+        <v>25.081542402840956</v>
       </c>
       <c r="F270" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>7.8651477651963573</v>
+        <v>7.0588839915462351</v>
       </c>
       <c r="G270" s="19">
         <v>40</v>
@@ -9739,11 +9739,11 @@
       </c>
       <c r="E271" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>23.516993590506431</v>
+        <v>19.647899817875121</v>
       </c>
       <c r="F271" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>7.5409158776933074</v>
+        <v>3.8612873467065967</v>
       </c>
       <c r="G271" s="19">
         <v>110</v>
@@ -9767,11 +9767,11 @@
       </c>
       <c r="E272" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>23.25810539927835</v>
+        <v>16.770977262532632</v>
       </c>
       <c r="F272" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.4309989941433301</v>
+        <v>8.6609854191431754</v>
       </c>
       <c r="G272" s="19">
         <v>150</v>
@@ -9795,11 +9795,11 @@
       </c>
       <c r="E273" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>24.193926740148449</v>
+        <v>25.964958017658716</v>
       </c>
       <c r="F273" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>4.5823836976721006</v>
+        <v>6.2090260730445674</v>
       </c>
       <c r="G273" s="19">
         <v>90</v>
@@ -9823,11 +9823,11 @@
       </c>
       <c r="E274" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>26.788875791022473</v>
+        <v>20.781406853907285</v>
       </c>
       <c r="F274" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>7.7589042476704169</v>
+        <v>2</v>
       </c>
       <c r="G274" s="19">
         <v>30</v>
@@ -9851,11 +9851,11 @@
       </c>
       <c r="E275" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>19.988757185655061</v>
+        <v>16.623370461454609</v>
       </c>
       <c r="F275" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>3.026464336029794</v>
+        <v>5.2694750973148787</v>
       </c>
       <c r="G275" s="19">
         <v>20</v>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="E276" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>19.128218433046232</v>
+        <v>24.60753792207824</v>
       </c>
       <c r="F276" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>3.4103016670329866</v>
+        <v>8.5574507545919509</v>
       </c>
       <c r="G276" s="19">
         <v>70</v>
@@ -9907,11 +9907,11 @@
       </c>
       <c r="E277" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>20.707195680263009</v>
+        <v>21.672025855702568</v>
       </c>
       <c r="F277" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>3.3579631987491396</v>
+        <v>4.2888207096381405</v>
       </c>
       <c r="G277" s="19">
         <v>140</v>
@@ -9935,11 +9935,11 @@
       </c>
       <c r="E278" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>33.761575995833994</v>
+        <v>32.242641821860396</v>
       </c>
       <c r="F278" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3467974998249215</v>
+        <v>5.231274520768884</v>
       </c>
       <c r="G278" s="19">
         <v>100</v>
@@ -9963,11 +9963,11 @@
       </c>
       <c r="E279" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>23.150129565897632</v>
+        <v>21.292572469579561</v>
       </c>
       <c r="F279" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0638245334264598</v>
+        <v>8.3981861864897915</v>
       </c>
       <c r="G279" s="19">
         <v>50</v>
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E280" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>20.46139340158776</v>
+        <v>21.553660789078581</v>
       </c>
       <c r="F280" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9039667859761051</v>
+        <v>6.5871773869972294</v>
       </c>
       <c r="G280" s="19">
         <v>120</v>
@@ -10019,11 +10019,11 @@
       </c>
       <c r="E281" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>25.15956565794826</v>
+        <v>27.398936876650154</v>
       </c>
       <c r="F281" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>5.545287100091147</v>
+        <v>6.413553487600347</v>
       </c>
       <c r="G281" s="19">
         <v>200</v>
@@ -10047,11 +10047,11 @@
       </c>
       <c r="E282" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>26.069945392228082</v>
+        <v>23.043967106308504</v>
       </c>
       <c r="F282" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>7.1041940136526076</v>
+        <v>4.2150283016615608</v>
       </c>
       <c r="G282" s="19">
         <v>80</v>
@@ -10075,11 +10075,11 @@
       </c>
       <c r="E283" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>21.694813772227228</v>
+        <v>15.2844458908059</v>
       </c>
       <c r="F283" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2372645064040588</v>
+        <v>4.7195189642922628</v>
       </c>
       <c r="G283" s="19">
         <v>40</v>
@@ -10103,11 +10103,11 @@
       </c>
       <c r="E284" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>26.833132825794966</v>
+        <v>27.899432309727167</v>
       </c>
       <c r="F284" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.2575905898318105</v>
+        <v>6.8114505603370192</v>
       </c>
       <c r="G284" s="19">
         <v>110</v>
@@ -10131,11 +10131,11 @@
       </c>
       <c r="E285" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>15.869975540494359</v>
+        <v>24.568689601806749</v>
       </c>
       <c r="F285" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9710276587200486</v>
+        <v>5.6719355389715922</v>
       </c>
       <c r="G285" s="19">
         <v>150</v>
@@ -10159,11 +10159,11 @@
       </c>
       <c r="E286" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>23.784051449475026</v>
+        <v>21.355579830676376</v>
       </c>
       <c r="F286" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>5.9724940908199651</v>
+        <v>7.0269324275682381</v>
       </c>
       <c r="G286" s="19">
         <v>90</v>
@@ -10187,11 +10187,11 @@
       </c>
       <c r="E287" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>25.021134052111879</v>
+        <v>20.476117574290786</v>
       </c>
       <c r="F287" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>7.6926919782903385</v>
+        <v>7.7374635637205111</v>
       </c>
       <c r="G287" s="19">
         <v>30</v>
@@ -10215,11 +10215,11 @@
       </c>
       <c r="E288" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>27.546647375750027</v>
+        <v>25.785444717465783</v>
       </c>
       <c r="F288" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.1749710505271977</v>
+        <v>7.0465264866986566</v>
       </c>
       <c r="G288" s="19">
         <v>20</v>
@@ -10243,11 +10243,11 @@
       </c>
       <c r="E289" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>25.360774760770923</v>
+        <v>30.437314829140494</v>
       </c>
       <c r="F289" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>5.707672098508346</v>
+        <v>3.6371400357423553</v>
       </c>
       <c r="G289" s="19">
         <v>70</v>
@@ -10271,11 +10271,11 @@
       </c>
       <c r="E290" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>21.517283798423772</v>
+        <v>26.933950477621476</v>
       </c>
       <c r="F290" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.1572662241612326</v>
+        <v>8.6182250020896944</v>
       </c>
       <c r="G290" s="19">
         <v>140</v>
@@ -10299,11 +10299,11 @@
       </c>
       <c r="E291" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>21.74950237329481</v>
+        <v>25.544455886556751</v>
       </c>
       <c r="F291" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>7.2583849446031516</v>
+        <v>2.8706569810401099</v>
       </c>
       <c r="G291" s="19">
         <v>100</v>
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E292" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>29.830471856162536</v>
+        <v>23.198744208659679</v>
       </c>
       <c r="F292" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>4.2263094342285079</v>
+        <v>6.3243323480338312</v>
       </c>
       <c r="G292" s="19">
         <v>50</v>
@@ -10355,11 +10355,11 @@
       </c>
       <c r="E293" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>20.702436144174627</v>
+        <v>26.875613836885773</v>
       </c>
       <c r="F293" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>2.178473245022448</v>
+        <v>6.8906725955885957</v>
       </c>
       <c r="G293" s="19">
         <v>120</v>
@@ -10383,11 +10383,11 @@
       </c>
       <c r="E294" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>27.426579356569693</v>
+        <v>26.548337376449012</v>
       </c>
       <c r="F294" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.0399125553990158</v>
+        <v>6.7962827824552203</v>
       </c>
       <c r="G294" s="19">
         <v>200</v>
@@ -10411,11 +10411,11 @@
       </c>
       <c r="E295" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>27.045735300136833</v>
+        <v>31.075863994168511</v>
       </c>
       <c r="F295" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.2056229372887994</v>
+        <v>5.7958584289816768</v>
       </c>
       <c r="G295" s="19">
         <v>80</v>
@@ -10439,11 +10439,11 @@
       </c>
       <c r="E296" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>25.812236750379647</v>
+        <v>14.58935126587598</v>
       </c>
       <c r="F296" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>4.8233632096431736</v>
+        <v>6.5215358545552178</v>
       </c>
       <c r="G296" s="19">
         <v>40</v>
@@ -10467,11 +10467,11 @@
       </c>
       <c r="E297" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>24.61741104121943</v>
+        <v>27.889902303276155</v>
       </c>
       <c r="F297" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>4.6912198381575756</v>
+        <v>8.2004075028537038</v>
       </c>
       <c r="G297" s="19">
         <v>110</v>
@@ -10495,11 +10495,11 @@
       </c>
       <c r="E298" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>27.047952411538279</v>
+        <v>20.274235218793766</v>
       </c>
       <c r="F298" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.4974908417715822</v>
+        <v>4.812828108009958</v>
       </c>
       <c r="G298" s="19">
         <v>150</v>
@@ -10523,11 +10523,11 @@
       </c>
       <c r="E299" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>27.502074999537321</v>
+        <v>19.949568821189228</v>
       </c>
       <c r="F299" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>4.2602485119407989</v>
+        <v>5.8210105304722042</v>
       </c>
       <c r="G299" s="19">
         <v>90</v>
@@ -10551,11 +10551,11 @@
       </c>
       <c r="E300" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>19.042941756731924</v>
+        <v>18.967759890624286</v>
       </c>
       <c r="F300" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.4211885995801019</v>
+        <v>3.3603371676788667</v>
       </c>
       <c r="G300" s="19">
         <v>30</v>
@@ -10579,11 +10579,11 @@
       </c>
       <c r="E301" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>24.822577551648454</v>
+        <v>26.176642952060856</v>
       </c>
       <c r="F301" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>9.5665583516197419</v>
       </c>
       <c r="G301" s="19">
         <v>20</v>
@@ -10607,11 +10607,11 @@
       </c>
       <c r="E302" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>28.467200886712323</v>
+        <v>30.023897876022666</v>
       </c>
       <c r="F302" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>7.1021524454200087</v>
       </c>
       <c r="G302" s="19">
         <v>70</v>
@@ -10635,11 +10635,11 @@
       </c>
       <c r="E303" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>21.930522189143701</v>
+        <v>27.080545952590874</v>
       </c>
       <c r="F303" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9340457851998858</v>
+        <v>7.8135184066172894</v>
       </c>
       <c r="G303" s="19">
         <v>140</v>
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E304" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>21.506301976142232</v>
+        <v>23.668600525944239</v>
       </c>
       <c r="F304" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.0060084786430501</v>
+        <v>2</v>
       </c>
       <c r="G304" s="19">
         <v>100</v>
@@ -10691,11 +10691,11 @@
       </c>
       <c r="E305" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>25.061442165065934</v>
+        <v>28.434744723129516</v>
       </c>
       <c r="F305" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.3434251080811963</v>
+        <v>6.5676360767661883</v>
       </c>
       <c r="G305" s="19">
         <v>50</v>
@@ -10719,11 +10719,11 @@
       </c>
       <c r="E306" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>23.891682446782571</v>
+        <v>19.601357276660142</v>
       </c>
       <c r="F306" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.4666484348400042</v>
+        <v>6.6423362095929228</v>
       </c>
       <c r="G306" s="19">
         <v>120</v>
@@ -10747,11 +10747,11 @@
       </c>
       <c r="E307" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>22.613207131430176</v>
+        <v>24.032406731958943</v>
       </c>
       <c r="F307" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>3.5946993222957806</v>
+        <v>7.5131470034197001</v>
       </c>
       <c r="G307" s="19">
         <v>200</v>
@@ -10775,11 +10775,11 @@
       </c>
       <c r="E308" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>17.976068510654006</v>
+        <v>20.261724015822651</v>
       </c>
       <c r="F308" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.1423366836420694</v>
+        <v>5.7259952447115898</v>
       </c>
       <c r="G308" s="19">
         <v>80</v>
@@ -10803,11 +10803,11 @@
       </c>
       <c r="E309" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>28.996332612423011</v>
+        <v>36</v>
       </c>
       <c r="F309" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>7.3598144615012249</v>
+        <v>6.5752752769886627</v>
       </c>
       <c r="G309" s="19">
         <v>40</v>
@@ -10831,11 +10831,11 @@
       </c>
       <c r="E310" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>19.978948901161836</v>
+        <v>23.014903160773361</v>
       </c>
       <c r="F310" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>2.9750000039365294</v>
+        <v>6.2055397745144649</v>
       </c>
       <c r="G310" s="19">
         <v>110</v>
@@ -10859,11 +10859,11 @@
       </c>
       <c r="E311" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>20.377526707324083</v>
+        <v>21.805320320876888</v>
       </c>
       <c r="F311" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>8.4270659606886973</v>
+        <v>2</v>
       </c>
       <c r="G311" s="19">
         <v>150</v>
@@ -10887,11 +10887,11 @@
       </c>
       <c r="E312" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>30.032903164245102</v>
+        <v>22.237180058961155</v>
       </c>
       <c r="F312" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>6.1956144962279183</v>
+        <v>4.1454136834255717</v>
       </c>
       <c r="G312" s="19">
         <v>90</v>
@@ -10915,11 +10915,11 @@
       </c>
       <c r="E313" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>14.129369432069542</v>
+        <v>21.565359195178708</v>
       </c>
       <c r="F313" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>4.2438504035110727</v>
+        <v>8.4827705466889185</v>
       </c>
       <c r="G313" s="19">
         <v>30</v>
@@ -10943,11 +10943,11 @@
       </c>
       <c r="E314" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>27.151266989824069</v>
+        <v>25.078877350311803</v>
       </c>
       <c r="F314" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>7.1946618796311572</v>
+        <v>4.472202232326798</v>
       </c>
       <c r="G314" s="19">
         <v>20</v>
@@ -10971,11 +10971,11 @@
       </c>
       <c r="E315" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>22.540527597703004</v>
+        <v>29.947223887707196</v>
       </c>
       <c r="F315" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>7.2451703465184387</v>
+        <v>5.4040641866921968</v>
       </c>
       <c r="G315" s="19">
         <v>70</v>
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E316" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>22.658763400536337</v>
+        <v>25.425579131728217</v>
       </c>
       <c r="F316" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>10.306081079646782</v>
+        <v>7.2550499628779521</v>
       </c>
       <c r="G316" s="19">
         <v>140</v>
@@ -11027,11 +11027,11 @@
       </c>
       <c r="E317" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>27.017597119234956</v>
+        <v>27.484395931169793</v>
       </c>
       <c r="F317" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>5.7541711298259521</v>
+        <v>11.35977301286759</v>
       </c>
       <c r="G317" s="19">
         <v>100</v>
@@ -11055,11 +11055,11 @@
       </c>
       <c r="E318" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>21.385386731664063</v>
+        <v>26.678921863378765</v>
       </c>
       <c r="F318" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>4.6889492173551579</v>
+        <v>4.5496393430127711</v>
       </c>
       <c r="G318" s="19">
         <v>50</v>
@@ -11083,11 +11083,11 @@
       </c>
       <c r="E319" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>22.2337242746705</v>
+        <v>22.170397903365203</v>
       </c>
       <c r="F319" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>3.6038036348144034</v>
+        <v>2</v>
       </c>
       <c r="G319" s="19">
         <v>120</v>
@@ -11111,11 +11111,11 @@
       </c>
       <c r="E320" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>19.856154559043272</v>
+        <v>27.905731923424938</v>
       </c>
       <c r="F320" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>7.8434353336883191</v>
+        <v>7.7665660279399358</v>
       </c>
       <c r="G320" s="19">
         <v>200</v>
@@ -11139,11 +11139,11 @@
       </c>
       <c r="E321" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>17.207985858619256</v>
+        <v>21.615586564988352</v>
       </c>
       <c r="F321" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>3.3727361523707122</v>
+        <v>5.90576889726694</v>
       </c>
       <c r="G321" s="19">
         <v>80</v>
@@ -11167,11 +11167,11 @@
       </c>
       <c r="E322" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>30.621104640405978</v>
+        <v>20.364311702013026</v>
       </c>
       <c r="F322" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>3.247658927039601</v>
+        <v>8.2404192247014318</v>
       </c>
       <c r="G322" s="19">
         <v>40</v>
@@ -11195,11 +11195,11 @@
       </c>
       <c r="E323" s="20">
         <f t="shared" ref="E323:E386" ca="1" si="10">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>28.733657959243594</v>
+        <v>22.365773150016103</v>
       </c>
       <c r="F323" s="20">
         <f t="shared" ref="F323:F386" ca="1" si="11">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>6.593321812695133</v>
+        <v>3.31920339153266</v>
       </c>
       <c r="G323" s="19">
         <v>110</v>
@@ -11223,11 +11223,11 @@
       </c>
       <c r="E324" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>27.239384200374278</v>
+        <v>18.810577937621314</v>
       </c>
       <c r="F324" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>6.2001833916697633</v>
+        <v>7.8463931884766138</v>
       </c>
       <c r="G324" s="19">
         <v>150</v>
@@ -11251,11 +11251,11 @@
       </c>
       <c r="E325" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>26.619872425028003</v>
+        <v>31.683346932703969</v>
       </c>
       <c r="F325" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>3.0735174420817035</v>
+        <v>4.3651426089927465</v>
       </c>
       <c r="G325" s="19">
         <v>90</v>
@@ -11279,11 +11279,11 @@
       </c>
       <c r="E326" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>20.074842428622151</v>
+        <v>21.569088971959818</v>
       </c>
       <c r="F326" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.9052002294344916</v>
+        <v>5.9472437417858064</v>
       </c>
       <c r="G326" s="19">
         <v>30</v>
@@ -11307,11 +11307,11 @@
       </c>
       <c r="E327" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>23.469869656607003</v>
+        <v>17.32136196559204</v>
       </c>
       <c r="F327" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>6.738530983324404</v>
+        <v>5.7207076765720322</v>
       </c>
       <c r="G327" s="19">
         <v>20</v>
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E328" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>24.468208991648098</v>
+        <v>20.808879559004861</v>
       </c>
       <c r="F328" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.3744395295709211</v>
+        <v>8.9653018444511581</v>
       </c>
       <c r="G328" s="19">
         <v>70</v>
@@ -11363,11 +11363,11 @@
       </c>
       <c r="E329" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>21.742908036734736</v>
+        <v>21.774191021299082</v>
       </c>
       <c r="F329" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>8.7707179465473413</v>
+        <v>5.9408210714021354</v>
       </c>
       <c r="G329" s="19">
         <v>140</v>
@@ -11391,11 +11391,11 @@
       </c>
       <c r="E330" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>14.522501383622014</v>
+        <v>25.784537563426149</v>
       </c>
       <c r="F330" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>8.4099679711400341</v>
+        <v>2</v>
       </c>
       <c r="G330" s="19">
         <v>100</v>
@@ -11419,11 +11419,11 @@
       </c>
       <c r="E331" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>27.60952910565684</v>
+        <v>20.099644720961127</v>
       </c>
       <c r="F331" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>6.1972101903086987</v>
+        <v>9.7284913472872461</v>
       </c>
       <c r="G331" s="19">
         <v>50</v>
@@ -11447,11 +11447,11 @@
       </c>
       <c r="E332" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>17.602939251597029</v>
+        <v>17.066446078532358</v>
       </c>
       <c r="F332" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.7774786764435486</v>
+        <v>4.6275325906675038</v>
       </c>
       <c r="G332" s="19">
         <v>120</v>
@@ -11475,11 +11475,11 @@
       </c>
       <c r="E333" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>22.802981048069562</v>
+        <v>28.944032147753184</v>
       </c>
       <c r="F333" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>6.4522406737629572</v>
+        <v>6.0371560453059949</v>
       </c>
       <c r="G333" s="19">
         <v>200</v>
@@ -11503,11 +11503,11 @@
       </c>
       <c r="E334" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>20.976054716200252</v>
+        <v>18.282300912535113</v>
       </c>
       <c r="F334" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>4.2042512622452302</v>
       </c>
       <c r="G334" s="19">
         <v>80</v>
@@ -11531,11 +11531,11 @@
       </c>
       <c r="E335" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>14.561305584480138</v>
+        <v>24.961909941325054</v>
       </c>
       <c r="F335" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>8.3881840038771873</v>
+        <v>4.1592757008108094</v>
       </c>
       <c r="G335" s="19">
         <v>40</v>
@@ -11559,11 +11559,11 @@
       </c>
       <c r="E336" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>23.302190619900319</v>
+        <v>28.469762819208754</v>
       </c>
       <c r="F336" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>8.3800739769595527</v>
+        <v>6.1189276378731874</v>
       </c>
       <c r="G336" s="19">
         <v>110</v>
@@ -11587,11 +11587,11 @@
       </c>
       <c r="E337" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>23.146264508219556</v>
+        <v>19.353542817529505</v>
       </c>
       <c r="F337" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>6.1432716725401963</v>
+        <v>5.2064337372024312</v>
       </c>
       <c r="G337" s="19">
         <v>150</v>
@@ -11615,11 +11615,11 @@
       </c>
       <c r="E338" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>24.416246526114435</v>
+        <v>20.113100978036243</v>
       </c>
       <c r="F338" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.5537054369876175</v>
+        <v>4.9689873804137417</v>
       </c>
       <c r="G338" s="19">
         <v>90</v>
@@ -11643,11 +11643,11 @@
       </c>
       <c r="E339" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>19.38250137773613</v>
+        <v>16.465904980542234</v>
       </c>
       <c r="F339" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>8.0828336755294288</v>
+        <v>5.5958952018687143</v>
       </c>
       <c r="G339" s="19">
         <v>30</v>
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E340" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>25.894007175823901</v>
+        <v>20.001843861010336</v>
       </c>
       <c r="F340" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.3193968852031253</v>
+        <v>5.6083227403462601</v>
       </c>
       <c r="G340" s="19">
         <v>20</v>
@@ -11699,11 +11699,11 @@
       </c>
       <c r="E341" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>20.435695628257623</v>
+        <v>23.868594895810919</v>
       </c>
       <c r="F341" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.0102730135639355</v>
+        <v>7.5157426244460286</v>
       </c>
       <c r="G341" s="19">
         <v>70</v>
@@ -11727,11 +11727,11 @@
       </c>
       <c r="E342" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>18.496305399316689</v>
+        <v>27.789016552144233</v>
       </c>
       <c r="F342" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>4.8980985130170387</v>
       </c>
       <c r="G342" s="19">
         <v>140</v>
@@ -11755,11 +11755,11 @@
       </c>
       <c r="E343" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>26.226209970495884</v>
+        <v>32.2806972174835</v>
       </c>
       <c r="F343" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.7984367966957073</v>
+        <v>3.4787008901958254</v>
       </c>
       <c r="G343" s="19">
         <v>100</v>
@@ -11783,11 +11783,11 @@
       </c>
       <c r="E344" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>26.70673368977447</v>
+        <v>19.126956350051454</v>
       </c>
       <c r="F344" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>6.1718279533946054</v>
+        <v>7.4245332734019192</v>
       </c>
       <c r="G344" s="19">
         <v>50</v>
@@ -11811,11 +11811,11 @@
       </c>
       <c r="E345" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>25.370495512055218</v>
+        <v>18.332542790347976</v>
       </c>
       <c r="F345" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.9473919182247563</v>
+        <v>2.7876314015331758</v>
       </c>
       <c r="G345" s="19">
         <v>120</v>
@@ -11839,11 +11839,11 @@
       </c>
       <c r="E346" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>20.270997366188446</v>
+        <v>23.431917792839933</v>
       </c>
       <c r="F346" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>3.8995614251228581</v>
+        <v>4.5478968293802566</v>
       </c>
       <c r="G346" s="19">
         <v>200</v>
@@ -11867,11 +11867,11 @@
       </c>
       <c r="E347" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>22.49464390939864</v>
+        <v>20.306617257072595</v>
       </c>
       <c r="F347" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5769816610122476</v>
+        <v>6.0132489205820585</v>
       </c>
       <c r="G347" s="19">
         <v>80</v>
@@ -11895,11 +11895,11 @@
       </c>
       <c r="E348" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>22.300611272586643</v>
+        <v>22.744551674068948</v>
       </c>
       <c r="F348" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.1799897090969571</v>
+        <v>5.1569895170716915</v>
       </c>
       <c r="G348" s="19">
         <v>40</v>
@@ -11923,11 +11923,11 @@
       </c>
       <c r="E349" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>21.18745424543679</v>
+        <v>22.601220574043115</v>
       </c>
       <c r="F349" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>6.199547964978227</v>
+        <v>2</v>
       </c>
       <c r="G349" s="19">
         <v>110</v>
@@ -11951,11 +11951,11 @@
       </c>
       <c r="E350" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>29.670511085668124</v>
+        <v>24.544019284111339</v>
       </c>
       <c r="F350" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>8.1587142520362725</v>
+        <v>2.51751628026989</v>
       </c>
       <c r="G350" s="19">
         <v>150</v>
@@ -11979,11 +11979,11 @@
       </c>
       <c r="E351" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>20.91302696797074</v>
+        <v>21.204015795974989</v>
       </c>
       <c r="F351" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.7471920475446217</v>
+        <v>5.7935321464833693</v>
       </c>
       <c r="G351" s="19">
         <v>90</v>
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E352" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>16.552273742115542</v>
+        <v>27.794210232257875</v>
       </c>
       <c r="F352" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.5016675908129606</v>
+        <v>7.9811667897723506</v>
       </c>
       <c r="G352" s="19">
         <v>30</v>
@@ -12035,11 +12035,11 @@
       </c>
       <c r="E353" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>17.354332132582073</v>
+        <v>17.252149994682082</v>
       </c>
       <c r="F353" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.2064897061933726</v>
+        <v>9.3134807349413187</v>
       </c>
       <c r="G353" s="19">
         <v>20</v>
@@ -12063,11 +12063,11 @@
       </c>
       <c r="E354" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>19.513148880654406</v>
+        <v>21.227437533176204</v>
       </c>
       <c r="F354" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.0597654262414178</v>
+        <v>2.855564795308879</v>
       </c>
       <c r="G354" s="19">
         <v>70</v>
@@ -12091,11 +12091,11 @@
       </c>
       <c r="E355" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>23.14648128390948</v>
+        <v>26.031142858983007</v>
       </c>
       <c r="F355" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.433530594957432</v>
+        <v>8.1720194029072442</v>
       </c>
       <c r="G355" s="19">
         <v>140</v>
@@ -12119,11 +12119,11 @@
       </c>
       <c r="E356" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>28.394832552072167</v>
+        <v>24.003496090434805</v>
       </c>
       <c r="F356" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>3.079678858494344</v>
+        <v>6.4955473501219414</v>
       </c>
       <c r="G356" s="19">
         <v>100</v>
@@ -12147,11 +12147,11 @@
       </c>
       <c r="E357" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>25.620406372939843</v>
+        <v>23.750788102218486</v>
       </c>
       <c r="F357" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.8722407202486728</v>
+        <v>6.4131167141499263</v>
       </c>
       <c r="G357" s="19">
         <v>50</v>
@@ -12175,11 +12175,11 @@
       </c>
       <c r="E358" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>21.179057740826895</v>
+        <v>25.730334509473291</v>
       </c>
       <c r="F358" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>8.5690082007182653</v>
+        <v>10.273931292815927</v>
       </c>
       <c r="G358" s="19">
         <v>120</v>
@@ -12203,11 +12203,11 @@
       </c>
       <c r="E359" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>20.778181406373225</v>
+        <v>22.265530617736196</v>
       </c>
       <c r="F359" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.542409992653945</v>
+        <v>4.843808183444545</v>
       </c>
       <c r="G359" s="19">
         <v>200</v>
@@ -12231,11 +12231,11 @@
       </c>
       <c r="E360" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>21.008589135605934</v>
+        <v>24.618726057929475</v>
       </c>
       <c r="F360" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.256648649443834</v>
+        <v>2</v>
       </c>
       <c r="G360" s="19">
         <v>80</v>
@@ -12259,11 +12259,11 @@
       </c>
       <c r="E361" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>27.118261422563947</v>
+        <v>25.149361111487263</v>
       </c>
       <c r="F361" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.7915478269235923</v>
+        <v>8.1607084342285816</v>
       </c>
       <c r="G361" s="19">
         <v>40</v>
@@ -12287,11 +12287,11 @@
       </c>
       <c r="E362" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>26.435788098520092</v>
+        <v>18.995510802454845</v>
       </c>
       <c r="F362" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>6.2861496280382498</v>
+        <v>3.1577633151508255</v>
       </c>
       <c r="G362" s="19">
         <v>110</v>
@@ -12315,11 +12315,11 @@
       </c>
       <c r="E363" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>18.451533677273879</v>
+        <v>24.471468441037302</v>
       </c>
       <c r="F363" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>3.4656708216948178</v>
+        <v>3.8215945188333484</v>
       </c>
       <c r="G363" s="19">
         <v>150</v>
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E364" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>20.91888196186504</v>
+        <v>25.058962880003808</v>
       </c>
       <c r="F364" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.8254692974520079</v>
+        <v>4.7710996886016268</v>
       </c>
       <c r="G364" s="19">
         <v>90</v>
@@ -12371,11 +12371,11 @@
       </c>
       <c r="E365" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>17.383920019275195</v>
+        <v>18.729552039598172</v>
       </c>
       <c r="F365" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>6.6214572432599308</v>
+        <v>6.8148816997630304</v>
       </c>
       <c r="G365" s="19">
         <v>30</v>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="E366" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>28.882729386468391</v>
+        <v>20.841575703121428</v>
       </c>
       <c r="F366" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.3380751155040889</v>
+        <v>8.0395783659485129</v>
       </c>
       <c r="G366" s="19">
         <v>20</v>
@@ -12427,11 +12427,11 @@
       </c>
       <c r="E367" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>18.786926058827682</v>
+        <v>21.920583443594285</v>
       </c>
       <c r="F367" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>8.655650991503574</v>
+        <v>3.6012373922871781</v>
       </c>
       <c r="G367" s="19">
         <v>70</v>
@@ -12455,11 +12455,11 @@
       </c>
       <c r="E368" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>17.982055946896509</v>
+        <v>21.954040650171496</v>
       </c>
       <c r="F368" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.8523205464132229</v>
+        <v>6.5968822936631382</v>
       </c>
       <c r="G368" s="19">
         <v>140</v>
@@ -12483,11 +12483,11 @@
       </c>
       <c r="E369" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>24.882169239382122</v>
+        <v>24.888248004488247</v>
       </c>
       <c r="F369" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>8.4671248512692294</v>
+        <v>7.8004377841345249</v>
       </c>
       <c r="G369" s="19">
         <v>100</v>
@@ -12511,11 +12511,11 @@
       </c>
       <c r="E370" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>22.129364578863918</v>
+        <v>22.553515250582137</v>
       </c>
       <c r="F370" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>3.019773629079296</v>
+        <v>2.9806136981860125</v>
       </c>
       <c r="G370" s="19">
         <v>50</v>
@@ -12539,11 +12539,11 @@
       </c>
       <c r="E371" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>29.519091804550076</v>
+        <v>19.069057760275257</v>
       </c>
       <c r="F371" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.5784916234269248</v>
+        <v>9.7761601589294607</v>
       </c>
       <c r="G371" s="19">
         <v>120</v>
@@ -12567,11 +12567,11 @@
       </c>
       <c r="E372" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>20.657049111263827</v>
+        <v>29.389516008547574</v>
       </c>
       <c r="F372" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.9749360265919478</v>
+        <v>5.8718843675363299</v>
       </c>
       <c r="G372" s="19">
         <v>200</v>
@@ -12595,11 +12595,11 @@
       </c>
       <c r="E373" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>25.386259670115074</v>
+        <v>20.42725096476606</v>
       </c>
       <c r="F373" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.1241050582165126</v>
+        <v>3.9046327486093402</v>
       </c>
       <c r="G373" s="19">
         <v>80</v>
@@ -12623,11 +12623,11 @@
       </c>
       <c r="E374" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>22.629459371167332</v>
+        <v>26.113014751979183</v>
       </c>
       <c r="F374" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.8728871276510608</v>
+        <v>5.5221654268611324</v>
       </c>
       <c r="G374" s="19">
         <v>40</v>
@@ -12651,11 +12651,11 @@
       </c>
       <c r="E375" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>19.334929597718421</v>
+        <v>19.777431466192343</v>
       </c>
       <c r="F375" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.4278721831216155</v>
+        <v>8.7895359646599065</v>
       </c>
       <c r="G375" s="19">
         <v>110</v>
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E376" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>23.412630217258702</v>
+        <v>31.182718150376246</v>
       </c>
       <c r="F376" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.5782546292598507</v>
+        <v>2</v>
       </c>
       <c r="G376" s="19">
         <v>150</v>
@@ -12707,11 +12707,11 @@
       </c>
       <c r="E377" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>27.763188787598878</v>
+        <v>17.56705205785266</v>
       </c>
       <c r="F377" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>9.9537256128400777</v>
+        <v>3.8005900590652981</v>
       </c>
       <c r="G377" s="19">
         <v>90</v>
@@ -12735,11 +12735,11 @@
       </c>
       <c r="E378" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>21.918468405508577</v>
+        <v>26.124915273532178</v>
       </c>
       <c r="F378" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>8.808195411028068</v>
+        <v>5.3045597020781541</v>
       </c>
       <c r="G378" s="19">
         <v>30</v>
@@ -12763,11 +12763,11 @@
       </c>
       <c r="E379" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>26.473814676231978</v>
+        <v>24.751592672504948</v>
       </c>
       <c r="F379" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>6.1848778268552884</v>
+        <v>3.8762797969111782</v>
       </c>
       <c r="G379" s="19">
         <v>20</v>
@@ -12791,11 +12791,11 @@
       </c>
       <c r="E380" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>21.721068564388496</v>
+        <v>20.967494868536413</v>
       </c>
       <c r="F380" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.8169730279956289</v>
+        <v>3.7354495188448618</v>
       </c>
       <c r="G380" s="19">
         <v>70</v>
@@ -12819,11 +12819,11 @@
       </c>
       <c r="E381" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>19.71039025920814</v>
+        <v>18.958631124882618</v>
       </c>
       <c r="F381" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>6.8758876777202511</v>
+        <v>9.5132653318120557</v>
       </c>
       <c r="G381" s="19">
         <v>140</v>
@@ -12847,11 +12847,11 @@
       </c>
       <c r="E382" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>22.39771681309217</v>
+        <v>27.33950573290895</v>
       </c>
       <c r="F382" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.6994249633329153</v>
+        <v>7.5641914233827094</v>
       </c>
       <c r="G382" s="19">
         <v>100</v>
@@ -12875,11 +12875,11 @@
       </c>
       <c r="E383" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>18.531824822812553</v>
+        <v>25.29264760193713</v>
       </c>
       <c r="F383" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>2.5446975936925815</v>
+        <v>4.0243455963589279</v>
       </c>
       <c r="G383" s="19">
         <v>50</v>
@@ -12903,11 +12903,11 @@
       </c>
       <c r="E384" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>20.682526292239608</v>
+        <v>31.643721871172517</v>
       </c>
       <c r="F384" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.1190874219740365</v>
+        <v>7.8093612838527857</v>
       </c>
       <c r="G384" s="19">
         <v>120</v>
@@ -12931,11 +12931,11 @@
       </c>
       <c r="E385" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>26.196434146241785</v>
+        <v>21.551926913138065</v>
       </c>
       <c r="F385" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>3.5439917719920762</v>
+        <v>5.8032081614076487</v>
       </c>
       <c r="G385" s="19">
         <v>200</v>
@@ -12959,11 +12959,11 @@
       </c>
       <c r="E386" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>16.348372132299101</v>
+        <v>25.574352679464095</v>
       </c>
       <c r="F386" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>8.2863333917765374</v>
+        <v>5.2066280022584719</v>
       </c>
       <c r="G386" s="19">
         <v>80</v>
@@ -12987,11 +12987,11 @@
       </c>
       <c r="E387" s="20">
         <f t="shared" ref="E387:E450" ca="1" si="12">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>24.446320978713423</v>
+        <v>25.445579351661017</v>
       </c>
       <c r="F387" s="20">
         <f t="shared" ref="F387:F450" ca="1" si="13">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>4.9571408070012577</v>
+        <v>4.6255404022614517</v>
       </c>
       <c r="G387" s="19">
         <v>40</v>
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E388" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>26.060272066371834</v>
+        <v>25.866231033681377</v>
       </c>
       <c r="F388" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6.9166212283549484</v>
+        <v>5.9526156044972307</v>
       </c>
       <c r="G388" s="19">
         <v>110</v>
@@ -13043,11 +13043,11 @@
       </c>
       <c r="E389" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>23.264345959396078</v>
+        <v>18.611995051621065</v>
       </c>
       <c r="F389" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.4661467903589163</v>
+        <v>3.6005658804597971</v>
       </c>
       <c r="G389" s="19">
         <v>150</v>
@@ -13071,11 +13071,11 @@
       </c>
       <c r="E390" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>19.51162189033753</v>
+        <v>21.861232328036913</v>
       </c>
       <c r="F390" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6.0193076317544998</v>
+        <v>2</v>
       </c>
       <c r="G390" s="19">
         <v>90</v>
@@ -13099,11 +13099,11 @@
       </c>
       <c r="E391" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>25.68705884245302</v>
+        <v>21.349639740292329</v>
       </c>
       <c r="F391" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0875298896352001</v>
+        <v>5.0031940151041852</v>
       </c>
       <c r="G391" s="19">
         <v>30</v>
@@ -13127,11 +13127,11 @@
       </c>
       <c r="E392" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>25.772174468853329</v>
+        <v>21.605492860441839</v>
       </c>
       <c r="F392" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.9066661374389264</v>
+        <v>4.9745448974460391</v>
       </c>
       <c r="G392" s="19">
         <v>20</v>
@@ -13155,11 +13155,11 @@
       </c>
       <c r="E393" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>22.007559542357029</v>
+        <v>30.904429294000529</v>
       </c>
       <c r="F393" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.2464777630338748</v>
+        <v>5.21902658217933</v>
       </c>
       <c r="G393" s="19">
         <v>70</v>
@@ -13183,11 +13183,11 @@
       </c>
       <c r="E394" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>22.850308075659566</v>
+        <v>19.223687342590832</v>
       </c>
       <c r="F394" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>5.3655216919684028</v>
       </c>
       <c r="G394" s="19">
         <v>140</v>
@@ -13211,11 +13211,11 @@
       </c>
       <c r="E395" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>21.477197054814383</v>
+        <v>15.235464168125526</v>
       </c>
       <c r="F395" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0017893497697976</v>
+        <v>5.9429630966933171</v>
       </c>
       <c r="G395" s="19">
         <v>100</v>
@@ -13239,11 +13239,11 @@
       </c>
       <c r="E396" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>17.972358255751331</v>
+        <v>24.307012279906846</v>
       </c>
       <c r="F396" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.658118453435935</v>
+        <v>3.8913792702733443</v>
       </c>
       <c r="G396" s="19">
         <v>50</v>
@@ -13267,11 +13267,11 @@
       </c>
       <c r="E397" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>23.35040065142438</v>
+        <v>28.849283452894468</v>
       </c>
       <c r="F397" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4.8847451397719208</v>
+        <v>3.0704717579137228</v>
       </c>
       <c r="G397" s="19">
         <v>120</v>
@@ -13295,11 +13295,11 @@
       </c>
       <c r="E398" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>30.203964761737609</v>
+        <v>24.301204597650244</v>
       </c>
       <c r="F398" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.4942201913387567</v>
+        <v>8.2683110685106875</v>
       </c>
       <c r="G398" s="19">
         <v>200</v>
@@ -13323,11 +13323,11 @@
       </c>
       <c r="E399" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>23.793106388667866</v>
+        <v>21.790391814059451</v>
       </c>
       <c r="F399" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.8267883971599117</v>
+        <v>5.9841244248739693</v>
       </c>
       <c r="G399" s="19">
         <v>80</v>
@@ -13351,11 +13351,11 @@
       </c>
       <c r="E400" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>21.807773787905848</v>
+        <v>27.423198727792219</v>
       </c>
       <c r="F400" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>3.9016970685753698</v>
+        <v>10.654477160677668</v>
       </c>
       <c r="G400" s="19">
         <v>40</v>
@@ -13379,11 +13379,11 @@
       </c>
       <c r="E401" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>13.482601052120984</v>
+        <v>26.695667645083155</v>
       </c>
       <c r="F401" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>8.6853569995777438</v>
+        <v>6.9130698192548872</v>
       </c>
       <c r="G401" s="19">
         <v>110</v>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="E402" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>26.685998645034921</v>
+        <v>23.414857602780124</v>
       </c>
       <c r="F402" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.7907461512699054</v>
+        <v>3.8623960016634848</v>
       </c>
       <c r="G402" s="19">
         <v>150</v>
@@ -13435,11 +13435,11 @@
       </c>
       <c r="E403" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>19.07887485052272</v>
+        <v>21.448986054763882</v>
       </c>
       <c r="F403" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>2.9575849036985313</v>
+        <v>8.8008351613899585</v>
       </c>
       <c r="G403" s="19">
         <v>90</v>
@@ -13463,11 +13463,11 @@
       </c>
       <c r="E404" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>25.47925335657305</v>
+        <v>25.862503950165561</v>
       </c>
       <c r="F404" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.7673475307270357</v>
+        <v>3.2494515295511381</v>
       </c>
       <c r="G404" s="19">
         <v>30</v>
@@ -13491,11 +13491,11 @@
       </c>
       <c r="E405" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>24.22843931394905</v>
+        <v>25.751642282209438</v>
       </c>
       <c r="F405" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.3710583606353888</v>
+        <v>7.6089716949110571</v>
       </c>
       <c r="G405" s="19">
         <v>20</v>
@@ -13519,11 +13519,11 @@
       </c>
       <c r="E406" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>27.545377991891744</v>
+        <v>28.078430579933809</v>
       </c>
       <c r="F406" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.0714281069736673</v>
+        <v>4.7113726456081579</v>
       </c>
       <c r="G406" s="19">
         <v>70</v>
@@ -13547,11 +13547,11 @@
       </c>
       <c r="E407" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>24.204252595508947</v>
+        <v>24.27809915568788</v>
       </c>
       <c r="F407" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4.0787107146419128</v>
+        <v>5.0139896748852548</v>
       </c>
       <c r="G407" s="19">
         <v>140</v>
@@ -13575,11 +13575,11 @@
       </c>
       <c r="E408" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>23.377429935326539</v>
+        <v>23.473481954264276</v>
       </c>
       <c r="F408" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4.0873533007800704</v>
+        <v>6.5263550673387192</v>
       </c>
       <c r="G408" s="19">
         <v>100</v>
@@ -13603,11 +13603,11 @@
       </c>
       <c r="E409" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>15.740046419485623</v>
+        <v>33.241244656890871</v>
       </c>
       <c r="F409" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4.1923715883840611</v>
+        <v>7.960293495315744</v>
       </c>
       <c r="G409" s="19">
         <v>50</v>
@@ -13631,11 +13631,11 @@
       </c>
       <c r="E410" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>23.859553354487012</v>
+        <v>23.242784974903376</v>
       </c>
       <c r="F410" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.5756771840888266</v>
+        <v>2.486615671152399</v>
       </c>
       <c r="G410" s="19">
         <v>120</v>
@@ -13659,11 +13659,11 @@
       </c>
       <c r="E411" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>18.086809791151399</v>
+        <v>26.39912628379583</v>
       </c>
       <c r="F411" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>8.1839688772378523</v>
+        <v>6.2330835348484657</v>
       </c>
       <c r="G411" s="19">
         <v>200</v>
@@ -13687,11 +13687,11 @@
       </c>
       <c r="E412" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>22.484831489226927</v>
+        <v>22.461753231614846</v>
       </c>
       <c r="F412" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6.4424693690897712</v>
+        <v>5.7024453951807317</v>
       </c>
       <c r="G412" s="19">
         <v>80</v>
@@ -13715,11 +13715,11 @@
       </c>
       <c r="E413" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>29.554879195132614</v>
+        <v>29.589809072812585</v>
       </c>
       <c r="F413" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.5953009529669444</v>
+        <v>7.3571989876608539</v>
       </c>
       <c r="G413" s="19">
         <v>40</v>
@@ -13743,11 +13743,11 @@
       </c>
       <c r="E414" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>20.318544882088194</v>
+        <v>23.781572909751276</v>
       </c>
       <c r="F414" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.8430316729686433</v>
+        <v>6.0277209140465979</v>
       </c>
       <c r="G414" s="19">
         <v>110</v>
@@ -13771,11 +13771,11 @@
       </c>
       <c r="E415" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>28.531296686078814</v>
+        <v>23.762142639597325</v>
       </c>
       <c r="F415" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>2.595823941124713</v>
+        <v>8.3136361313014699</v>
       </c>
       <c r="G415" s="19">
         <v>150</v>
@@ -13799,11 +13799,11 @@
       </c>
       <c r="E416" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>25.026127412069041</v>
+        <v>27.078080872030082</v>
       </c>
       <c r="F416" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6.239815157211547</v>
+        <v>8.6258599821378077</v>
       </c>
       <c r="G416" s="19">
         <v>90</v>
@@ -13827,11 +13827,11 @@
       </c>
       <c r="E417" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>21.610459348461312</v>
+        <v>22.548701858808048</v>
       </c>
       <c r="F417" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>10.208405445764845</v>
+        <v>6.7391089315058608</v>
       </c>
       <c r="G417" s="19">
         <v>30</v>
@@ -13855,11 +13855,11 @@
       </c>
       <c r="E418" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>30.581411643024914</v>
+        <v>24.205617298863238</v>
       </c>
       <c r="F418" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.8698455974789407</v>
+        <v>2</v>
       </c>
       <c r="G418" s="19">
         <v>20</v>
@@ -13883,11 +13883,11 @@
       </c>
       <c r="E419" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>26.058573983324312</v>
+        <v>20.927102896800594</v>
       </c>
       <c r="F419" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>3.7555799264485308</v>
+        <v>7.2963830774365173</v>
       </c>
       <c r="G419" s="19">
         <v>70</v>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="E420" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>26.627868824994746</v>
+        <v>16.123812977948543</v>
       </c>
       <c r="F420" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4.941192390699956</v>
+        <v>6.8325225046640279</v>
       </c>
       <c r="G420" s="19">
         <v>140</v>
@@ -13939,11 +13939,11 @@
       </c>
       <c r="E421" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>21.685827563250268</v>
+        <v>29.915322720494359</v>
       </c>
       <c r="F421" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6.8903119936229231</v>
+        <v>9.7914491175003917</v>
       </c>
       <c r="G421" s="19">
         <v>100</v>
@@ -13967,11 +13967,11 @@
       </c>
       <c r="E422" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>17.588378456641713</v>
+        <v>22.817233388519188</v>
       </c>
       <c r="F422" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6.4820796511397747</v>
+        <v>2.026572615547769</v>
       </c>
       <c r="G422" s="19">
         <v>50</v>
@@ -13995,11 +13995,11 @@
       </c>
       <c r="E423" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>24.947098564138255</v>
+        <v>14.483444116643316</v>
       </c>
       <c r="F423" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>9.2527042615156496</v>
+        <v>4.006263861677505</v>
       </c>
       <c r="G423" s="19">
         <v>120</v>
@@ -14023,11 +14023,11 @@
       </c>
       <c r="E424" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>26.298993471344168</v>
+        <v>24.945524151588014</v>
       </c>
       <c r="F424" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6.8998166704818011</v>
+        <v>6.2921764112752747</v>
       </c>
       <c r="G424" s="19">
         <v>200</v>
@@ -14051,11 +14051,11 @@
       </c>
       <c r="E425" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>29.3816957291594</v>
+        <v>20.228704801061607</v>
       </c>
       <c r="F425" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6.9809513508193364</v>
+        <v>2</v>
       </c>
       <c r="G425" s="19">
         <v>80</v>
@@ -14079,11 +14079,11 @@
       </c>
       <c r="E426" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>23.880956326307658</v>
+        <v>25.957194440188495</v>
       </c>
       <c r="F426" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.4263939606972542</v>
+        <v>2</v>
       </c>
       <c r="G426" s="19">
         <v>40</v>
@@ -14107,11 +14107,11 @@
       </c>
       <c r="E427" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>23.275930157627101</v>
+        <v>19.182621665643364</v>
       </c>
       <c r="F427" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>8.6574097611737884</v>
+        <v>8.0506450588764267</v>
       </c>
       <c r="G427" s="19">
         <v>110</v>
@@ -14135,11 +14135,11 @@
       </c>
       <c r="E428" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>21.349600669155002</v>
+        <v>20.838284937597887</v>
       </c>
       <c r="F428" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.3667635581751201</v>
+        <v>5.5968444682477507</v>
       </c>
       <c r="G428" s="19">
         <v>150</v>
@@ -14163,11 +14163,11 @@
       </c>
       <c r="E429" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>29.021178181252097</v>
+        <v>25.571265994489636</v>
       </c>
       <c r="F429" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6.2129963254719218</v>
+        <v>8.3699965708672117</v>
       </c>
       <c r="G429" s="19">
         <v>90</v>
@@ -14191,11 +14191,11 @@
       </c>
       <c r="E430" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>26.231903747142315</v>
+        <v>19.293142068463609</v>
       </c>
       <c r="F430" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0412869581833109</v>
+        <v>4.4384669032697559</v>
       </c>
       <c r="G430" s="19">
         <v>30</v>
@@ -14219,11 +14219,11 @@
       </c>
       <c r="E431" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>22.973827984590123</v>
+        <v>25.578771804498896</v>
       </c>
       <c r="F431" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>8.8284580099983856</v>
+        <v>5.1644088843695117</v>
       </c>
       <c r="G431" s="19">
         <v>20</v>
@@ -14247,11 +14247,11 @@
       </c>
       <c r="E432" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>16.725263172561696</v>
+        <v>24.954917550142007</v>
       </c>
       <c r="F432" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.7300620483562978</v>
+        <v>2.2877547519461001</v>
       </c>
       <c r="G432" s="19">
         <v>70</v>
@@ -14275,11 +14275,11 @@
       </c>
       <c r="E433" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>20.155191154866362</v>
+        <v>24.818785255616234</v>
       </c>
       <c r="F433" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6.6858012259164479</v>
+        <v>9.9714907460987945</v>
       </c>
       <c r="G433" s="19">
         <v>140</v>
@@ -14303,11 +14303,11 @@
       </c>
       <c r="E434" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>24.671013506274672</v>
+        <v>22.538757606492709</v>
       </c>
       <c r="F434" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>8.4517941895717215</v>
+        <v>6.4785539295792791</v>
       </c>
       <c r="G434" s="19">
         <v>100</v>
@@ -14331,11 +14331,11 @@
       </c>
       <c r="E435" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>21.606569388353222</v>
+        <v>26.080383300495559</v>
       </c>
       <c r="F435" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.4554765527011471</v>
+        <v>6.8456445987889785</v>
       </c>
       <c r="G435" s="19">
         <v>50</v>
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E436" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>26.507838674576416</v>
+        <v>18.577019914275876</v>
       </c>
       <c r="F436" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.7796247063914574</v>
+        <v>6.4167245289479773</v>
       </c>
       <c r="G436" s="19">
         <v>120</v>
@@ -14387,11 +14387,11 @@
       </c>
       <c r="E437" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>27.107883135358229</v>
+        <v>20.523124115221691</v>
       </c>
       <c r="F437" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.3346142094893736</v>
+        <v>5.2019636742553139</v>
       </c>
       <c r="G437" s="19">
         <v>200</v>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="E438" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>17.077425618352038</v>
+        <v>20.035703569212668</v>
       </c>
       <c r="F438" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.8600069202370086</v>
+        <v>3.154265138047784</v>
       </c>
       <c r="G438" s="19">
         <v>80</v>
@@ -14443,11 +14443,11 @@
       </c>
       <c r="E439" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>22.499815331842289</v>
+        <v>26.600538338317264</v>
       </c>
       <c r="F439" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>8.0557133251532953</v>
+        <v>4.4581051344032687</v>
       </c>
       <c r="G439" s="19">
         <v>40</v>
@@ -14471,11 +14471,11 @@
       </c>
       <c r="E440" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>25.540195320282482</v>
+        <v>25.860892054261015</v>
       </c>
       <c r="F440" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.3372980310643703</v>
+        <v>5.5591010338368321</v>
       </c>
       <c r="G440" s="19">
         <v>110</v>
@@ -14499,11 +14499,11 @@
       </c>
       <c r="E441" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>15.322527571652369</v>
+        <v>16.836185101711521</v>
       </c>
       <c r="F441" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.6488939066694863</v>
+        <v>5.9365348727237723</v>
       </c>
       <c r="G441" s="19">
         <v>150</v>
@@ -14527,11 +14527,11 @@
       </c>
       <c r="E442" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>21.143763295898324</v>
+        <v>27.215598904651504</v>
       </c>
       <c r="F442" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.6608244945225419</v>
+        <v>4.5802497199655239</v>
       </c>
       <c r="G442" s="19">
         <v>90</v>
@@ -14555,11 +14555,11 @@
       </c>
       <c r="E443" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>23.922187390432899</v>
+        <v>26.625528274909179</v>
       </c>
       <c r="F443" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.47321454569322</v>
+        <v>4.1898584856398831</v>
       </c>
       <c r="G443" s="19">
         <v>30</v>
@@ -14583,11 +14583,11 @@
       </c>
       <c r="E444" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>22.323119057327119</v>
+        <v>19.366830031197068</v>
       </c>
       <c r="F444" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.7773855401381953</v>
+        <v>4.1205611631634893</v>
       </c>
       <c r="G444" s="19">
         <v>20</v>
@@ -14611,11 +14611,11 @@
       </c>
       <c r="E445" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>24.085077757062535</v>
+        <v>20.772723582989016</v>
       </c>
       <c r="F445" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.3152410735678162</v>
+        <v>7.2810423745511503</v>
       </c>
       <c r="G445" s="19">
         <v>70</v>
@@ -14639,11 +14639,11 @@
       </c>
       <c r="E446" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>32.047135494117967</v>
+        <v>19.988820566427755</v>
       </c>
       <c r="F446" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6.5764380059848717</v>
+        <v>5.7593645136927325</v>
       </c>
       <c r="G446" s="19">
         <v>140</v>
@@ -14667,11 +14667,11 @@
       </c>
       <c r="E447" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>26.505360349354984</v>
+        <v>21.454031599304802</v>
       </c>
       <c r="F447" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7.2499931059485228</v>
+        <v>4.1013140538877799</v>
       </c>
       <c r="G447" s="19">
         <v>100</v>
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E448" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>31.227920413487851</v>
+        <v>18.952188414200936</v>
       </c>
       <c r="F448" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>8.7416305179495986</v>
+        <v>2.6908306918141518</v>
       </c>
       <c r="G448" s="19">
         <v>50</v>
@@ -14723,11 +14723,11 @@
       </c>
       <c r="E449" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>25.708027394756144</v>
+        <v>34.625959219639171</v>
       </c>
       <c r="F449" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1579464588109447</v>
+        <v>6.203902240423024</v>
       </c>
       <c r="G449" s="19">
         <v>120</v>
@@ -14751,11 +14751,11 @@
       </c>
       <c r="E450" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>21.48792240792481</v>
+        <v>14.392423716135307</v>
       </c>
       <c r="F450" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>2.8456680995308106</v>
+        <v>5.5631994239010654</v>
       </c>
       <c r="G450" s="19">
         <v>200</v>
@@ -14779,11 +14779,11 @@
       </c>
       <c r="E451" s="20">
         <f t="shared" ref="E451:E514" ca="1" si="14">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>29.774859001892587</v>
+        <v>27.170970417528714</v>
       </c>
       <c r="F451" s="20">
         <f t="shared" ref="F451:F514" ca="1" si="15">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>9.3909136898950134</v>
+        <v>5.8631207713396138</v>
       </c>
       <c r="G451" s="19">
         <v>80</v>
@@ -14807,11 +14807,11 @@
       </c>
       <c r="E452" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>16.486463375665409</v>
+        <v>24.971859605261994</v>
       </c>
       <c r="F452" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.9816064943922935</v>
+        <v>3.676167128585238</v>
       </c>
       <c r="G452" s="19">
         <v>40</v>
@@ -14835,11 +14835,11 @@
       </c>
       <c r="E453" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>19.221064222825564</v>
+        <v>24.327096308544643</v>
       </c>
       <c r="F453" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>3.2285378381210554</v>
+        <v>6.1499507512489355</v>
       </c>
       <c r="G453" s="19">
         <v>110</v>
@@ -14863,11 +14863,11 @@
       </c>
       <c r="E454" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>25.222180039608762</v>
+        <v>25.622334299994058</v>
       </c>
       <c r="F454" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>6.5976043638654529</v>
+        <v>6.3451595605925446</v>
       </c>
       <c r="G454" s="19">
         <v>150</v>
@@ -14891,11 +14891,11 @@
       </c>
       <c r="E455" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>20.930753282919184</v>
+        <v>26.97710421841818</v>
       </c>
       <c r="F455" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>4.0288463859080075</v>
+        <v>2.8273760320900427</v>
       </c>
       <c r="G455" s="19">
         <v>90</v>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="E456" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>24.871587166108647</v>
+        <v>28.8333147487707</v>
       </c>
       <c r="F456" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>7.8601714593246017</v>
+        <v>3.2099271876897824</v>
       </c>
       <c r="G456" s="19">
         <v>30</v>
@@ -14947,11 +14947,11 @@
       </c>
       <c r="E457" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>25.476402909514626</v>
+        <v>26.407123332708561</v>
       </c>
       <c r="F457" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>4.8393696010555001</v>
+        <v>6.0852697735313086</v>
       </c>
       <c r="G457" s="19">
         <v>20</v>
@@ -14975,11 +14975,11 @@
       </c>
       <c r="E458" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>23.324305253727722</v>
+        <v>24.782582497154124</v>
       </c>
       <c r="F458" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>4.620229766885533</v>
+        <v>5.4807222018736352</v>
       </c>
       <c r="G458" s="19">
         <v>70</v>
@@ -15003,11 +15003,11 @@
       </c>
       <c r="E459" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>19.253385613750392</v>
+        <v>21.329520529074024</v>
       </c>
       <c r="F459" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>4.6582140785607553</v>
+        <v>6.3193204589736158</v>
       </c>
       <c r="G459" s="19">
         <v>140</v>
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E460" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>15.340141790440809</v>
+        <v>17.818409127985227</v>
       </c>
       <c r="F460" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>8.7569862941838554</v>
+        <v>4.4947624279097456</v>
       </c>
       <c r="G460" s="19">
         <v>100</v>
@@ -15059,11 +15059,11 @@
       </c>
       <c r="E461" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>20.151417609188826</v>
+        <v>24.154382540925056</v>
       </c>
       <c r="F461" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.6038922665973754</v>
+        <v>4.1670721622175222</v>
       </c>
       <c r="G461" s="19">
         <v>50</v>
@@ -15087,11 +15087,11 @@
       </c>
       <c r="E462" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>34.048735553527138</v>
+        <v>13.47145152693871</v>
       </c>
       <c r="F462" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>3.289339509479063</v>
+        <v>6.6834665731272445</v>
       </c>
       <c r="G462" s="19">
         <v>120</v>
@@ -15115,11 +15115,11 @@
       </c>
       <c r="E463" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>21.18795690649571</v>
+        <v>22.942419679319286</v>
       </c>
       <c r="F463" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>9.0247039731508902</v>
+        <v>7.4233296580707364</v>
       </c>
       <c r="G463" s="19">
         <v>200</v>
@@ -15143,11 +15143,11 @@
       </c>
       <c r="E464" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>22.255284363754843</v>
+        <v>15.086105864096297</v>
       </c>
       <c r="F464" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>3.5470583223370968</v>
+        <v>5.4261302142435177</v>
       </c>
       <c r="G464" s="19">
         <v>80</v>
@@ -15171,11 +15171,11 @@
       </c>
       <c r="E465" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>25.66473090835462</v>
+        <v>16.563399960526684</v>
       </c>
       <c r="F465" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>7.6291297233526603</v>
+        <v>5.9833300135215532</v>
       </c>
       <c r="G465" s="19">
         <v>40</v>
@@ -15199,11 +15199,11 @@
       </c>
       <c r="E466" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>23.092508629635798</v>
+        <v>24.307233600051465</v>
       </c>
       <c r="F466" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>4.8730891524887578</v>
+        <v>5.3697475283392118</v>
       </c>
       <c r="G466" s="19">
         <v>110</v>
@@ -15227,11 +15227,11 @@
       </c>
       <c r="E467" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>24.352599128656923</v>
+        <v>31.209921911471433</v>
       </c>
       <c r="F467" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>7.4649101866254979</v>
+        <v>9.535516316815368</v>
       </c>
       <c r="G467" s="19">
         <v>150</v>
@@ -15255,11 +15255,11 @@
       </c>
       <c r="E468" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>28.743266429203469</v>
+        <v>22.84893558834251</v>
       </c>
       <c r="F468" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>7.8265965745861656</v>
+        <v>5.4346051551311962</v>
       </c>
       <c r="G468" s="19">
         <v>90</v>
@@ -15283,11 +15283,11 @@
       </c>
       <c r="E469" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>17.765178855798808</v>
+        <v>21.536024458363499</v>
       </c>
       <c r="F469" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.9396975821197424</v>
+        <v>5.4269923875703654</v>
       </c>
       <c r="G469" s="19">
         <v>30</v>
@@ -15311,11 +15311,11 @@
       </c>
       <c r="E470" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>22.584420837858172</v>
+        <v>25.246177187911659</v>
       </c>
       <c r="F470" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>8.1466579621703392</v>
+        <v>8.5372368483279022</v>
       </c>
       <c r="G470" s="19">
         <v>20</v>
@@ -15339,11 +15339,11 @@
       </c>
       <c r="E471" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>24.139323652502657</v>
+        <v>24.951467001883092</v>
       </c>
       <c r="F471" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>4.9495890788424557</v>
+        <v>7.5810401899810476</v>
       </c>
       <c r="G471" s="19">
         <v>70</v>
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E472" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>27.129152432073607</v>
+        <v>25.912178692697132</v>
       </c>
       <c r="F472" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>3.5584173803874424</v>
+        <v>5.4825585361520837</v>
       </c>
       <c r="G472" s="19">
         <v>140</v>
@@ -15395,11 +15395,11 @@
       </c>
       <c r="E473" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>27.286716464003536</v>
+        <v>27.839031596162542</v>
       </c>
       <c r="F473" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>6.2928367896532009</v>
+        <v>3.7827522080092555</v>
       </c>
       <c r="G473" s="19">
         <v>100</v>
@@ -15423,11 +15423,11 @@
       </c>
       <c r="E474" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>18.07405971233495</v>
+        <v>22.068695042380337</v>
       </c>
       <c r="F474" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>6.733120201779732</v>
+        <v>5.084902720368409</v>
       </c>
       <c r="G474" s="19">
         <v>50</v>
@@ -15451,11 +15451,11 @@
       </c>
       <c r="E475" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>30.538558299818657</v>
+        <v>23.61444139411493</v>
       </c>
       <c r="F475" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>8.1885803061176112</v>
+        <v>7.6259644878375141</v>
       </c>
       <c r="G475" s="19">
         <v>120</v>
@@ -15479,11 +15479,11 @@
       </c>
       <c r="E476" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>29.508092032775338</v>
+        <v>22.596000959037671</v>
       </c>
       <c r="F476" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>3.2212669708712811</v>
+        <v>6.7910907236229701</v>
       </c>
       <c r="G476" s="19">
         <v>200</v>
@@ -15507,11 +15507,11 @@
       </c>
       <c r="E477" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>21.384468414948469</v>
+        <v>28.197106613642795</v>
       </c>
       <c r="F477" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.6670409993304327</v>
+        <v>4.5741676742451229</v>
       </c>
       <c r="G477" s="19">
         <v>80</v>
@@ -15535,11 +15535,11 @@
       </c>
       <c r="E478" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>22.740370413493739</v>
+        <v>28.67000322348381</v>
       </c>
       <c r="F478" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>3.5987040391542773</v>
+        <v>3.8195290538328845</v>
       </c>
       <c r="G478" s="19">
         <v>40</v>
@@ -15563,11 +15563,11 @@
       </c>
       <c r="E479" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>11.527052596515651</v>
+        <v>22.144370090739816</v>
       </c>
       <c r="F479" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>4.2656960526160042</v>
+        <v>6.9307880242197006</v>
       </c>
       <c r="G479" s="19">
         <v>110</v>
@@ -15591,11 +15591,11 @@
       </c>
       <c r="E480" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>24.760602128081704</v>
+        <v>17.073051388212143</v>
       </c>
       <c r="F480" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>6.8864516498486932</v>
+        <v>7.9945399262293178</v>
       </c>
       <c r="G480" s="19">
         <v>150</v>
@@ -15619,11 +15619,11 @@
       </c>
       <c r="E481" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>14.863799947131312</v>
+        <v>26.710866942618175</v>
       </c>
       <c r="F481" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.9739597080635702</v>
+        <v>6.8007300687933574</v>
       </c>
       <c r="G481" s="19">
         <v>90</v>
@@ -15647,11 +15647,11 @@
       </c>
       <c r="E482" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>18.262413034972415</v>
+        <v>24.764439803430598</v>
       </c>
       <c r="F482" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.3332891911595972</v>
+        <v>4.5234771603264239</v>
       </c>
       <c r="G482" s="19">
         <v>30</v>
@@ -15675,11 +15675,11 @@
       </c>
       <c r="E483" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>28.767921777812472</v>
+        <v>20.652480259419612</v>
       </c>
       <c r="F483" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.9830314153461366</v>
+        <v>4.254890145076347</v>
       </c>
       <c r="G483" s="19">
         <v>20</v>
@@ -15703,11 +15703,11 @@
       </c>
       <c r="E484" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>19.806542606550529</v>
+        <v>26.286293369580719</v>
       </c>
       <c r="F484" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>3.3979322940852388</v>
+        <v>2.7694545764848977</v>
       </c>
       <c r="G484" s="19">
         <v>70</v>
@@ -15731,11 +15731,11 @@
       </c>
       <c r="E485" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>24.759844173252475</v>
+        <v>24.201290736936958</v>
       </c>
       <c r="F485" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>3.1226777847265335</v>
+        <v>6.7951105590470338</v>
       </c>
       <c r="G485" s="19">
         <v>140</v>
@@ -15759,11 +15759,11 @@
       </c>
       <c r="E486" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>23.167165795155775</v>
+        <v>23.175606051881772</v>
       </c>
       <c r="F486" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>6.0274474840863785</v>
+        <v>7.5118645633199321</v>
       </c>
       <c r="G486" s="19">
         <v>100</v>
@@ -15787,11 +15787,11 @@
       </c>
       <c r="E487" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>26.070280422554823</v>
+        <v>20.997484663369296</v>
       </c>
       <c r="F487" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.7070161086436055</v>
+        <v>3.1232555711116587</v>
       </c>
       <c r="G487" s="19">
         <v>50</v>
@@ -15815,11 +15815,11 @@
       </c>
       <c r="E488" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>24.06403371730983</v>
+        <v>21.228940316612174</v>
       </c>
       <c r="F488" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.8958623784270481</v>
+        <v>4.7989918793458592</v>
       </c>
       <c r="G488" s="19">
         <v>120</v>
@@ -15843,11 +15843,11 @@
       </c>
       <c r="E489" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>19.129021802516096</v>
+        <v>24.914259589948738</v>
       </c>
       <c r="F489" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>3.8850493647017266</v>
+        <v>6.6528425288712425</v>
       </c>
       <c r="G489" s="19">
         <v>200</v>
@@ -15871,11 +15871,11 @@
       </c>
       <c r="E490" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>23.830100221372128</v>
+        <v>27.649618941098865</v>
       </c>
       <c r="F490" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>3.9152176016970928</v>
+        <v>5.8891335540000656</v>
       </c>
       <c r="G490" s="19">
         <v>80</v>
@@ -15899,11 +15899,11 @@
       </c>
       <c r="E491" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>27.124002119409148</v>
+        <v>18.020422281181443</v>
       </c>
       <c r="F491" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.3566049051926408</v>
+        <v>8.1492037879360097</v>
       </c>
       <c r="G491" s="19">
         <v>40</v>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="E492" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>28.296164156118138</v>
+        <v>23.088334735157879</v>
       </c>
       <c r="F492" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>7.2582824221904083</v>
+        <v>10.35962800353002</v>
       </c>
       <c r="G492" s="19">
         <v>110</v>
@@ -15955,11 +15955,11 @@
       </c>
       <c r="E493" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>22.08803756464668</v>
+        <v>23.973324495453205</v>
       </c>
       <c r="F493" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>4.2612140624376789</v>
+        <v>6.3061042510823571</v>
       </c>
       <c r="G493" s="19">
         <v>150</v>
@@ -15983,11 +15983,11 @@
       </c>
       <c r="E494" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>20.942088092834389</v>
+        <v>21.353243006762831</v>
       </c>
       <c r="F494" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.9562128650158455</v>
+        <v>7.4440055620508581</v>
       </c>
       <c r="G494" s="19">
         <v>90</v>
@@ -16011,11 +16011,11 @@
       </c>
       <c r="E495" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>21.104042801287338</v>
+        <v>21.954826513722058</v>
       </c>
       <c r="F495" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>4.9563369345593538</v>
+        <v>2</v>
       </c>
       <c r="G495" s="19">
         <v>30</v>
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E496" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>21.02944911337768</v>
+        <v>28.244454433472676</v>
       </c>
       <c r="F496" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.0943981321896343</v>
+        <v>7.3520167540933254</v>
       </c>
       <c r="G496" s="19">
         <v>20</v>
@@ -16067,11 +16067,11 @@
       </c>
       <c r="E497" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>24.461625396987426</v>
+        <v>25.986526312124941</v>
       </c>
       <c r="F497" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.0825006602568505</v>
+        <v>5.5089904604684792</v>
       </c>
       <c r="G497" s="19">
         <v>70</v>
@@ -16095,11 +16095,11 @@
       </c>
       <c r="E498" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>20.354038147402981</v>
+        <v>22.446324074233175</v>
       </c>
       <c r="F498" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>6.45919787929365</v>
       </c>
       <c r="G498" s="19">
         <v>140</v>
@@ -16123,11 +16123,11 @@
       </c>
       <c r="E499" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>30.860119517464774</v>
+        <v>18.119345889386985</v>
       </c>
       <c r="F499" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.7753561563558433</v>
+        <v>3.5807853945975472</v>
       </c>
       <c r="G499" s="19">
         <v>100</v>
@@ -16151,11 +16151,11 @@
       </c>
       <c r="E500" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>30.352944885790979</v>
+        <v>25.911458626229944</v>
       </c>
       <c r="F500" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>3.8556875737040945</v>
+        <v>2.2820328283923597</v>
       </c>
       <c r="G500" s="19">
         <v>50</v>
@@ -16179,11 +16179,11 @@
       </c>
       <c r="E501" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>33.865298907601542</v>
+        <v>29.261518998183153</v>
       </c>
       <c r="F501" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>7.3728227337467001</v>
+        <v>7.4065880330217571</v>
       </c>
       <c r="G501" s="19">
         <v>120</v>
@@ -16207,11 +16207,11 @@
       </c>
       <c r="E502" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>29.664031823372902</v>
+        <v>20.679472279848383</v>
       </c>
       <c r="F502" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>6.0248111164484124</v>
+        <v>8.3758172880092712</v>
       </c>
       <c r="G502" s="19">
         <v>200</v>
@@ -16235,11 +16235,11 @@
       </c>
       <c r="E503" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>27.279347365630031</v>
+        <v>22.019379248636859</v>
       </c>
       <c r="F503" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>2.9310573812813989</v>
+        <v>9.1346507157674992</v>
       </c>
       <c r="G503" s="19">
         <v>80</v>
@@ -16263,11 +16263,11 @@
       </c>
       <c r="E504" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>23.112584523856569</v>
+        <v>24.787084705212411</v>
       </c>
       <c r="F504" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>7.3471934680167914</v>
+        <v>3.3780395392550253</v>
       </c>
       <c r="G504" s="19">
         <v>40</v>
@@ -16291,11 +16291,11 @@
       </c>
       <c r="E505" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>20.437360023550731</v>
+        <v>22.903324659868908</v>
       </c>
       <c r="F505" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.2265139541836305</v>
+        <v>6.6553274723253564</v>
       </c>
       <c r="G505" s="19">
         <v>110</v>
@@ -16319,11 +16319,11 @@
       </c>
       <c r="E506" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>28.780741806676538</v>
+        <v>21.046602725147999</v>
       </c>
       <c r="F506" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>10.212929121601505</v>
+        <v>2.9723814565668545</v>
       </c>
       <c r="G506" s="19">
         <v>150</v>
@@ -16347,11 +16347,11 @@
       </c>
       <c r="E507" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>32.619588710950019</v>
+        <v>27.564000564157467</v>
       </c>
       <c r="F507" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>3.76418555456398</v>
+        <v>5.4617237984668048</v>
       </c>
       <c r="G507" s="19">
         <v>90</v>
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E508" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>15.471224639206334</v>
+        <v>25.87599142242648</v>
       </c>
       <c r="F508" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>6.368764394346095</v>
+        <v>8.2031332227145253</v>
       </c>
       <c r="G508" s="19">
         <v>30</v>
@@ -16403,11 +16403,11 @@
       </c>
       <c r="E509" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>28.038881511858904</v>
+        <v>20.781916364795418</v>
       </c>
       <c r="F509" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>5.1923017988547917</v>
+        <v>5.5735193304716191</v>
       </c>
       <c r="G509" s="19">
         <v>20</v>
@@ -16431,11 +16431,11 @@
       </c>
       <c r="E510" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>28.051875180200657</v>
+        <v>21.599828999147892</v>
       </c>
       <c r="F510" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>2.3078245837201328</v>
+        <v>7.7575612622980445</v>
       </c>
       <c r="G510" s="19">
         <v>70</v>
@@ -16459,11 +16459,11 @@
       </c>
       <c r="E511" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>29.998369622209644</v>
+        <v>23.392221976169651</v>
       </c>
       <c r="F511" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>7.2229822857212937</v>
+        <v>5.0979927672746603</v>
       </c>
       <c r="G511" s="19">
         <v>140</v>
@@ -16487,11 +16487,11 @@
       </c>
       <c r="E512" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>28.894721301384898</v>
+        <v>26.598817490988573</v>
       </c>
       <c r="F512" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>6.9170183056365966</v>
+        <v>6.5369271773635518</v>
       </c>
       <c r="G512" s="19">
         <v>100</v>
@@ -16515,11 +16515,11 @@
       </c>
       <c r="E513" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>15.963919888355093</v>
+        <v>26.766225467691292</v>
       </c>
       <c r="F513" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>6.8799192786679537</v>
+        <v>3.8049956366997559</v>
       </c>
       <c r="G513" s="19">
         <v>50</v>
@@ -16543,11 +16543,11 @@
       </c>
       <c r="E514" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>25.042907951115069</v>
+        <v>27.172978465110724</v>
       </c>
       <c r="F514" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>6.1794244129870988</v>
+        <v>3.3164877458679838</v>
       </c>
       <c r="G514" s="19">
         <v>120</v>
@@ -16571,11 +16571,11 @@
       </c>
       <c r="E515" s="20">
         <f t="shared" ref="E515:E578" ca="1" si="16">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>19.161453463401433</v>
+        <v>18.880482168489802</v>
       </c>
       <c r="F515" s="20">
         <f t="shared" ref="F515:F578" ca="1" si="17">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>8.0358057306193231</v>
+        <v>5.2803365381421914</v>
       </c>
       <c r="G515" s="19">
         <v>200</v>
@@ -16599,11 +16599,11 @@
       </c>
       <c r="E516" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>18.579593019683113</v>
+        <v>31.342973422285567</v>
       </c>
       <c r="F516" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.7035280157865218</v>
+        <v>3.6337723306297249</v>
       </c>
       <c r="G516" s="19">
         <v>80</v>
@@ -16627,11 +16627,11 @@
       </c>
       <c r="E517" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>27.982481563341587</v>
+        <v>22.784462278581696</v>
       </c>
       <c r="F517" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>7.1872354274710242</v>
+        <v>7.7125832109816406</v>
       </c>
       <c r="G517" s="19">
         <v>40</v>
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E518" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>26.53914674118483</v>
+        <v>22.53170610398848</v>
       </c>
       <c r="F518" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>7.6215501116287765</v>
+        <v>9.4406328250191542</v>
       </c>
       <c r="G518" s="19">
         <v>110</v>
@@ -16683,11 +16683,11 @@
       </c>
       <c r="E519" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>20.111656377627707</v>
+        <v>20.289151205212601</v>
       </c>
       <c r="F519" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.2609732718480569</v>
+        <v>8.0214908571305106</v>
       </c>
       <c r="G519" s="19">
         <v>150</v>
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E520" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>22.60574641056051</v>
+        <v>24.981827898787998</v>
       </c>
       <c r="F520" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>3.9166279404439983</v>
+        <v>5.7639896027820354</v>
       </c>
       <c r="G520" s="19">
         <v>90</v>
@@ -16739,11 +16739,11 @@
       </c>
       <c r="E521" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>21.622732419596879</v>
+        <v>27.479952116555005</v>
       </c>
       <c r="F521" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.7823828124522514</v>
+        <v>5.446115195360469</v>
       </c>
       <c r="G521" s="19">
         <v>30</v>
@@ -16767,11 +16767,11 @@
       </c>
       <c r="E522" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>28.800231922639952</v>
+        <v>19.503680890213985</v>
       </c>
       <c r="F522" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.6984984907387419</v>
+        <v>6.271891626828471</v>
       </c>
       <c r="G522" s="19">
         <v>20</v>
@@ -16795,11 +16795,11 @@
       </c>
       <c r="E523" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>22.988073493385045</v>
+        <v>19.858483989484171</v>
       </c>
       <c r="F523" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>11.081278017219622</v>
+        <v>2</v>
       </c>
       <c r="G523" s="19">
         <v>70</v>
@@ -16823,11 +16823,11 @@
       </c>
       <c r="E524" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>18.778811689392665</v>
+        <v>22.344785933262109</v>
       </c>
       <c r="F524" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>9.3105694341972267</v>
+        <v>5.9779458851789649</v>
       </c>
       <c r="G524" s="19">
         <v>140</v>
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E525" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>22.064041043867928</v>
+        <v>14.45687735861414</v>
       </c>
       <c r="F525" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>9.4621987425047678</v>
+        <v>7.3307625432145596</v>
       </c>
       <c r="G525" s="19">
         <v>100</v>
@@ -16879,11 +16879,11 @@
       </c>
       <c r="E526" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>23.19870774720582</v>
+        <v>32.90536499173929</v>
       </c>
       <c r="F526" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.3110715363693153</v>
+        <v>6.7309248674130231</v>
       </c>
       <c r="G526" s="19">
         <v>50</v>
@@ -16907,11 +16907,11 @@
       </c>
       <c r="E527" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>23.146092248689346</v>
+        <v>23.42568564129807</v>
       </c>
       <c r="F527" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.9194718308762839</v>
+        <v>7.0156848580307392</v>
       </c>
       <c r="G527" s="19">
         <v>120</v>
@@ -16935,11 +16935,11 @@
       </c>
       <c r="E528" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>23.662357289010437</v>
+        <v>26.391246470468339</v>
       </c>
       <c r="F528" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>8.3321893462916972</v>
+        <v>7.9317301658524872</v>
       </c>
       <c r="G528" s="19">
         <v>200</v>
@@ -16963,11 +16963,11 @@
       </c>
       <c r="E529" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>27.494478948165444</v>
+        <v>21.659506779679838</v>
       </c>
       <c r="F529" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.4113624036863239</v>
+        <v>3.8643920163906693</v>
       </c>
       <c r="G529" s="19">
         <v>80</v>
@@ -16991,11 +16991,11 @@
       </c>
       <c r="E530" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>24.25163538461004</v>
+        <v>25.56119003722495</v>
       </c>
       <c r="F530" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.1586745105664669</v>
+        <v>4.8297663657844039</v>
       </c>
       <c r="G530" s="19">
         <v>40</v>
@@ -17019,11 +17019,11 @@
       </c>
       <c r="E531" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>20.695071423840723</v>
+        <v>28.532598288405801</v>
       </c>
       <c r="F531" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.9065515174740835</v>
+        <v>6.7887393833494096</v>
       </c>
       <c r="G531" s="19">
         <v>110</v>
@@ -17047,11 +17047,11 @@
       </c>
       <c r="E532" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>28.564442229346334</v>
+        <v>24.319318726968838</v>
       </c>
       <c r="F532" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.6421652748269349</v>
+        <v>7.6216550231775804</v>
       </c>
       <c r="G532" s="19">
         <v>150</v>
@@ -17075,11 +17075,11 @@
       </c>
       <c r="E533" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>22.735106894661794</v>
+        <v>23.44688969695601</v>
       </c>
       <c r="F533" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.4485191161310746</v>
+        <v>7.1890400300578445</v>
       </c>
       <c r="G533" s="19">
         <v>90</v>
@@ -17103,11 +17103,11 @@
       </c>
       <c r="E534" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>29.980782279519261</v>
+        <v>22.980102642060018</v>
       </c>
       <c r="F534" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.6178824839465049</v>
+        <v>6.389935307702844</v>
       </c>
       <c r="G534" s="19">
         <v>30</v>
@@ -17131,11 +17131,11 @@
       </c>
       <c r="E535" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>23.692142678387661</v>
+        <v>25.743227156688313</v>
       </c>
       <c r="F535" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.7187778195989356</v>
+        <v>6.721176140344796</v>
       </c>
       <c r="G535" s="19">
         <v>20</v>
@@ -17159,11 +17159,11 @@
       </c>
       <c r="E536" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>22.449927496521234</v>
+        <v>23.593308756388833</v>
       </c>
       <c r="F536" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>7.5956550131214415</v>
+        <v>4.7188807548958955</v>
       </c>
       <c r="G536" s="19">
         <v>70</v>
@@ -17187,11 +17187,11 @@
       </c>
       <c r="E537" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>25.204462653200636</v>
+        <v>25.577794146580068</v>
       </c>
       <c r="F537" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.8623214777490773</v>
+        <v>4.8817294798891702</v>
       </c>
       <c r="G537" s="19">
         <v>140</v>
@@ -17215,11 +17215,11 @@
       </c>
       <c r="E538" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>23.033011770397607</v>
+        <v>28.770910995991574</v>
       </c>
       <c r="F538" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.7059155453514006</v>
+        <v>7.0940330501336879</v>
       </c>
       <c r="G538" s="19">
         <v>100</v>
@@ -17243,11 +17243,11 @@
       </c>
       <c r="E539" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>16.342026601136109</v>
+        <v>17.170304969104087</v>
       </c>
       <c r="F539" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.5710340064559132</v>
+        <v>6.3172275554630986</v>
       </c>
       <c r="G539" s="19">
         <v>50</v>
@@ -17271,11 +17271,11 @@
       </c>
       <c r="E540" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>28.232168729553173</v>
+        <v>17.937289830191986</v>
       </c>
       <c r="F540" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.8195146923596202</v>
+        <v>6.5759882461262613</v>
       </c>
       <c r="G540" s="19">
         <v>120</v>
@@ -17299,11 +17299,11 @@
       </c>
       <c r="E541" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>24.740306053865044</v>
+        <v>28.15388408264398</v>
       </c>
       <c r="F541" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.8727989795134592</v>
+        <v>7.0315321179715387</v>
       </c>
       <c r="G541" s="19">
         <v>200</v>
@@ -17327,11 +17327,11 @@
       </c>
       <c r="E542" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>23.317564651145108</v>
+        <v>20.914933096013453</v>
       </c>
       <c r="F542" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>7.8141007400085298</v>
+        <v>7.0833917514877953</v>
       </c>
       <c r="G542" s="19">
         <v>80</v>
@@ -17355,11 +17355,11 @@
       </c>
       <c r="E543" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>26.484608726643092</v>
+        <v>21.061433492092597</v>
       </c>
       <c r="F543" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>7.1284749857528267</v>
+        <v>9.3042838528049678</v>
       </c>
       <c r="G543" s="19">
         <v>40</v>
@@ -17383,11 +17383,11 @@
       </c>
       <c r="E544" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>26.675779668281081</v>
+        <v>23.25913807481643</v>
       </c>
       <c r="F544" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.5681649151563954</v>
+        <v>4.3114870029301908</v>
       </c>
       <c r="G544" s="19">
         <v>110</v>
@@ -17411,11 +17411,11 @@
       </c>
       <c r="E545" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>29.905233476555097</v>
+        <v>23.305058530202579</v>
       </c>
       <c r="F545" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.0760944313495004</v>
+        <v>6.7720498650048411</v>
       </c>
       <c r="G545" s="19">
         <v>150</v>
@@ -17439,11 +17439,11 @@
       </c>
       <c r="E546" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>30.29850008049641</v>
+        <v>26.151894012971717</v>
       </c>
       <c r="F546" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.7872310109156198</v>
+        <v>6.1227840745165896</v>
       </c>
       <c r="G546" s="19">
         <v>90</v>
@@ -17467,11 +17467,11 @@
       </c>
       <c r="E547" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>19.340207091088892</v>
+        <v>19.287720511274813</v>
       </c>
       <c r="F547" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.2372191204508844</v>
+        <v>8.0755866265077589</v>
       </c>
       <c r="G547" s="19">
         <v>30</v>
@@ -17495,11 +17495,11 @@
       </c>
       <c r="E548" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>25.084182073956587</v>
+        <v>18.995561058080618</v>
       </c>
       <c r="F548" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>3.4001246641004612</v>
+        <v>10.273111910931284</v>
       </c>
       <c r="G548" s="19">
         <v>20</v>
@@ -17523,11 +17523,11 @@
       </c>
       <c r="E549" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>22.398009840038448</v>
+        <v>21.29030498847024</v>
       </c>
       <c r="F549" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>7.1237879406101685</v>
+        <v>6.1561315136548309</v>
       </c>
       <c r="G549" s="19">
         <v>70</v>
@@ -17551,11 +17551,11 @@
       </c>
       <c r="E550" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>24.270781913403681</v>
+        <v>26.282721097116291</v>
       </c>
       <c r="F550" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.6093155514816742</v>
+        <v>2.6045136283884078</v>
       </c>
       <c r="G550" s="19">
         <v>140</v>
@@ -17579,11 +17579,11 @@
       </c>
       <c r="E551" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>17.515771239324444</v>
+        <v>25.207144045119065</v>
       </c>
       <c r="F551" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>3.1643591468978731</v>
+        <v>7.1998976343947181</v>
       </c>
       <c r="G551" s="19">
         <v>100</v>
@@ -17607,11 +17607,11 @@
       </c>
       <c r="E552" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>14.868629171918226</v>
+        <v>23.6417301458727</v>
       </c>
       <c r="F552" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>3.9015502417648942</v>
+        <v>3.3480589848405904</v>
       </c>
       <c r="G552" s="19">
         <v>50</v>
@@ -17635,11 +17635,11 @@
       </c>
       <c r="E553" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>26.207288337899396</v>
+        <v>18.448732407269034</v>
       </c>
       <c r="F553" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>10.881855120720999</v>
+        <v>5.425327546415339</v>
       </c>
       <c r="G553" s="19">
         <v>120</v>
@@ -17663,11 +17663,11 @@
       </c>
       <c r="E554" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>22.166995944010043</v>
+        <v>21.949507987829065</v>
       </c>
       <c r="F554" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.4954072159294265</v>
+        <v>3.1884804084215768</v>
       </c>
       <c r="G554" s="19">
         <v>200</v>
@@ -17691,11 +17691,11 @@
       </c>
       <c r="E555" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>14.31973049643768</v>
+        <v>29.381385853855882</v>
       </c>
       <c r="F555" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>2.6675686435318497</v>
+        <v>5.4068483328901831</v>
       </c>
       <c r="G555" s="19">
         <v>80</v>
@@ -17719,11 +17719,11 @@
       </c>
       <c r="E556" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>19.38695026496972</v>
+        <v>23.6317549253598</v>
       </c>
       <c r="F556" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.2637246155970034</v>
+        <v>5.0402969223349565</v>
       </c>
       <c r="G556" s="19">
         <v>40</v>
@@ -17747,11 +17747,11 @@
       </c>
       <c r="E557" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>14.017916597351318</v>
+        <v>16.914351141327359</v>
       </c>
       <c r="F557" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.8438216868228237</v>
+        <v>3.4088163283773762</v>
       </c>
       <c r="G557" s="19">
         <v>110</v>
@@ -17775,11 +17775,11 @@
       </c>
       <c r="E558" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>22.952871041575786</v>
+        <v>23.36311965859943</v>
       </c>
       <c r="F558" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>3.2488238706151136</v>
+        <v>5.4487954020058362</v>
       </c>
       <c r="G558" s="19">
         <v>150</v>
@@ -17803,11 +17803,11 @@
       </c>
       <c r="E559" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>19.517101649098972</v>
+        <v>23.817014171897178</v>
       </c>
       <c r="F559" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.0964284510744111</v>
+        <v>4.5922392633903311</v>
       </c>
       <c r="G559" s="19">
         <v>90</v>
@@ -17831,11 +17831,11 @@
       </c>
       <c r="E560" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>22.747999004770733</v>
+        <v>18.661574536798042</v>
       </c>
       <c r="F560" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>8.4247601489226049</v>
+        <v>5.7090461636598011</v>
       </c>
       <c r="G560" s="19">
         <v>30</v>
@@ -17859,11 +17859,11 @@
       </c>
       <c r="E561" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>24.218205206666124</v>
+        <v>24.377976120795527</v>
       </c>
       <c r="F561" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>7.4664344906826816</v>
+        <v>6.00186627996196</v>
       </c>
       <c r="G561" s="19">
         <v>20</v>
@@ -17887,11 +17887,11 @@
       </c>
       <c r="E562" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>19.674426006942483</v>
+        <v>22.033205045942619</v>
       </c>
       <c r="F562" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>3.0405436969333022</v>
+        <v>8.9082246892535508</v>
       </c>
       <c r="G562" s="19">
         <v>70</v>
@@ -17915,11 +17915,11 @@
       </c>
       <c r="E563" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>20.136330005298298</v>
+        <v>28.360769856058809</v>
       </c>
       <c r="F563" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.4433802021440929</v>
+        <v>4.9171175776974758</v>
       </c>
       <c r="G563" s="19">
         <v>140</v>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="E564" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>22.635516372731523</v>
+        <v>27.750235716536928</v>
       </c>
       <c r="F564" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>3.9929847839311949</v>
+        <v>6.5697120520883185</v>
       </c>
     </row>
     <row r="565" spans="1:20" x14ac:dyDescent="0.3">
@@ -17965,11 +17965,11 @@
       </c>
       <c r="E565" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>26.89663253023717</v>
+        <v>23.321943928373656</v>
       </c>
       <c r="F565" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>3.3629575583640343</v>
+        <v>4.0931792981672128</v>
       </c>
       <c r="G565" s="19">
         <v>200</v>
@@ -17993,11 +17993,11 @@
       </c>
       <c r="E566" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>27.195377660242201</v>
+        <v>26.036331298127458</v>
       </c>
       <c r="F566" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.392658988784798</v>
+        <v>4.9624821390560996</v>
       </c>
       <c r="G566" s="19">
         <v>80</v>
@@ -18021,11 +18021,11 @@
       </c>
       <c r="E567" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>22.064656556967481</v>
+        <v>27.507468474907025</v>
       </c>
       <c r="F567" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.1937840020728085</v>
+        <v>3.3813883716351358</v>
       </c>
       <c r="G567" s="19">
         <v>40</v>
@@ -18049,11 +18049,11 @@
       </c>
       <c r="E568" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>28.391882406495739</v>
+        <v>19.404757400576564</v>
       </c>
       <c r="F568" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>10.817515592196907</v>
+        <v>3.1023848119615094</v>
       </c>
       <c r="G568" s="19">
         <v>110</v>
@@ -18077,11 +18077,11 @@
       </c>
       <c r="E569" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>25.521400521157918</v>
+        <v>21.904235565766164</v>
       </c>
       <c r="F569" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>8.5678002530183353</v>
+        <v>6.1410668627533909</v>
       </c>
       <c r="G569" s="19">
         <v>150</v>
@@ -18107,11 +18107,11 @@
       </c>
       <c r="E570" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>27.86616480274634</v>
+        <v>19.772870525738337</v>
       </c>
       <c r="F570" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.6355618039319992</v>
+        <v>6.2182745150358745</v>
       </c>
       <c r="G570" s="19">
         <v>90</v>
@@ -18137,11 +18137,11 @@
       </c>
       <c r="E571" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>22.645918381880303</v>
+        <v>14.557644422801923</v>
       </c>
       <c r="F571" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.1084121448683977</v>
+        <v>6.8765784192036428</v>
       </c>
       <c r="G571" s="19">
         <v>30</v>
@@ -18167,11 +18167,11 @@
       </c>
       <c r="E572" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>21.915919157863748</v>
+        <v>23.00764611493646</v>
       </c>
       <c r="F572" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>3.2930780205849608</v>
+        <v>10.188099753167341</v>
       </c>
       <c r="G572" s="19">
         <v>20</v>
@@ -18197,11 +18197,11 @@
       </c>
       <c r="E573" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>25.694204555881949</v>
+        <v>14.893501313441629</v>
       </c>
       <c r="F573" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>5.4519336380536885</v>
+        <v>6.3999649045627498</v>
       </c>
       <c r="G573" s="19">
         <v>70</v>
@@ -18227,11 +18227,11 @@
       </c>
       <c r="E574" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>18.533273630077893</v>
+        <v>29.176000754367212</v>
       </c>
       <c r="F574" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>11.056181099117829</v>
+        <v>2.5889933624413093</v>
       </c>
       <c r="G574" s="19">
         <v>140</v>
@@ -18257,11 +18257,11 @@
       </c>
       <c r="E575" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>27.95298610228356</v>
+        <v>23.656057830714023</v>
       </c>
       <c r="F575" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.4048156938751895</v>
+        <v>3.1306651466800863</v>
       </c>
       <c r="G575" s="19">
         <v>100</v>
@@ -18287,11 +18287,11 @@
       </c>
       <c r="E576" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>29.775756276648281</v>
+        <v>30.814103812579713</v>
       </c>
       <c r="F576" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>4.8649541661501896</v>
+        <v>6.6339016494764564</v>
       </c>
       <c r="G576" s="19">
         <v>50</v>
@@ -18317,11 +18317,11 @@
       </c>
       <c r="E577" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>18.838327767776871</v>
+        <v>21.412174701978344</v>
       </c>
       <c r="F577" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>6.9244925672174729</v>
+        <v>2.939008138838326</v>
       </c>
       <c r="G577" s="19">
         <v>120</v>
@@ -18347,11 +18347,11 @@
       </c>
       <c r="E578" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>20.643854314102573</v>
+        <v>16.902537194619224</v>
       </c>
       <c r="F578" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>7.0174086050757394</v>
+        <v>5.7100283688394677</v>
       </c>
       <c r="G578" s="19">
         <v>200</v>
@@ -18377,11 +18377,11 @@
       </c>
       <c r="E579" s="20">
         <f t="shared" ref="E579:E632" ca="1" si="18">MIN(36, MAX(11, NORMINV(RAND(), 23.5, 4)))</f>
-        <v>18.578670280462351</v>
+        <v>19.960593811619326</v>
       </c>
       <c r="F579" s="20">
         <f t="shared" ref="F579:F632" ca="1" si="19">MIN(15, MAX(2, NORMINV(RAND(), 6, 2)))</f>
-        <v>5.9021156190141619</v>
+        <v>3.0640605129650056</v>
       </c>
       <c r="G579" s="19">
         <v>80</v>
@@ -18407,11 +18407,11 @@
       </c>
       <c r="E580" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>22.510962032759252</v>
+        <v>27.247130599835675</v>
       </c>
       <c r="F580" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.1924110657622187</v>
+        <v>7.5009302789015821</v>
       </c>
       <c r="G580" s="19">
         <v>40</v>
@@ -18437,11 +18437,11 @@
       </c>
       <c r="E581" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>22.91283875760314</v>
+        <v>24.341583323326081</v>
       </c>
       <c r="F581" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+        <v>8.1965668982247877</v>
       </c>
       <c r="G581" s="19">
         <v>110</v>
@@ -18467,11 +18467,11 @@
       </c>
       <c r="E582" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>26.358645042189686</v>
+        <v>19.685876257309349</v>
       </c>
       <c r="F582" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.7950716084382439</v>
+        <v>7.5810043943189189</v>
       </c>
       <c r="G582" s="19">
         <v>150</v>
@@ -18497,11 +18497,11 @@
       </c>
       <c r="E583" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>25.599178223390457</v>
+        <v>21.073629984999947</v>
       </c>
       <c r="F583" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.4612972110877323</v>
+        <v>5.2364626059060448</v>
       </c>
       <c r="G583" s="19">
         <v>90</v>
@@ -18527,11 +18527,11 @@
       </c>
       <c r="E584" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>27.236308118073666</v>
+        <v>23.985518032378081</v>
       </c>
       <c r="F584" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.2188180686846959</v>
+        <v>4.6837006682651223</v>
       </c>
       <c r="G584" s="19">
         <v>30</v>
@@ -18557,11 +18557,11 @@
       </c>
       <c r="E585" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>27.576109563572913</v>
+        <v>23.865311445246821</v>
       </c>
       <c r="F585" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>2.8020452643781955</v>
+        <v>3.4455730436202403</v>
       </c>
       <c r="G585" s="19">
         <v>20</v>
@@ -18587,11 +18587,11 @@
       </c>
       <c r="E586" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>27.781840805979897</v>
+        <v>20.386305277455676</v>
       </c>
       <c r="F586" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>3.9319654784053242</v>
+        <v>4.2419503324005001</v>
       </c>
       <c r="G586" s="19">
         <v>70</v>
@@ -18617,11 +18617,11 @@
       </c>
       <c r="E587" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>25.128322023164287</v>
+        <v>21.214501080122858</v>
       </c>
       <c r="F587" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>4.1628589795053053</v>
+        <v>3.0515335251814344</v>
       </c>
       <c r="G587" s="19">
         <v>140</v>
@@ -18647,11 +18647,11 @@
       </c>
       <c r="E588" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>20.46680354292355</v>
+        <v>25.188779749799295</v>
       </c>
       <c r="F588" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>8.88133524185338</v>
+        <v>6.8670799176985895</v>
       </c>
       <c r="G588" s="19">
         <v>100</v>
@@ -18677,11 +18677,11 @@
       </c>
       <c r="E589" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>13.332329247795006</v>
+        <v>24.744009253575356</v>
       </c>
       <c r="F589" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>4.9829993455594401</v>
+        <v>4.8269715395397625</v>
       </c>
       <c r="G589" s="19">
         <v>50</v>
@@ -18707,11 +18707,11 @@
       </c>
       <c r="E590" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>24.314908321675532</v>
+        <v>19.627552793154788</v>
       </c>
       <c r="F590" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>9.8492260149047066</v>
+        <v>8.2063716427301614</v>
       </c>
       <c r="G590" s="19">
         <v>120</v>
@@ -18737,11 +18737,11 @@
       </c>
       <c r="E591" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>20.755087532266494</v>
+        <v>26.040255915071679</v>
       </c>
       <c r="F591" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>9.6904744481846983</v>
+        <v>8.2924305632653059</v>
       </c>
       <c r="G591" s="19">
         <v>200</v>
@@ -18767,11 +18767,11 @@
       </c>
       <c r="E592" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>23.751059280383704</v>
+        <v>18.602848284668553</v>
       </c>
       <c r="F592" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>9.9939459077561121</v>
+        <v>4.7409864852602066</v>
       </c>
       <c r="G592" s="19">
         <v>80</v>
@@ -18797,11 +18797,11 @@
       </c>
       <c r="E593" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>21.062800728340129</v>
+        <v>22.162394736354472</v>
       </c>
       <c r="F593" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>3.8456825933677368</v>
+        <v>6.288982204015273</v>
       </c>
       <c r="G593" s="19">
         <v>40</v>
@@ -18827,11 +18827,11 @@
       </c>
       <c r="E594" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>25.302528695937109</v>
+        <v>28.630312983369535</v>
       </c>
       <c r="F594" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.9322540470249621</v>
+        <v>5.8391423077734421</v>
       </c>
       <c r="G594" s="19">
         <v>110</v>
@@ -18857,11 +18857,11 @@
       </c>
       <c r="E595" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>23.841369219665175</v>
+        <v>26.009583213101013</v>
       </c>
       <c r="F595" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.8191695964172698</v>
+        <v>3.3160972581728219</v>
       </c>
       <c r="G595" s="19">
         <v>150</v>
@@ -18887,11 +18887,11 @@
       </c>
       <c r="E596" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>27.981195696997787</v>
+        <v>19.139972646945221</v>
       </c>
       <c r="F596" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>7.4242572786741743</v>
+        <v>2.0300507533886187</v>
       </c>
       <c r="G596" s="19">
         <v>90</v>
@@ -18917,11 +18917,11 @@
       </c>
       <c r="E597" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>24.634118023729652</v>
+        <v>24.411817794705733</v>
       </c>
       <c r="F597" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>3.8269518470087331</v>
+        <v>4.6412557430794621</v>
       </c>
       <c r="G597" s="19">
         <v>30</v>
@@ -18947,11 +18947,11 @@
       </c>
       <c r="E598" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>21.304328724689427</v>
+        <v>25.611813092476954</v>
       </c>
       <c r="F598" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>4.7093867721916078</v>
+        <v>5.1135390202450308</v>
       </c>
       <c r="G598" s="19">
         <v>20</v>
@@ -18977,11 +18977,11 @@
       </c>
       <c r="E599" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>22.037550453551855</v>
+        <v>16.46026679619381</v>
       </c>
       <c r="F599" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.2951797029216019</v>
+        <v>7.1995365697347005</v>
       </c>
       <c r="G599" s="19">
         <v>70</v>
@@ -19007,11 +19007,11 @@
       </c>
       <c r="E600" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>31.262553118339405</v>
+        <v>24.49935766211253</v>
       </c>
       <c r="F600" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.0586764456836883</v>
+        <v>7.9141641739814341</v>
       </c>
       <c r="G600" s="19">
         <v>140</v>
@@ -19037,11 +19037,11 @@
       </c>
       <c r="E601" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>24.889074326303053</v>
+        <v>22.443908575286542</v>
       </c>
       <c r="F601" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.6763492409816898</v>
+        <v>4.8983463870617889</v>
       </c>
       <c r="G601" s="19">
         <v>100</v>
@@ -19067,11 +19067,11 @@
       </c>
       <c r="E602" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>32.127662381027832</v>
+        <v>21.807660356900964</v>
       </c>
       <c r="F602" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.505620841914924</v>
+        <v>6.4638057455000588</v>
       </c>
       <c r="G602" s="19">
         <v>50</v>
@@ -19097,11 +19097,11 @@
       </c>
       <c r="E603" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>16.922489082873188</v>
+        <v>22.25684302900352</v>
       </c>
       <c r="F603" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.912449625944082</v>
+        <v>5.2895166957033224</v>
       </c>
       <c r="G603" s="19">
         <v>120</v>
@@ -19127,11 +19127,11 @@
       </c>
       <c r="E604" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>26.914819135396716</v>
+        <v>26.588507374575205</v>
       </c>
       <c r="F604" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.2191072443653379</v>
+        <v>3.9674469727761106</v>
       </c>
       <c r="G604" s="19">
         <v>200</v>
@@ -19157,11 +19157,11 @@
       </c>
       <c r="E605" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>17.421888511911856</v>
+        <v>24.559895717773642</v>
       </c>
       <c r="F605" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.2686518233575352</v>
+        <v>4.8214506209412828</v>
       </c>
       <c r="G605" s="19">
         <v>80</v>
@@ -19187,11 +19187,11 @@
       </c>
       <c r="E606" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>28.161637593303489</v>
+        <v>22.854048165667937</v>
       </c>
       <c r="F606" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>8.9877645338117524</v>
+        <v>8.6775068301397784</v>
       </c>
       <c r="G606" s="19">
         <v>40</v>
@@ -19217,11 +19217,11 @@
       </c>
       <c r="E607" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>23.46813263859881</v>
+        <v>19.43082130183689</v>
       </c>
       <c r="F607" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>2.798562812767929</v>
+        <v>3.3056860118601215</v>
       </c>
       <c r="G607" s="19">
         <v>110</v>
@@ -19247,11 +19247,11 @@
       </c>
       <c r="E608" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>24.455745889879356</v>
+        <v>19.162687049019183</v>
       </c>
       <c r="F608" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>9.8389849590398804</v>
+        <v>5.905278296346574</v>
       </c>
       <c r="G608" s="19">
         <v>150</v>
@@ -19277,11 +19277,11 @@
       </c>
       <c r="E609" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>21.967927171660964</v>
+        <v>28.274496691084622</v>
       </c>
       <c r="F609" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+        <v>10.315562284961491</v>
       </c>
       <c r="G609" s="19">
         <v>90</v>
@@ -19307,11 +19307,11 @@
       </c>
       <c r="E610" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>21.030166680751826</v>
+        <v>19.077316199847651</v>
       </c>
       <c r="F610" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>4.7928145127876993</v>
+        <v>6.3937986315957858</v>
       </c>
       <c r="G610" s="19">
         <v>30</v>
@@ -19337,11 +19337,11 @@
       </c>
       <c r="E611" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>22.77219251533117</v>
+        <v>22.008347162480234</v>
       </c>
       <c r="F611" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>3.5850000965525641</v>
+        <v>7.210242428688038</v>
       </c>
       <c r="G611" s="19">
         <v>20</v>
@@ -19367,11 +19367,11 @@
       </c>
       <c r="E612" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>28.036022179991363</v>
+        <v>26.904102845711588</v>
       </c>
       <c r="F612" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.7935099990991947</v>
+        <v>6.5686391943085667</v>
       </c>
       <c r="G612" s="19">
         <v>70</v>
@@ -19397,11 +19397,11 @@
       </c>
       <c r="E613" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>26.833974861766546</v>
+        <v>26.400278880389909</v>
       </c>
       <c r="F613" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>9.6344145566333026</v>
+        <v>10.163657148920745</v>
       </c>
       <c r="G613" s="19">
         <v>140</v>
@@ -19427,11 +19427,11 @@
       </c>
       <c r="E614" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>20.638207874331503</v>
+        <v>16.393004262409029</v>
       </c>
       <c r="F614" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>10.796285869017893</v>
+        <v>4.3337786029887999</v>
       </c>
       <c r="G614" s="19">
         <v>100</v>
@@ -19457,11 +19457,11 @@
       </c>
       <c r="E615" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>24.365951244772543</v>
+        <v>27.780383389173792</v>
       </c>
       <c r="F615" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.9122899669904792</v>
+        <v>2.6079619736751258</v>
       </c>
       <c r="G615" s="19">
         <v>50</v>
@@ -19487,11 +19487,11 @@
       </c>
       <c r="E616" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>28.029168306384044</v>
+        <v>22.051234365935372</v>
       </c>
       <c r="F616" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.2451818633928324</v>
+        <v>4.6795172417303759</v>
       </c>
       <c r="G616" s="19">
         <v>120</v>
@@ -19517,11 +19517,11 @@
       </c>
       <c r="E617" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>26.063324864017755</v>
+        <v>23.573129225755654</v>
       </c>
       <c r="F617" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>7.9224098655629493</v>
+        <v>5.540689564923686</v>
       </c>
       <c r="G617" s="19">
         <v>200</v>
@@ -19547,11 +19547,11 @@
       </c>
       <c r="E618" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>22.025213075329678</v>
+        <v>30.569673002948889</v>
       </c>
       <c r="F618" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>7.9092766220083695</v>
+        <v>7.0405976840078015</v>
       </c>
       <c r="G618" s="19">
         <v>80</v>
@@ -19577,11 +19577,11 @@
       </c>
       <c r="E619" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>20.531218539263335</v>
+        <v>16.059560672177859</v>
       </c>
       <c r="F619" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.6772003327979954</v>
+        <v>9.3441125010351325</v>
       </c>
       <c r="G619" s="19">
         <v>40</v>
@@ -19607,11 +19607,11 @@
       </c>
       <c r="E620" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>20.913011244808189</v>
+        <v>20.008616234159561</v>
       </c>
       <c r="F620" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.9111550140386937</v>
+        <v>4.9501223340085421</v>
       </c>
       <c r="G620" s="19">
         <v>110</v>
@@ -19637,11 +19637,11 @@
       </c>
       <c r="E621" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>29.994308004112909</v>
+        <v>23.672395563238538</v>
       </c>
       <c r="F621" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>9.5270154725960001</v>
+        <v>5.4640522791192101</v>
       </c>
       <c r="G621" s="19">
         <v>150</v>
@@ -19667,11 +19667,11 @@
       </c>
       <c r="E622" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>19.360870600031006</v>
+        <v>26.497362859095347</v>
       </c>
       <c r="F622" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.8383122367727989</v>
+        <v>2.872592846004153</v>
       </c>
       <c r="G622" s="19">
         <v>90</v>
@@ -19697,11 +19697,11 @@
       </c>
       <c r="E623" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>26.612626761605203</v>
+        <v>23.647549707775823</v>
       </c>
       <c r="F623" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>4.6375880603033099</v>
+        <v>6.5306223810142328</v>
       </c>
       <c r="G623" s="19">
         <v>30</v>
@@ -19727,11 +19727,11 @@
       </c>
       <c r="E624" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>22.741019735578348</v>
+        <v>24.399993046740988</v>
       </c>
       <c r="F624" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.4411654480664637</v>
+        <v>4.9783336540034586</v>
       </c>
       <c r="G624" s="19">
         <v>20</v>
@@ -19757,11 +19757,11 @@
       </c>
       <c r="E625" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>24.027028039251462</v>
+        <v>25.319156453721316</v>
       </c>
       <c r="F625" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.398210820008142</v>
+        <v>7.2528665580858087</v>
       </c>
       <c r="G625" s="19">
         <v>70</v>
@@ -19787,11 +19787,11 @@
       </c>
       <c r="E626" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>19.161129953955538</v>
+        <v>22.767137119059186</v>
       </c>
       <c r="F626" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.4292107054493961</v>
+        <v>5.1544160931181677</v>
       </c>
       <c r="G626" s="19">
         <v>140</v>
@@ -19817,11 +19817,11 @@
       </c>
       <c r="E627" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>18.726588605827111</v>
+        <v>26.025153813846387</v>
       </c>
       <c r="F627" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>6.4773202662596168</v>
+        <v>4.8413707487138318</v>
       </c>
       <c r="G627" s="19">
         <v>100</v>
@@ -19847,11 +19847,11 @@
       </c>
       <c r="E628" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>24.925747653572891</v>
+        <v>25.494186065862849</v>
       </c>
       <c r="F628" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>4.0852788011917225</v>
+        <v>3.8024353225774514</v>
       </c>
       <c r="G628" s="19">
         <v>50</v>
@@ -19877,11 +19877,11 @@
       </c>
       <c r="E629" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>27.49305854289458</v>
+        <v>23.667619090509611</v>
       </c>
       <c r="F629" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>4.9665975055227314</v>
+        <v>7.4802135145565778</v>
       </c>
       <c r="G629" s="19">
         <v>120</v>
@@ -19907,11 +19907,11 @@
       </c>
       <c r="E630" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>25.888485591413502</v>
+        <v>20.452251969236592</v>
       </c>
       <c r="F630" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>10.140815140209664</v>
+        <v>9.1303283289114514</v>
       </c>
       <c r="G630" s="19">
         <v>200</v>
@@ -19937,11 +19937,11 @@
       </c>
       <c r="E631" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>25.885290816159245</v>
+        <v>28.488110828498208</v>
       </c>
       <c r="F631" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>5.5008666067427026</v>
+        <v>2</v>
       </c>
       <c r="G631" s="19">
         <v>80</v>
@@ -19967,11 +19967,11 @@
       </c>
       <c r="E632" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>19.834453268239592</v>
+        <v>22.850377868165275</v>
       </c>
       <c r="F632" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>8.990780713182323</v>
+        <v>5.4309006509234408</v>
       </c>
       <c r="G632" s="19">
         <v>15</v>
@@ -20481,7 +20481,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
